--- a/docs/鍵盤設計規格_台語ㄅㄆㄇV3.xlsx
+++ b/docs/鍵盤設計規格_台語ㄅㄆㄇV3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA4EEFAD-7F11-4FDD-86DD-4FB228A5F796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC43658E-D61B-4BE9-939E-7C33BAAFAC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" activeTab="2" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
@@ -17128,10 +17128,10 @@
   </sheetPr>
   <dimension ref="B1:DE99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AA1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="BD1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
-      <selection pane="bottomLeft" activeCell="AW4" sqref="AW4"/>
+      <selection pane="bottomLeft" activeCell="BF12" sqref="BF12:DE12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" outlineLevelCol="2"/>
@@ -19074,7 +19074,214 @@
       <c r="AO12" s="48"/>
       <c r="BC12" s="11"/>
       <c r="BE12" s="225"/>
-      <c r="BH12" s="2"/>
+      <c r="BF12" s="225" t="str">
+        <f xml:space="preserve"> IF(BF10=BF14, "", "Err")</f>
+        <v/>
+      </c>
+      <c r="BG12" s="225" t="str">
+        <f t="shared" ref="BG12:DE12" si="15" xml:space="preserve"> IF(BG10=BG14, "", "Err")</f>
+        <v/>
+      </c>
+      <c r="BH12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BI12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BJ12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BK12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BL12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BM12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BN12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BO12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BP12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BQ12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BR12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BS12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BT12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BU12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BV12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BW12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BX12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BY12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="BZ12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CA12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CB12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CC12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CD12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CE12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CF12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CG12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CH12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CI12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CJ12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CK12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CL12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CM12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CN12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CO12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CP12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CQ12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CR12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CS12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CT12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CU12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CV12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CW12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CX12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CY12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v/>
+      </c>
+      <c r="CZ12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v>Err</v>
+      </c>
+      <c r="DA12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v>Err</v>
+      </c>
+      <c r="DB12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v>Err</v>
+      </c>
+      <c r="DC12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v>Err</v>
+      </c>
+      <c r="DD12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v>Err</v>
+      </c>
+      <c r="DE12" s="225" t="str">
+        <f t="shared" si="15"/>
+        <v>Err</v>
+      </c>
     </row>
     <row r="13" spans="2:109" ht="32.25">
       <c r="B13" s="2">
@@ -19530,211 +19737,211 @@
       </c>
       <c r="BE14" s="225"/>
       <c r="BF14" s="340" t="str">
-        <f t="shared" ref="BF14:CJ14" si="15" xml:space="preserve"> MID($AO$14, BF$13, 1)</f>
+        <f t="shared" ref="BF14:CJ14" si="16" xml:space="preserve"> MID($AO$14, BF$13, 1)</f>
         <v>1</v>
       </c>
       <c r="BG14" s="339" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>q</v>
       </c>
       <c r="BH14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>!</v>
       </c>
       <c r="BI14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>a</v>
       </c>
       <c r="BJ14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
       <c r="BK14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>w</v>
       </c>
       <c r="BL14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>s</v>
       </c>
       <c r="BM14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>x</v>
       </c>
       <c r="BN14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>y</v>
       </c>
       <c r="BO14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>h</v>
       </c>
       <c r="BP14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>n</v>
       </c>
       <c r="BQ14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>b</v>
       </c>
       <c r="BR14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>Y</v>
       </c>
       <c r="BS14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>H</v>
       </c>
       <c r="BT14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>N</v>
       </c>
       <c r="BU14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>B</v>
       </c>
       <c r="BV14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>e</v>
       </c>
       <c r="BW14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>d</v>
       </c>
       <c r="BX14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>E</v>
       </c>
       <c r="BY14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>g</v>
       </c>
       <c r="BZ14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>c</v>
       </c>
       <c r="CA14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>u</v>
       </c>
       <c r="CB14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>j</v>
       </c>
       <c r="CC14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>8</v>
       </c>
       <c r="CD14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>i</v>
       </c>
       <c r="CE14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>k</v>
       </c>
       <c r="CF14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>,</v>
       </c>
       <c r="CG14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>9</v>
       </c>
       <c r="CH14" s="343" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>l</v>
       </c>
       <c r="CI14" s="342" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>U</v>
       </c>
       <c r="CJ14" s="340" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>J</v>
       </c>
       <c r="CK14" s="340" t="str">
-        <f t="shared" ref="CK14:DE14" si="16" xml:space="preserve"> MID($AO$14, CK$13, 1)</f>
+        <f t="shared" ref="CK14:DE14" si="17" xml:space="preserve"> MID($AO$14, CK$13, 1)</f>
         <v>*</v>
       </c>
       <c r="CL14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>I</v>
       </c>
       <c r="CM14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>&lt;</v>
       </c>
       <c r="CN14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>(</v>
       </c>
       <c r="CO14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>L</v>
       </c>
       <c r="CP14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>-</v>
       </c>
       <c r="CQ14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>M</v>
       </c>
       <c r="CR14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="CS14" s="341" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>;</v>
       </c>
       <c r="CT14" s="341" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>O</v>
       </c>
       <c r="CU14" s="341" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>o</v>
       </c>
       <c r="CV14" s="341" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>m</v>
       </c>
       <c r="CW14" s="341" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>p</v>
       </c>
       <c r="CX14" s="341" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>/</v>
       </c>
       <c r="CY14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>.</v>
       </c>
       <c r="CZ14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="DA14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="DB14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="DC14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="DD14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="DE14" s="340" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v/>
       </c>
     </row>
@@ -19859,211 +20066,211 @@
       <c r="BD15" s="40"/>
       <c r="BE15" s="225"/>
       <c r="BF15" s="340" t="str">
-        <f t="shared" ref="BF15:CJ15" si="17" xml:space="preserve"> MID($AO$15, BF$13, 1)</f>
+        <f t="shared" ref="BF15:CJ15" si="18" xml:space="preserve"> MID($AO$15, BF$13, 1)</f>
         <v>ㄅ</v>
       </c>
       <c r="BG15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄆ</v>
       </c>
       <c r="BH15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㆠ</v>
       </c>
       <c r="BI15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄇ</v>
       </c>
       <c r="BJ15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄉ</v>
       </c>
       <c r="BK15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄊ</v>
       </c>
       <c r="BL15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄋ</v>
       </c>
       <c r="BM15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄌ</v>
       </c>
       <c r="BN15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄗ</v>
       </c>
       <c r="BO15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄘ</v>
       </c>
       <c r="BP15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄙ</v>
       </c>
       <c r="BQ15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㆡ</v>
       </c>
       <c r="BR15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄐ</v>
       </c>
       <c r="BS15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄑ</v>
       </c>
       <c r="BT15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄒ</v>
       </c>
       <c r="BU15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㆢ</v>
       </c>
       <c r="BV15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄍ</v>
       </c>
       <c r="BW15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄎ</v>
       </c>
       <c r="BX15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㆣ</v>
       </c>
       <c r="BY15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄫ</v>
       </c>
       <c r="BZ15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄏ</v>
       </c>
       <c r="CA15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄧ</v>
       </c>
       <c r="CB15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄨ</v>
       </c>
       <c r="CC15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄚ</v>
       </c>
       <c r="CD15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㆦ</v>
       </c>
       <c r="CE15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄜ</v>
       </c>
       <c r="CF15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㆤ</v>
       </c>
       <c r="CG15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄞ</v>
       </c>
       <c r="CH15" s="343" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㄠ</v>
       </c>
       <c r="CI15" s="342" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㆪ</v>
       </c>
       <c r="CJ15" s="340" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>ㆫ</v>
       </c>
       <c r="CK15" s="340" t="str">
-        <f t="shared" ref="CK15:DE15" si="18" xml:space="preserve"> MID($AO$15, CK$13, 1)</f>
+        <f t="shared" ref="CK15:DE15" si="19" xml:space="preserve"> MID($AO$15, CK$13, 1)</f>
         <v>ㆩ</v>
       </c>
       <c r="CL15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㆧ</v>
       </c>
       <c r="CM15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㆥ</v>
       </c>
       <c r="CN15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㆮ</v>
       </c>
       <c r="CO15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㆯ</v>
       </c>
       <c r="CP15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㆨ</v>
       </c>
       <c r="CQ15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㆰ</v>
       </c>
       <c r="CR15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㄢ</v>
       </c>
       <c r="CS15" s="341" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㄤ</v>
       </c>
       <c r="CT15" s="341" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㆱ</v>
       </c>
       <c r="CU15" s="341" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㆲ</v>
       </c>
       <c r="CV15" s="341" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㆬ</v>
       </c>
       <c r="CW15" s="341" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㄣ</v>
       </c>
       <c r="CX15" s="341" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㆭ</v>
       </c>
       <c r="CY15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>ㄬ</v>
       </c>
       <c r="CZ15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="DA15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="DB15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="DC15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="DD15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="DE15" s="340" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v/>
       </c>
     </row>
@@ -20797,7 +21004,7 @@
         <v>21</v>
       </c>
       <c r="M23" s="21" t="str">
-        <f t="shared" ref="M23:M48" si="19" xml:space="preserve"> IFERROR( MID($B$15, $H23, 1), "")</f>
+        <f t="shared" ref="M23:M48" si="20" xml:space="preserve"> IFERROR( MID($B$15, $H23, 1), "")</f>
         <v>c</v>
       </c>
       <c r="N23" s="21" t="str">
@@ -20902,7 +21109,7 @@
         <v>22</v>
       </c>
       <c r="M24" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>u</v>
       </c>
       <c r="N24" s="21" t="str">
@@ -21011,7 +21218,7 @@
         <v>23</v>
       </c>
       <c r="M25" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>j</v>
       </c>
       <c r="N25" s="21" t="str">
@@ -21139,7 +21346,7 @@
         <v>24</v>
       </c>
       <c r="M26" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8</v>
       </c>
       <c r="N26" s="21" t="str">
@@ -21259,7 +21466,7 @@
         <v>25</v>
       </c>
       <c r="M27" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>i</v>
       </c>
       <c r="N27" s="21" t="str">
@@ -21373,7 +21580,7 @@
         <v>26</v>
       </c>
       <c r="M28" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>k</v>
       </c>
       <c r="N28" s="21" t="str">
@@ -21474,7 +21681,7 @@
         <v>27</v>
       </c>
       <c r="M29" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>,</v>
       </c>
       <c r="N29" s="21" t="str">
@@ -21575,7 +21782,7 @@
         <v>28</v>
       </c>
       <c r="M30" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9</v>
       </c>
       <c r="N30" s="21" t="str">
@@ -21676,7 +21883,7 @@
         <v>29</v>
       </c>
       <c r="M31" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>l</v>
       </c>
       <c r="N31" s="21" t="str">
@@ -21777,7 +21984,7 @@
         <v>30</v>
       </c>
       <c r="M32" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>U</v>
       </c>
       <c r="N32" s="21" t="str">
@@ -21877,7 +22084,7 @@
         <v>31</v>
       </c>
       <c r="M33" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>J</v>
       </c>
       <c r="N33" s="21" t="str">
@@ -21978,7 +22185,7 @@
         <v>32</v>
       </c>
       <c r="M34" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>*</v>
       </c>
       <c r="N34" s="21" t="str">
@@ -22068,22 +22275,22 @@
         <v>33</v>
       </c>
       <c r="I35" s="98" t="str">
-        <f t="shared" ref="I35:I49" si="20" xml:space="preserve"> IFERROR( MID($B$6, $H35, 1), "")</f>
+        <f t="shared" ref="I35:I49" si="21" xml:space="preserve"> IFERROR( MID($B$6, $H35, 1), "")</f>
         <v>E</v>
       </c>
       <c r="J35" s="98" t="str">
-        <f t="shared" ref="J35:J49" si="21" xml:space="preserve"> IFERROR( MID($B$7, $H35, 1), "")</f>
+        <f t="shared" ref="J35:J49" si="22" xml:space="preserve"> IFERROR( MID($B$7, $H35, 1), "")</f>
         <v>&lt;</v>
       </c>
       <c r="L35" s="2">
         <v>33</v>
       </c>
       <c r="M35" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>I</v>
       </c>
       <c r="N35" s="21" t="str">
-        <f t="shared" ref="N35:N48" si="22" xml:space="preserve"> IFERROR( MID($B$16, $H35, 1), "")</f>
+        <f t="shared" ref="N35:N48" si="23" xml:space="preserve"> IFERROR( MID($B$16, $H35, 1), "")</f>
         <v>ㆧ</v>
       </c>
       <c r="P35" s="2">
@@ -22101,11 +22308,11 @@
         <v>33</v>
       </c>
       <c r="U35" s="201" t="str">
-        <f t="shared" ref="U35:U49" si="23" xml:space="preserve"> J35</f>
+        <f t="shared" ref="U35:U49" si="24" xml:space="preserve"> J35</f>
         <v>&lt;</v>
       </c>
       <c r="V35" s="203" t="str">
-        <f t="shared" ref="V35:V49" si="24">I35</f>
+        <f t="shared" ref="V35:V49" si="25">I35</f>
         <v>E</v>
       </c>
       <c r="W35" s="202" t="str" cm="1">
@@ -22158,7 +22365,7 @@
       </c>
       <c r="AL35" s="445"/>
       <c r="AM35" s="210" t="str">
-        <f t="shared" ref="AM35:AM39" si="25" xml:space="preserve"> IF(LEN(AC35)=LEN(AD35), "", _xlfn.CONCAT( "xform/", AC35, "/", AD35, "/"))</f>
+        <f t="shared" ref="AM35:AM39" si="26" xml:space="preserve"> IF(LEN(AC35)=LEN(AD35), "", _xlfn.CONCAT( "xform/", AC35, "/", AD35, "/"))</f>
         <v/>
       </c>
       <c r="AN35" s="2"/>
@@ -22172,22 +22379,22 @@
         <v>34</v>
       </c>
       <c r="I36" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>Y</v>
       </c>
       <c r="J36" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>(</v>
       </c>
       <c r="L36" s="2">
         <v>34</v>
       </c>
       <c r="M36" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>&lt;</v>
       </c>
       <c r="N36" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㆥ</v>
       </c>
       <c r="P36" s="2">
@@ -22205,11 +22412,11 @@
         <v>34</v>
       </c>
       <c r="U36" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>(</v>
       </c>
       <c r="V36" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>Y</v>
       </c>
       <c r="W36" s="202" t="str" cm="1">
@@ -22262,7 +22469,7 @@
       </c>
       <c r="AL36" s="445"/>
       <c r="AM36" s="210" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AN36" s="2"/>
@@ -22276,22 +22483,22 @@
         <v>35</v>
       </c>
       <c r="I37" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>X</v>
       </c>
       <c r="J37" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>L</v>
       </c>
       <c r="L37" s="2">
         <v>35</v>
       </c>
       <c r="M37" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>(</v>
       </c>
       <c r="N37" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㆮ</v>
       </c>
       <c r="P37" s="2">
@@ -22309,11 +22516,11 @@
         <v>35</v>
       </c>
       <c r="U37" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>L</v>
       </c>
       <c r="V37" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>X</v>
       </c>
       <c r="W37" s="202" t="str" cm="1">
@@ -22366,7 +22573,7 @@
       </c>
       <c r="AL37" s="445"/>
       <c r="AM37" s="210" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AN37" s="2"/>
@@ -22380,22 +22587,22 @@
         <v>36</v>
       </c>
       <c r="I38" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>V</v>
       </c>
       <c r="J38" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>M</v>
       </c>
       <c r="L38" s="2">
         <v>36</v>
       </c>
       <c r="M38" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>L</v>
       </c>
       <c r="N38" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㆯ</v>
       </c>
       <c r="P38" s="2">
@@ -22413,11 +22620,11 @@
         <v>36</v>
       </c>
       <c r="U38" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>M</v>
       </c>
       <c r="V38" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>V</v>
       </c>
       <c r="W38" s="202" t="str" cm="1">
@@ -22470,7 +22677,7 @@
       </c>
       <c r="AL38" s="445"/>
       <c r="AM38" s="210" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AN38" s="2"/>
@@ -22484,22 +22691,22 @@
         <v>37</v>
       </c>
       <c r="I39" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>H</v>
       </c>
       <c r="J39" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>o</v>
       </c>
       <c r="L39" s="2">
         <v>37</v>
       </c>
       <c r="M39" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>-</v>
       </c>
       <c r="N39" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㆨ</v>
       </c>
       <c r="P39" s="2">
@@ -22517,11 +22724,11 @@
         <v>37</v>
       </c>
       <c r="U39" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>o</v>
       </c>
       <c r="V39" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>H</v>
       </c>
       <c r="W39" s="202" t="str" cm="1">
@@ -22574,7 +22781,7 @@
       </c>
       <c r="AL39" s="445"/>
       <c r="AM39" s="210" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="AN39" s="2"/>
@@ -22588,22 +22795,22 @@
         <v>38</v>
       </c>
       <c r="I40" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>W</v>
       </c>
       <c r="J40" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>/</v>
       </c>
       <c r="L40" s="2">
         <v>38</v>
       </c>
       <c r="M40" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>M</v>
       </c>
       <c r="N40" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㆰ</v>
       </c>
       <c r="P40" s="2">
@@ -22621,11 +22828,11 @@
         <v>38</v>
       </c>
       <c r="U40" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>/</v>
       </c>
       <c r="V40" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>W</v>
       </c>
       <c r="W40" s="202" t="str" cm="1">
@@ -22689,22 +22896,22 @@
         <v>39</v>
       </c>
       <c r="I41" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>N</v>
       </c>
       <c r="J41" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>p</v>
       </c>
       <c r="L41" s="2">
         <v>39</v>
       </c>
       <c r="M41" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="N41" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㄢ</v>
       </c>
       <c r="P41" s="2">
@@ -22722,11 +22929,11 @@
         <v>39</v>
       </c>
       <c r="U41" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>p</v>
       </c>
       <c r="V41" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>N</v>
       </c>
       <c r="W41" s="202" t="str" cm="1">
@@ -22779,7 +22986,7 @@
       </c>
       <c r="AL41" s="445"/>
       <c r="AM41" s="210" t="str">
-        <f t="shared" ref="AM41:AM42" si="26" xml:space="preserve"> IF(LEN(AC41)=LEN(AD41), "", _xlfn.CONCAT( "xform/", AC41, "/", AD41, "/"))</f>
+        <f t="shared" ref="AM41:AM42" si="27" xml:space="preserve"> IF(LEN(AC41)=LEN(AD41), "", _xlfn.CONCAT( "xform/", AC41, "/", AD41, "/"))</f>
         <v/>
       </c>
       <c r="AN41" s="2"/>
@@ -22793,22 +23000,22 @@
         <v>40</v>
       </c>
       <c r="I42" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>M</v>
       </c>
       <c r="J42" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>m</v>
       </c>
       <c r="L42" s="2">
         <v>40</v>
       </c>
       <c r="M42" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>;</v>
       </c>
       <c r="N42" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㄤ</v>
       </c>
       <c r="P42" s="2">
@@ -22826,11 +23033,11 @@
         <v>40</v>
       </c>
       <c r="U42" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>m</v>
       </c>
       <c r="V42" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>M</v>
       </c>
       <c r="W42" s="202" t="str" cm="1">
@@ -22883,7 +23090,7 @@
       </c>
       <c r="AL42" s="445"/>
       <c r="AM42" s="210" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="AN42" s="2"/>
@@ -22897,22 +23104,22 @@
         <v>41</v>
       </c>
       <c r="I43" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>B</v>
       </c>
       <c r="J43" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>.</v>
       </c>
       <c r="L43" s="2">
         <v>41</v>
       </c>
       <c r="M43" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>O</v>
       </c>
       <c r="N43" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㆱ</v>
       </c>
       <c r="P43" s="2">
@@ -22930,11 +23137,11 @@
         <v>41</v>
       </c>
       <c r="U43" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>.</v>
       </c>
       <c r="V43" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>B</v>
       </c>
       <c r="W43" s="202" t="str" cm="1">
@@ -22997,22 +23204,22 @@
         <v>42</v>
       </c>
       <c r="I44" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J44" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="L44" s="2">
         <v>42</v>
       </c>
       <c r="M44" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>o</v>
       </c>
       <c r="N44" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㆲ</v>
       </c>
       <c r="P44" s="2">
@@ -23030,11 +23237,11 @@
         <v>42</v>
       </c>
       <c r="U44" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="V44" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1</v>
       </c>
       <c r="W44" s="202" t="str" cm="1">
@@ -23097,22 +23304,22 @@
         <v>43</v>
       </c>
       <c r="I45" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>2</v>
       </c>
       <c r="J45" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4</v>
       </c>
       <c r="L45" s="2">
         <v>43</v>
       </c>
       <c r="M45" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>m</v>
       </c>
       <c r="N45" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㆬ</v>
       </c>
       <c r="R45" s="2"/>
@@ -23120,11 +23327,11 @@
         <v>43</v>
       </c>
       <c r="U45" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>4</v>
       </c>
       <c r="V45" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>2</v>
       </c>
       <c r="W45" s="202" t="str" cm="1">
@@ -23191,22 +23398,22 @@
         <v>44</v>
       </c>
       <c r="I46" s="98" t="str">
-        <f t="shared" si="20"/>
-        <v>3</v>
-      </c>
-      <c r="J46" s="98" t="str">
         <f t="shared" si="21"/>
         <v>3</v>
       </c>
+      <c r="J46" s="98" t="str">
+        <f t="shared" si="22"/>
+        <v>3</v>
+      </c>
       <c r="L46" s="2">
         <v>44</v>
       </c>
       <c r="M46" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>p</v>
       </c>
       <c r="N46" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㄣ</v>
       </c>
       <c r="R46" s="2"/>
@@ -23214,11 +23421,11 @@
         <v>44</v>
       </c>
       <c r="U46" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>3</v>
       </c>
       <c r="V46" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>3</v>
       </c>
       <c r="W46" s="202" t="str" cm="1">
@@ -23285,22 +23492,22 @@
         <v>45</v>
       </c>
       <c r="I47" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>5</v>
       </c>
       <c r="J47" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6</v>
       </c>
       <c r="L47" s="2">
         <v>45</v>
       </c>
       <c r="M47" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>/</v>
       </c>
       <c r="N47" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㆭ</v>
       </c>
       <c r="R47" s="2"/>
@@ -23308,11 +23515,11 @@
         <v>45</v>
       </c>
       <c r="U47" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>6</v>
       </c>
       <c r="V47" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>5</v>
       </c>
       <c r="W47" s="202" t="str" cm="1">
@@ -23380,22 +23587,22 @@
         <v>46</v>
       </c>
       <c r="I48" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>7</v>
       </c>
       <c r="J48" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5</v>
       </c>
       <c r="L48" s="2">
         <v>46</v>
       </c>
       <c r="M48" s="21" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>.</v>
       </c>
       <c r="N48" s="21" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>ㄬ</v>
       </c>
       <c r="R48" s="2"/>
@@ -23403,11 +23610,11 @@
         <v>46</v>
       </c>
       <c r="U48" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>5</v>
       </c>
       <c r="V48" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>7</v>
       </c>
       <c r="W48" s="202" t="str" cm="1">
@@ -23480,11 +23687,11 @@
         <v>47</v>
       </c>
       <c r="I49" s="98" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="J49" s="98" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>7</v>
       </c>
       <c r="L49" s="2">
@@ -23495,11 +23702,11 @@
         <v>47</v>
       </c>
       <c r="U49" s="201" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>7</v>
       </c>
       <c r="V49" s="203" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="W49" s="202" t="str" cm="1">
@@ -24067,7 +24274,7 @@
       <c r="AK58" s="441"/>
       <c r="AL58" s="444"/>
       <c r="AM58" s="391" t="str">
-        <f t="shared" ref="AM58:AM61" si="27" xml:space="preserve"> "- xform/" &amp; AE50 &amp; "/" &amp; AD50 &amp; "/"</f>
+        <f t="shared" ref="AM58:AM61" si="28" xml:space="preserve"> "- xform/" &amp; AE50 &amp; "/" &amp; AD50 &amp; "/"</f>
         <v>- xform/2/ˋ/</v>
       </c>
       <c r="AN58" s="47"/>
@@ -24113,7 +24320,7 @@
       <c r="AK59" s="441"/>
       <c r="AL59" s="444"/>
       <c r="AM59" s="391" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>- xform/3/ˇ/</v>
       </c>
       <c r="AN59" s="47"/>
@@ -24162,7 +24369,7 @@
       <c r="AK60" s="441"/>
       <c r="AL60" s="444"/>
       <c r="AM60" s="391" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>- xform/5/ˊ/</v>
       </c>
       <c r="AN60" s="47"/>
@@ -24197,7 +24404,7 @@
       <c r="AK61" s="441"/>
       <c r="AL61" s="444"/>
       <c r="AM61" s="391" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>- xform/7/+/</v>
       </c>
       <c r="AN61" s="47"/>

--- a/docs/鍵盤設計規格_台語ㄅㄆㄇV3.xlsx
+++ b/docs/鍵盤設計規格_台語ㄅㄆㄇV3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC43658E-D61B-4BE9-939E-7C33BAAFAC9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B7C30E-B1EE-441A-9E16-0C7126D2A5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" activeTab="2" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
   <sheets>
     <sheet name="注音編碼對照表" sheetId="12" r:id="rId1"/>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="1573">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="1574">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -2339,9 +2339,6 @@
   <si>
     <t>ㆷ</t>
     <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>ㄬ</t>
   </si>
   <si>
     <t>万</t>
@@ -5692,6 +5689,14 @@
   </si>
   <si>
     <t>Char</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㆣ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>ㄬ</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -7451,7 +7456,7 @@
     <xf numFmtId="0" fontId="111" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="144" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="467">
+  <cellXfs count="465">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -8597,17 +8602,66 @@
     <xf numFmtId="0" fontId="114" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="174" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="174" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="177" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="178" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="185" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="148" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="57" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -8625,18 +8679,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="56" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -8657,66 +8699,27 @@
     <xf numFmtId="9" fontId="56" fillId="14" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="174" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="174" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="174" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="175" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="176" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="177" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="178" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="179" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="138" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="113" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="114" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="180" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="181" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="182" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="183" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="173" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="184" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="155" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="185" fillId="21" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -8762,89 +8765,6 @@
           <bgColor theme="0" tint="-0.34998626667073579"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF0070C0"/>
-        <name val="Noto Serif TC SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color auto="1"/>
-        <name val="Iansui 094"/>
-        <family val="3"/>
-        <charset val="136"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="18"/>
-        <color rgb="FF0070C0"/>
-        <name val="Noto Serif TC SemiBold"/>
-        <family val="1"/>
-        <charset val="128"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -9803,6 +9723,89 @@
         <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF0070C0"/>
+        <name val="Noto Serif TC SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" relativeIndent="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Iansui 094"/>
+        <family val="3"/>
+        <charset val="136"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color rgb="FF0070C0"/>
+        <name val="Noto Serif TC SemiBold"/>
+        <family val="1"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="18"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -11476,16 +11479,16 @@
     <sortCondition ref="U3:U54" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{039C6BD6-DD3C-423D-A3C9-F25D72737C8D}" name="鍵盤按鍵" dataDxfId="4">
+    <tableColumn id="1" xr3:uid="{039C6BD6-DD3C-423D-A3C9-F25D72737C8D}" name="鍵盤按鍵" dataDxfId="48">
       <calculatedColumnFormula xml:space="preserve"> J3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{7407D282-3312-489C-B29B-19D43E4E79D6}" name="注音編碼" dataDxfId="7" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{7407D282-3312-489C-B29B-19D43E4E79D6}" name="注音編碼" dataDxfId="47" dataCellStyle="一般 4">
       <calculatedColumnFormula>I3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{DAFEC160-B656-4EE0-9837-61A87BB277BC}" name="台語ㄅㄆㄇ" dataDxfId="6" dataCellStyle="一般 4">
+    <tableColumn id="2" xr3:uid="{DAFEC160-B656-4EE0-9837-61A87BB277BC}" name="台語ㄅㄆㄇ" dataDxfId="46" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX(注音編碼對照表[台語ㄅㄆㄇ], MATCH(TRUE, EXACT(表格1_33411[[#This Row],[鍵盤按鍵]], 注音編碼對照表[鍵盤按鍵] ),0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{716636BA-FE9C-4F70-80B3-61C875130210}" name="台語音標" dataDxfId="5" dataCellStyle="一般 4">
+    <tableColumn id="3" xr3:uid="{716636BA-FE9C-4F70-80B3-61C875130210}" name="台語音標" dataDxfId="45" dataCellStyle="一般 4">
       <calculatedColumnFormula array="1" xml:space="preserve"> INDEX(注音編碼對照表!$G$3:$G$60, MATCH(TRUE, EXACT(表格1_33411[[#This Row],[注音編碼]], 注音編碼對照表!$E$3:$E$54), 0))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11494,19 +11497,19 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{77F4D247-1923-4E49-B92A-50848D28AF83}" name="表格1_334" displayName="表格1_334" ref="S2:U44" totalsRowShown="0" headerRowDxfId="44">
   <autoFilter ref="S2:U44" xr:uid="{9C00F295-8A3B-42D3-9D0E-8DA68D6B9D93}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="S3:U44">
     <sortCondition ref="S3:S44" customList="1,q,a,z,2,w,s,x,e,d,c,r,f,v,t,g,b,y,h,n,u,j,m,8,i,k,9,o,l,.,0,p,;,/,-"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="47">
+    <tableColumn id="1" xr3:uid="{2CDC81F5-DBE5-45CF-8D10-9B558D6422EC}" name="鍵盤按鍵" dataDxfId="43">
       <calculatedColumnFormula>H3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="46" dataCellStyle="一般 4">
+    <tableColumn id="4" xr3:uid="{52141FD4-4282-4655-8FDB-25D018179FEA}" name="字典編碼" dataDxfId="42" dataCellStyle="一般 4">
       <calculatedColumnFormula>G3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="45">
+    <tableColumn id="2" xr3:uid="{59B967E3-C71C-4CF6-991D-C8F093BAB101}" name="方音符號" dataDxfId="41">
       <calculatedColumnFormula xml:space="preserve"> IFERROR( INDEX($L$3:$L$44, MATCH(表格1_334[[#This Row],[鍵盤按鍵]], $K$3:$K$44,0)), "")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11515,44 +11518,44 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB332761-5FFA-4AA1-A510-7EB68827E47D}" name="方音聲母表格" displayName="方音聲母表格" ref="B3:H9" totalsRowShown="0" headerRowDxfId="44" dataDxfId="42" headerRowBorderDxfId="43" tableBorderDxfId="41" totalsRowBorderDxfId="40">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CB332761-5FFA-4AA1-A510-7EB68827E47D}" name="方音聲母表格" displayName="方音聲母表格" ref="B3:H9" totalsRowShown="0" headerRowDxfId="40" dataDxfId="38" headerRowBorderDxfId="39" tableBorderDxfId="37" totalsRowBorderDxfId="36">
   <autoFilter ref="B3:H9" xr:uid="{CB332761-5FFA-4AA1-A510-7EB68827E47D}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D99DF20F-51FB-47D5-B4CC-DA04A48AAC2D}" name="發音部位" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{6BC15A71-E0D5-404C-A6A6-8B01367E9B89}" name="塞音(不送氣)" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{44295C3E-0304-4D25-AA15-E5C51BA36FD4}" name="塞音(送氣)" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{F4CC72CD-7170-4DE4-8D5A-C18C426CA527}" name="濁音" dataDxfId="36"/>
-    <tableColumn id="5" xr3:uid="{CE151E5C-E9DA-4A02-AD63-353CCFA6087C}" name="鼻音" dataDxfId="35"/>
-    <tableColumn id="6" xr3:uid="{69AB656D-E99F-4EEB-9854-42DF77ECEB05}" name="擦音" dataDxfId="34"/>
-    <tableColumn id="7" xr3:uid="{F61BA027-9E56-47A1-8224-3F0734C11F32}" name="邊音" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{D99DF20F-51FB-47D5-B4CC-DA04A48AAC2D}" name="發音部位" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{6BC15A71-E0D5-404C-A6A6-8B01367E9B89}" name="塞音(不送氣)" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{44295C3E-0304-4D25-AA15-E5C51BA36FD4}" name="塞音(送氣)" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{F4CC72CD-7170-4DE4-8D5A-C18C426CA527}" name="濁音" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{CE151E5C-E9DA-4A02-AD63-353CCFA6087C}" name="鼻音" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{69AB656D-E99F-4EEB-9854-42DF77ECEB05}" name="擦音" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{F61BA027-9E56-47A1-8224-3F0734C11F32}" name="邊音" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{279C6517-7F6D-480E-B1F2-0C6C64BD340C}" name="方音韻母表格" displayName="方音韻母表格" ref="B3:U8" totalsRowShown="0" headerRowDxfId="32" dataDxfId="30" headerRowBorderDxfId="31" tableBorderDxfId="29" totalsRowBorderDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{279C6517-7F6D-480E-B1F2-0C6C64BD340C}" name="方音韻母表格" displayName="方音韻母表格" ref="B3:U8" totalsRowShown="0" headerRowDxfId="28" dataDxfId="26" headerRowBorderDxfId="27" tableBorderDxfId="25" totalsRowBorderDxfId="24">
   <tableColumns count="20">
-    <tableColumn id="1" xr3:uid="{D5BB5D32-B8B3-4985-99FE-4CAE416F8896}" name="韻腹" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{2E75F452-C9EB-485A-898D-31B0B52F386A}" name="a" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{232D45FA-6A65-4DC6-83E0-957B07FDBA26}" name="aɪ" dataDxfId="25"/>
-    <tableColumn id="4" xr3:uid="{70955649-D6B5-40D6-8690-B978B91DB6A6}" name="aʊ" dataDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{17517C7F-5843-41D1-B4A0-D822E2A05A3F}" name="e" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{A32FB388-F51D-4A09-8143-A8FE8C2735DE}" name="i" dataDxfId="22"/>
-    <tableColumn id="7" xr3:uid="{0E349367-F4AB-4C53-8AD3-78E3A14DA801}" name="ɪa" dataDxfId="21"/>
-    <tableColumn id="8" xr3:uid="{79DEC6A5-E8D0-4D21-9F9D-F46FE120B69D}" name="ɪaʊ" dataDxfId="20"/>
-    <tableColumn id="9" xr3:uid="{9744BF02-11F5-4A49-94C9-F7ABD46F3CF7}" name="ɪə" dataDxfId="19"/>
-    <tableColumn id="10" xr3:uid="{7ECBA68D-4E2D-4AE6-95E9-14B150FB60F3}" name="ɪɔ" dataDxfId="18"/>
-    <tableColumn id="11" xr3:uid="{AA74AB0B-66F4-4084-A3FE-D313C4537337}" name="iu" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{952CA3C9-B72B-4B4A-8975-0116A219DC35}" name="ə" dataDxfId="16"/>
-    <tableColumn id="13" xr3:uid="{889BAAAD-336F-4D7B-A274-546C3C9BAC2F}" name="ɔ" dataDxfId="15"/>
-    <tableColumn id="14" xr3:uid="{91C2AF01-8439-4A47-A026-6CDF055DF255}" name="u" dataDxfId="14"/>
-    <tableColumn id="15" xr3:uid="{5AC88F01-3D1A-4AB5-A9A0-C569C4DDA3AA}" name="ua" dataDxfId="13"/>
-    <tableColumn id="16" xr3:uid="{53FD8BAA-0AD0-4BA5-A488-E8FBF6E3B776}" name="uaɪ" dataDxfId="12"/>
-    <tableColumn id="17" xr3:uid="{AA997DB6-667B-42B6-9983-F5C6536CECFC}" name="ue" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{07146182-EDC0-48F7-B098-DF65D5099290}" name="ui" dataDxfId="10"/>
-    <tableColumn id="19" xr3:uid="{C0F0792E-1F02-4269-AD48-9C7CAC2FFDA8}" name="m̩" dataDxfId="9"/>
-    <tableColumn id="20" xr3:uid="{CC92EBF2-6977-48AE-A3D3-E116BF9C29F9}" name="ŋ̍" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{D5BB5D32-B8B3-4985-99FE-4CAE416F8896}" name="韻腹" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{2E75F452-C9EB-485A-898D-31B0B52F386A}" name="a" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{232D45FA-6A65-4DC6-83E0-957B07FDBA26}" name="aɪ" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{70955649-D6B5-40D6-8690-B978B91DB6A6}" name="aʊ" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{17517C7F-5843-41D1-B4A0-D822E2A05A3F}" name="e" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{A32FB388-F51D-4A09-8143-A8FE8C2735DE}" name="i" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{0E349367-F4AB-4C53-8AD3-78E3A14DA801}" name="ɪa" dataDxfId="17"/>
+    <tableColumn id="8" xr3:uid="{79DEC6A5-E8D0-4D21-9F9D-F46FE120B69D}" name="ɪaʊ" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{9744BF02-11F5-4A49-94C9-F7ABD46F3CF7}" name="ɪə" dataDxfId="15"/>
+    <tableColumn id="10" xr3:uid="{7ECBA68D-4E2D-4AE6-95E9-14B150FB60F3}" name="ɪɔ" dataDxfId="14"/>
+    <tableColumn id="11" xr3:uid="{AA74AB0B-66F4-4084-A3FE-D313C4537337}" name="iu" dataDxfId="13"/>
+    <tableColumn id="12" xr3:uid="{952CA3C9-B72B-4B4A-8975-0116A219DC35}" name="ə" dataDxfId="12"/>
+    <tableColumn id="13" xr3:uid="{889BAAAD-336F-4D7B-A274-546C3C9BAC2F}" name="ɔ" dataDxfId="11"/>
+    <tableColumn id="14" xr3:uid="{91C2AF01-8439-4A47-A026-6CDF055DF255}" name="u" dataDxfId="10"/>
+    <tableColumn id="15" xr3:uid="{5AC88F01-3D1A-4AB5-A9A0-C569C4DDA3AA}" name="ua" dataDxfId="9"/>
+    <tableColumn id="16" xr3:uid="{53FD8BAA-0AD0-4BA5-A488-E8FBF6E3B776}" name="uaɪ" dataDxfId="8"/>
+    <tableColumn id="17" xr3:uid="{AA997DB6-667B-42B6-9983-F5C6536CECFC}" name="ue" dataDxfId="7"/>
+    <tableColumn id="18" xr3:uid="{07146182-EDC0-48F7-B098-DF65D5099290}" name="ui" dataDxfId="6"/>
+    <tableColumn id="19" xr3:uid="{C0F0792E-1F02-4269-AD48-9C7CAC2FFDA8}" name="m̩" dataDxfId="5"/>
+    <tableColumn id="20" xr3:uid="{CC92EBF2-6977-48AE-A3D3-E116BF9C29F9}" name="ŋ̍" dataDxfId="4"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -11880,9 +11883,9 @@
   </sheetPr>
   <dimension ref="B1:S87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J46" sqref="J46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" outlineLevelCol="1"/>
@@ -11937,13 +11940,13 @@
         <v>263</v>
       </c>
       <c r="H2" s="263" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I2" s="263" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="J2" s="392" t="s">
-        <v>1512</v>
+        <v>1511</v>
       </c>
       <c r="K2" s="264" t="s">
         <v>567</v>
@@ -12090,7 +12093,7 @@
         <v>165</v>
       </c>
       <c r="H5" s="378" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I5" s="378" t="s">
         <v>27</v>
@@ -12325,7 +12328,7 @@
       <c r="K10" s="270"/>
       <c r="L10"/>
       <c r="M10" s="360" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="N10"/>
     </row>
@@ -12528,7 +12531,7 @@
         <v>253</v>
       </c>
       <c r="F15" s="305" t="s">
-        <v>1513</v>
+        <v>1512</v>
       </c>
       <c r="G15" s="285" t="s">
         <v>411</v>
@@ -12572,7 +12575,7 @@
         <v>210</v>
       </c>
       <c r="F16" s="306" t="s">
-        <v>1514</v>
+        <v>1513</v>
       </c>
       <c r="G16" s="289" t="s">
         <v>412</v>
@@ -12612,7 +12615,7 @@
         <v>254</v>
       </c>
       <c r="F17" s="306" t="s">
-        <v>1515</v>
+        <v>1514</v>
       </c>
       <c r="G17" s="268" t="s">
         <v>387</v>
@@ -12624,7 +12627,7 @@
         <v>109</v>
       </c>
       <c r="J17" s="241" t="s">
-        <v>1511</v>
+        <v>1510</v>
       </c>
       <c r="K17" s="241"/>
       <c r="L17"/>
@@ -12649,7 +12652,7 @@
         <v>255</v>
       </c>
       <c r="F18" s="307" t="s">
-        <v>1516</v>
+        <v>1515</v>
       </c>
       <c r="G18" s="293" t="s">
         <v>301</v>
@@ -12726,7 +12729,7 @@
         <v>279</v>
       </c>
       <c r="H20" s="378" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I20" s="378" t="s">
         <v>38</v>
@@ -12748,7 +12751,7 @@
         <v>231</v>
       </c>
       <c r="D21" s="32" t="s">
-        <v>41</v>
+        <v>1572</v>
       </c>
       <c r="E21" s="192" t="s">
         <v>161</v>
@@ -12760,7 +12763,7 @@
         <v>161</v>
       </c>
       <c r="H21" s="378" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I21" s="378" t="s">
         <v>41</v>
@@ -12798,7 +12801,7 @@
         <v>⁰兀</v>
       </c>
       <c r="I22" s="382" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="J22" s="270" t="s">
         <v>425</v>
@@ -12917,7 +12920,7 @@
         <v>144</v>
       </c>
       <c r="P25" s="243" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="Q25" s="243" t="s">
         <v>388</v>
@@ -12991,7 +12994,7 @@
         <v>244</v>
       </c>
       <c r="H27" s="378" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I27" s="378" t="s">
         <v>67</v>
@@ -13038,13 +13041,13 @@
         <v>65</v>
       </c>
       <c r="H28" s="378" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I28" s="378" t="s">
         <v>308</v>
       </c>
       <c r="J28" s="241" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K28" s="241"/>
       <c r="L28"/>
@@ -13164,7 +13167,7 @@
         <v>331</v>
       </c>
       <c r="H31" s="378" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I31" s="378" t="s">
         <v>113</v>
@@ -13207,7 +13210,7 @@
         <v>206</v>
       </c>
       <c r="H32" s="378" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I32" s="378" t="s">
         <v>115</v>
@@ -13250,7 +13253,7 @@
         <v>204</v>
       </c>
       <c r="H33" s="378" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I33" s="378" t="s">
         <v>121</v>
@@ -13293,7 +13296,7 @@
         <v>203</v>
       </c>
       <c r="H34" s="378" t="s">
-        <v>1498</v>
+        <v>1497</v>
       </c>
       <c r="I34" s="378" t="s">
         <v>119</v>
@@ -13336,7 +13339,7 @@
         <v>202</v>
       </c>
       <c r="H35" s="378" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I35" s="378" t="s">
         <v>117</v>
@@ -13379,7 +13382,7 @@
         <v>200</v>
       </c>
       <c r="H36" s="378" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I36" s="378" t="s">
         <v>123</v>
@@ -13422,10 +13425,10 @@
         <v>334</v>
       </c>
       <c r="H37" s="378" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I37" s="378" t="s">
-        <v>1501</v>
+        <v>1500</v>
       </c>
       <c r="J37" s="241" t="s">
         <v>333</v>
@@ -13581,7 +13584,7 @@
         <v>326</v>
       </c>
       <c r="I41" s="378" t="s">
-        <v>1502</v>
+        <v>1501</v>
       </c>
       <c r="J41" s="241" t="s">
         <v>423</v>
@@ -13609,7 +13612,7 @@
         <v>237</v>
       </c>
       <c r="F42" s="311" t="s">
-        <v>1517</v>
+        <v>1516</v>
       </c>
       <c r="G42" s="219" t="s">
         <v>232</v>
@@ -13646,7 +13649,7 @@
         <v>285</v>
       </c>
       <c r="F43" s="325" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="G43" s="326" t="s">
         <v>173</v>
@@ -13695,10 +13698,10 @@
         <v>149</v>
       </c>
       <c r="H44" s="378" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I44" s="378" t="s">
-        <v>1503</v>
+        <v>1502</v>
       </c>
       <c r="J44" s="241" t="s">
         <v>564</v>
@@ -13735,7 +13738,7 @@
         <v>415</v>
       </c>
       <c r="I45" s="378" t="s">
-        <v>1504</v>
+        <v>1503</v>
       </c>
       <c r="J45" s="241" t="s">
         <v>415</v>
@@ -13743,7 +13746,7 @@
       <c r="K45" s="241"/>
       <c r="L45"/>
       <c r="M45" s="243" t="s">
-        <v>1497</v>
+        <v>1496</v>
       </c>
       <c r="N45" s="243"/>
       <c r="O45" s="243"/>
@@ -13811,24 +13814,23 @@
         <v>425</v>
       </c>
       <c r="I47" s="378" t="s">
-        <v>1500</v>
+        <v>1499</v>
       </c>
       <c r="J47" s="241" t="s">
         <v>141</v>
       </c>
       <c r="K47" s="241"/>
       <c r="L47"/>
-      <c r="M47" s="458" t="s">
-        <v>1569</v>
-      </c>
-      <c r="N47" s="459"/>
-      <c r="O47" s="458"/>
-      <c r="P47" s="458"/>
-      <c r="Q47" s="458" t="s">
-        <v>1535</v>
-      </c>
-      <c r="R47" s="460"/>
-      <c r="S47" s="453"/>
+      <c r="M47" s="437" t="s">
+        <v>1568</v>
+      </c>
+      <c r="N47" s="438"/>
+      <c r="O47" s="437"/>
+      <c r="P47" s="437"/>
+      <c r="Q47" s="437" t="s">
+        <v>1534</v>
+      </c>
+      <c r="R47" s="437"/>
     </row>
     <row r="48" spans="2:19" ht="32.25">
       <c r="B48" s="94">
@@ -13851,25 +13853,25 @@
         <v>396</v>
       </c>
       <c r="H48" s="378" t="s">
-        <v>581</v>
+        <v>1573</v>
       </c>
       <c r="I48" s="378" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
       <c r="J48" s="241" t="s">
         <v>558</v>
       </c>
       <c r="K48" s="241"/>
       <c r="L48"/>
-      <c r="M48" s="456" t="s">
-        <v>1563</v>
+      <c r="M48" s="435" t="s">
+        <v>1562</v>
       </c>
       <c r="N48"/>
-      <c r="Q48" s="456" t="s">
-        <v>1557</v>
-      </c>
-      <c r="R48" s="454"/>
-      <c r="S48" s="454"/>
+      <c r="Q48" s="435" t="s">
+        <v>1556</v>
+      </c>
+      <c r="R48" s="433"/>
+      <c r="S48" s="433"/>
     </row>
     <row r="49" spans="2:19" ht="32.25">
       <c r="B49" s="94">
@@ -13901,15 +13903,15 @@
       </c>
       <c r="K49" s="241"/>
       <c r="L49"/>
-      <c r="M49" s="456" t="s">
-        <v>1564</v>
+      <c r="M49" s="435" t="s">
+        <v>1563</v>
       </c>
       <c r="N49"/>
-      <c r="Q49" s="456" t="s">
-        <v>1558</v>
-      </c>
-      <c r="R49" s="454"/>
-      <c r="S49" s="454"/>
+      <c r="Q49" s="435" t="s">
+        <v>1557</v>
+      </c>
+      <c r="R49" s="433"/>
+      <c r="S49" s="433"/>
     </row>
     <row r="50" spans="2:19" ht="32.25">
       <c r="B50" s="94">
@@ -13940,15 +13942,15 @@
       </c>
       <c r="K50" s="241"/>
       <c r="L50"/>
-      <c r="M50" s="456" t="s">
-        <v>1559</v>
+      <c r="M50" s="435" t="s">
+        <v>1558</v>
       </c>
       <c r="N50"/>
-      <c r="Q50" s="456" t="s">
-        <v>1559</v>
-      </c>
-      <c r="R50" s="455"/>
-      <c r="S50" s="455"/>
+      <c r="Q50" s="435" t="s">
+        <v>1558</v>
+      </c>
+      <c r="R50" s="434"/>
+      <c r="S50" s="434"/>
     </row>
     <row r="51" spans="2:19" ht="32.25">
       <c r="B51" s="94">
@@ -13972,22 +13974,22 @@
         <v>3</v>
       </c>
       <c r="I51" s="378" t="s">
-        <v>1505</v>
+        <v>1504</v>
       </c>
       <c r="J51" s="241" t="s">
         <v>105</v>
       </c>
       <c r="K51" s="241"/>
       <c r="L51"/>
-      <c r="M51" s="456" t="s">
-        <v>1565</v>
+      <c r="M51" s="435" t="s">
+        <v>1564</v>
       </c>
       <c r="N51"/>
-      <c r="Q51" s="456" t="s">
-        <v>1560</v>
-      </c>
-      <c r="R51" s="454"/>
-      <c r="S51" s="454"/>
+      <c r="Q51" s="435" t="s">
+        <v>1559</v>
+      </c>
+      <c r="R51" s="433"/>
+      <c r="S51" s="433"/>
     </row>
     <row r="52" spans="2:19" ht="32.25">
       <c r="B52" s="94">
@@ -14018,15 +14020,15 @@
       </c>
       <c r="K52" s="241"/>
       <c r="L52"/>
-      <c r="M52" s="456" t="s">
-        <v>1566</v>
+      <c r="M52" s="435" t="s">
+        <v>1565</v>
       </c>
       <c r="N52"/>
-      <c r="Q52" s="456" t="s">
-        <v>1561</v>
-      </c>
-      <c r="R52" s="455"/>
-      <c r="S52" s="455"/>
+      <c r="Q52" s="435" t="s">
+        <v>1560</v>
+      </c>
+      <c r="R52" s="434"/>
+      <c r="S52" s="434"/>
     </row>
     <row r="53" spans="2:19" ht="32.25">
       <c r="B53" s="94">
@@ -14050,22 +14052,22 @@
         <v>7</v>
       </c>
       <c r="I53" s="390" t="s">
-        <v>1506</v>
+        <v>1505</v>
       </c>
       <c r="J53" s="241" t="s">
         <v>107</v>
       </c>
       <c r="K53" s="241"/>
       <c r="L53"/>
-      <c r="M53" s="456" t="s">
-        <v>1567</v>
+      <c r="M53" s="435" t="s">
+        <v>1566</v>
       </c>
       <c r="N53"/>
-      <c r="Q53" s="456" t="s">
-        <v>1562</v>
-      </c>
-      <c r="R53" s="454"/>
-      <c r="S53" s="454"/>
+      <c r="Q53" s="435" t="s">
+        <v>1561</v>
+      </c>
+      <c r="R53" s="433"/>
+      <c r="S53" s="433"/>
     </row>
     <row r="54" spans="2:19" ht="32.25">
       <c r="B54" s="94">
@@ -14096,8 +14098,8 @@
       </c>
       <c r="K54" s="241"/>
       <c r="L54"/>
-      <c r="M54" s="456" t="s">
-        <v>1568</v>
+      <c r="M54" s="435" t="s">
+        <v>1567</v>
       </c>
       <c r="N54"/>
     </row>
@@ -14105,7 +14107,7 @@
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
-      <c r="P55" s="457"/>
+      <c r="P55" s="436"/>
     </row>
     <row r="57" spans="2:19" ht="32.25">
       <c r="B57" s="320">
@@ -14113,9 +14115,9 @@
         <v>55</v>
       </c>
       <c r="C57" s="321" t="s">
-        <v>1550</v>
-      </c>
-      <c r="D57" s="449" t="s">
+        <v>1549</v>
+      </c>
+      <c r="D57" s="429" t="s">
         <v>128</v>
       </c>
       <c r="E57" s="322" t="str">
@@ -14136,8 +14138,8 @@
         <v>128</v>
       </c>
       <c r="K57" s="324"/>
-      <c r="M57" s="452" t="s">
-        <v>1553</v>
+      <c r="M57" s="432" t="s">
+        <v>1552</v>
       </c>
     </row>
     <row r="58" spans="2:19" ht="32.25">
@@ -14146,9 +14148,9 @@
         <v>56</v>
       </c>
       <c r="C58" s="321" t="s">
-        <v>1551</v>
-      </c>
-      <c r="D58" s="450" t="s">
+        <v>1550</v>
+      </c>
+      <c r="D58" s="430" t="s">
         <v>130</v>
       </c>
       <c r="E58" s="322" t="str">
@@ -14169,8 +14171,8 @@
         <v>130</v>
       </c>
       <c r="K58" s="324"/>
-      <c r="M58" s="452" t="s">
-        <v>1554</v>
+      <c r="M58" s="432" t="s">
+        <v>1553</v>
       </c>
     </row>
     <row r="59" spans="2:19" ht="32.25">
@@ -14179,9 +14181,9 @@
         <v>57</v>
       </c>
       <c r="C59" s="321" t="s">
-        <v>1552</v>
-      </c>
-      <c r="D59" s="450" t="s">
+        <v>1551</v>
+      </c>
+      <c r="D59" s="430" t="s">
         <v>132</v>
       </c>
       <c r="E59" s="322" t="str">
@@ -14202,8 +14204,8 @@
         <v>132</v>
       </c>
       <c r="K59" s="324"/>
-      <c r="M59" s="452" t="s">
-        <v>1555</v>
+      <c r="M59" s="432" t="s">
+        <v>1554</v>
       </c>
     </row>
     <row r="60" spans="2:19" ht="32.25">
@@ -14212,9 +14214,9 @@
         <v>58</v>
       </c>
       <c r="C60" s="321" t="s">
-        <v>1549</v>
-      </c>
-      <c r="D60" s="450" t="s">
+        <v>1548</v>
+      </c>
+      <c r="D60" s="430" t="s">
         <v>134</v>
       </c>
       <c r="E60" s="322" t="str">
@@ -14235,8 +14237,8 @@
         <v>134</v>
       </c>
       <c r="K60" s="324"/>
-      <c r="M60" s="452" t="s">
-        <v>1556</v>
+      <c r="M60" s="432" t="s">
+        <v>1555</v>
       </c>
     </row>
     <row r="61" spans="2:19" ht="21">
@@ -14248,7 +14250,7 @@
       <c r="G61"/>
       <c r="K61"/>
       <c r="L61"/>
-      <c r="M61" s="451"/>
+      <c r="M61" s="431"/>
       <c r="N61"/>
     </row>
     <row r="62" spans="2:19" ht="32.25">
@@ -14438,27 +14440,27 @@
       <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
-      <c r="N69" s="461"/>
+      <c r="N69" s="439"/>
     </row>
     <row r="70" spans="2:15" ht="21">
       <c r="B70"/>
       <c r="C70"/>
       <c r="D70"/>
       <c r="E70"/>
-      <c r="F70" s="462" t="s">
+      <c r="F70" s="440" t="s">
+        <v>1569</v>
+      </c>
+      <c r="G70" s="440" t="s">
         <v>1570</v>
       </c>
-      <c r="G70" s="462" t="s">
+      <c r="H70" s="440" t="s">
         <v>1571</v>
-      </c>
-      <c r="H70" s="462" t="s">
-        <v>1572</v>
       </c>
       <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
-      <c r="O70" s="461"/>
+      <c r="O70" s="439"/>
     </row>
     <row r="71" spans="2:15" ht="28.5">
       <c r="C71" s="242" t="s">
@@ -14468,15 +14470,15 @@
         <v>441</v>
       </c>
       <c r="E71" s="239"/>
-      <c r="F71" s="463">
+      <c r="F71" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D71)</f>
         <v>63696</v>
       </c>
-      <c r="G71" s="464" t="str">
+      <c r="G71" s="442" t="str">
         <f xml:space="preserve"> DEC2HEX(F71)</f>
         <v>F8D0</v>
       </c>
-      <c r="H71" s="465" t="str">
+      <c r="H71" s="443" t="str">
         <f xml:space="preserve"> _xlfn.UNICHAR( HEX2DEC(G71))</f>
         <v></v>
       </c>
@@ -14493,15 +14495,15 @@
         <v>442</v>
       </c>
       <c r="E72" s="11"/>
-      <c r="F72" s="463">
+      <c r="F72" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D72)</f>
         <v>63697</v>
       </c>
-      <c r="G72" s="464" t="str">
+      <c r="G72" s="442" t="str">
         <f t="shared" ref="G72:G87" si="6" xml:space="preserve"> DEC2HEX(F72)</f>
         <v>F8D1</v>
       </c>
-      <c r="H72" s="465" t="str">
+      <c r="H72" s="443" t="str">
         <f t="shared" ref="H72:H87" si="7" xml:space="preserve"> _xlfn.UNICHAR( HEX2DEC(G72))</f>
         <v></v>
       </c>
@@ -14518,15 +14520,15 @@
         <v>443</v>
       </c>
       <c r="E73" s="11"/>
-      <c r="F73" s="463">
+      <c r="F73" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D73)</f>
         <v>63698</v>
       </c>
-      <c r="G73" s="464" t="str">
+      <c r="G73" s="442" t="str">
         <f t="shared" si="6"/>
         <v>F8D2</v>
       </c>
-      <c r="H73" s="465" t="str">
+      <c r="H73" s="443" t="str">
         <f t="shared" si="7"/>
         <v></v>
       </c>
@@ -14543,15 +14545,15 @@
         <v>444</v>
       </c>
       <c r="E74" s="11"/>
-      <c r="F74" s="463">
+      <c r="F74" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D74)</f>
         <v>63699</v>
       </c>
-      <c r="G74" s="464" t="str">
+      <c r="G74" s="442" t="str">
         <f t="shared" si="6"/>
         <v>F8D3</v>
       </c>
-      <c r="H74" s="465" t="str">
+      <c r="H74" s="443" t="str">
         <f t="shared" si="7"/>
         <v></v>
       </c>
@@ -14563,9 +14565,9 @@
     <row r="75" spans="2:15" ht="28.5">
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="463"/>
-      <c r="G75" s="464"/>
-      <c r="H75" s="465"/>
+      <c r="F75" s="441"/>
+      <c r="G75" s="442"/>
+      <c r="H75" s="443"/>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
@@ -14579,15 +14581,15 @@
         <v>445</v>
       </c>
       <c r="E76" s="11"/>
-      <c r="F76" s="463">
+      <c r="F76" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D76)</f>
         <v>63712</v>
       </c>
-      <c r="G76" s="464" t="str">
+      <c r="G76" s="442" t="str">
         <f t="shared" si="6"/>
         <v>F8E0</v>
       </c>
-      <c r="H76" s="465" t="str">
+      <c r="H76" s="443" t="str">
         <f t="shared" si="7"/>
         <v></v>
       </c>
@@ -14604,15 +14606,15 @@
         <v>446</v>
       </c>
       <c r="E77" s="11"/>
-      <c r="F77" s="463">
+      <c r="F77" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D77)</f>
         <v>63713</v>
       </c>
-      <c r="G77" s="464" t="str">
+      <c r="G77" s="442" t="str">
         <f t="shared" si="6"/>
         <v>F8E1</v>
       </c>
-      <c r="H77" s="465" t="str">
+      <c r="H77" s="443" t="str">
         <f t="shared" si="7"/>
         <v></v>
       </c>
@@ -14624,9 +14626,9 @@
     <row r="78" spans="2:15" ht="28.5">
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
-      <c r="F78" s="463"/>
-      <c r="G78" s="464"/>
-      <c r="H78" s="465"/>
+      <c r="F78" s="441"/>
+      <c r="G78" s="442"/>
+      <c r="H78" s="443"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
@@ -14640,15 +14642,15 @@
         <v>447</v>
       </c>
       <c r="E79" s="11"/>
-      <c r="F79" s="463">
+      <c r="F79" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D79)</f>
         <v>63728</v>
       </c>
-      <c r="G79" s="464" t="str">
+      <c r="G79" s="442" t="str">
         <f t="shared" si="6"/>
         <v>F8F0</v>
       </c>
-      <c r="H79" s="465" t="str">
+      <c r="H79" s="443" t="str">
         <f t="shared" si="7"/>
         <v></v>
       </c>
@@ -14665,15 +14667,15 @@
         <v>448</v>
       </c>
       <c r="E80" s="11"/>
-      <c r="F80" s="463">
+      <c r="F80" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D80)</f>
         <v>63729</v>
       </c>
-      <c r="G80" s="464" t="str">
+      <c r="G80" s="442" t="str">
         <f t="shared" si="6"/>
         <v>F8F1</v>
       </c>
-      <c r="H80" s="465" t="str">
+      <c r="H80" s="443" t="str">
         <f t="shared" si="7"/>
         <v></v>
       </c>
@@ -14690,15 +14692,15 @@
         <v>449</v>
       </c>
       <c r="E81" s="11"/>
-      <c r="F81" s="463">
+      <c r="F81" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D81)</f>
         <v>63730</v>
       </c>
-      <c r="G81" s="464" t="str">
+      <c r="G81" s="442" t="str">
         <f t="shared" si="6"/>
         <v>F8F2</v>
       </c>
-      <c r="H81" s="465" t="str">
+      <c r="H81" s="443" t="str">
         <f t="shared" si="7"/>
         <v></v>
       </c>
@@ -14715,15 +14717,15 @@
         <v>450</v>
       </c>
       <c r="E82" s="11"/>
-      <c r="F82" s="463">
+      <c r="F82" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D82)</f>
         <v>63731</v>
       </c>
-      <c r="G82" s="464" t="str">
+      <c r="G82" s="442" t="str">
         <f t="shared" si="6"/>
         <v>F8F3</v>
       </c>
-      <c r="H82" s="465" t="str">
+      <c r="H82" s="443" t="str">
         <f t="shared" si="7"/>
         <v></v>
       </c>
@@ -14736,9 +14738,9 @@
       <c r="C83" s="242"/>
       <c r="D83" s="11"/>
       <c r="E83" s="11"/>
-      <c r="F83" s="463"/>
-      <c r="G83" s="464"/>
-      <c r="H83" s="465"/>
+      <c r="F83" s="441"/>
+      <c r="G83" s="442"/>
+      <c r="H83" s="443"/>
       <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
@@ -14749,15 +14751,15 @@
         <v>577</v>
       </c>
       <c r="E84" s="314"/>
-      <c r="F84" s="463">
+      <c r="F84" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D84)</f>
         <v>12724</v>
       </c>
-      <c r="G84" s="464" t="str">
+      <c r="G84" s="442" t="str">
         <f t="shared" si="6"/>
         <v>31B4</v>
       </c>
-      <c r="H84" s="465" t="str">
+      <c r="H84" s="443" t="str">
         <f t="shared" si="7"/>
         <v>ㆴ</v>
       </c>
@@ -14771,15 +14773,15 @@
         <v>578</v>
       </c>
       <c r="E85" s="314"/>
-      <c r="F85" s="463">
+      <c r="F85" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D85)</f>
         <v>12725</v>
       </c>
-      <c r="G85" s="464" t="str">
+      <c r="G85" s="442" t="str">
         <f t="shared" si="6"/>
         <v>31B5</v>
       </c>
-      <c r="H85" s="465" t="str">
+      <c r="H85" s="443" t="str">
         <f t="shared" si="7"/>
         <v>ㆵ</v>
       </c>
@@ -14793,15 +14795,15 @@
         <v>579</v>
       </c>
       <c r="E86" s="314"/>
-      <c r="F86" s="463">
+      <c r="F86" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D86)</f>
         <v>12731</v>
       </c>
-      <c r="G86" s="464" t="str">
+      <c r="G86" s="442" t="str">
         <f t="shared" si="6"/>
         <v>31BB</v>
       </c>
-      <c r="H86" s="465" t="str">
+      <c r="H86" s="443" t="str">
         <f t="shared" si="7"/>
         <v>ㆻ</v>
       </c>
@@ -14815,15 +14817,15 @@
         <v>580</v>
       </c>
       <c r="E87" s="314"/>
-      <c r="F87" s="463">
+      <c r="F87" s="441">
         <f xml:space="preserve"> _xlfn.UNICODE(D87)</f>
         <v>12727</v>
       </c>
-      <c r="G87" s="464" t="str">
+      <c r="G87" s="442" t="str">
         <f t="shared" si="6"/>
         <v>31B7</v>
       </c>
-      <c r="H87" s="465" t="str">
+      <c r="H87" s="443" t="str">
         <f t="shared" si="7"/>
         <v>ㆷ</v>
       </c>
@@ -14871,7 +14873,7 @@
         <v>397</v>
       </c>
       <c r="C2" s="196" t="s">
-        <v>1530</v>
+        <v>1529</v>
       </c>
       <c r="D2" s="196"/>
       <c r="E2" s="196"/>
@@ -14936,10 +14938,10 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="394" t="s">
+        <v>1517</v>
+      </c>
+      <c r="C10" s="395" t="s">
         <v>1518</v>
-      </c>
-      <c r="C10" s="395" t="s">
-        <v>1519</v>
       </c>
       <c r="D10" s="395" t="s">
         <v>261</v>
@@ -14951,10 +14953,10 @@
         <v>250</v>
       </c>
       <c r="I10" s="394" t="s">
+        <v>1517</v>
+      </c>
+      <c r="J10" s="395" t="s">
         <v>1518</v>
-      </c>
-      <c r="J10" s="395" t="s">
-        <v>1519</v>
       </c>
       <c r="K10" s="395" t="s">
         <v>261</v>
@@ -15009,7 +15011,7 @@
     </row>
     <row r="12" spans="2:13" ht="23.25">
       <c r="B12" s="113">
-        <f t="shared" ref="B12:B63" si="0" xml:space="preserve"> ROW() - 10</f>
+        <f t="shared" ref="B12:B62" si="0" xml:space="preserve"> ROW() - 10</f>
         <v>2</v>
       </c>
       <c r="C12" s="191" t="str">
@@ -17107,12 +17109,12 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="J11:J62 C11:C62">
+  <conditionalFormatting sqref="C11:C62 J11:J62">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L11:L62 E11:E62">
+  <conditionalFormatting sqref="E11:E62 L11:L62">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
@@ -17128,8 +17130,8 @@
   </sheetPr>
   <dimension ref="B1:DE99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="W1" sqref="W1"/>
       <selection pane="bottomLeft" activeCell="BF12" sqref="BF12:DE12"/>
     </sheetView>
@@ -17166,8 +17168,8 @@
     <col min="34" max="34" width="3" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="35" max="35" width="33.796875" hidden="1" customWidth="1" outlineLevel="1"/>
     <col min="36" max="36" width="3.09765625" style="199" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.5" style="443" customWidth="1"/>
-    <col min="38" max="38" width="3.09765625" style="446" customWidth="1"/>
+    <col min="37" max="37" width="22.5" style="423" customWidth="1"/>
+    <col min="38" max="38" width="3.09765625" style="426" customWidth="1"/>
     <col min="39" max="39" width="11.69921875" style="2" customWidth="1"/>
     <col min="40" max="40" width="7.69921875" style="210" customWidth="1"/>
     <col min="41" max="41" width="4.296875" style="2" customWidth="1"/>
@@ -17206,21 +17208,21 @@
       <c r="AA1" s="101"/>
       <c r="AB1" s="101"/>
       <c r="AC1" s="419" t="s">
-        <v>1527</v>
+        <v>1526</v>
       </c>
       <c r="AD1" s="418"/>
       <c r="AE1" s="100"/>
       <c r="AF1" s="199"/>
       <c r="AG1" s="419" t="s">
-        <v>1529</v>
+        <v>1528</v>
       </c>
       <c r="AH1" s="199"/>
       <c r="AI1" s="419" t="s">
-        <v>1528</v>
+        <v>1527</v>
       </c>
       <c r="AJ1" s="2"/>
-      <c r="AK1" s="441"/>
-      <c r="AL1" s="444"/>
+      <c r="AK1" s="421"/>
+      <c r="AL1" s="424"/>
       <c r="AM1" s="210"/>
       <c r="AN1" s="2"/>
       <c r="BC1" s="11"/>
@@ -17229,7 +17231,7 @@
     </row>
     <row r="2" spans="2:109" ht="26.25" thickBot="1">
       <c r="B2" s="240" t="s">
-        <v>1531</v>
+        <v>1530</v>
       </c>
       <c r="I2" s="13" t="s">
         <v>380</v>
@@ -17256,7 +17258,7 @@
         <v>405</v>
       </c>
       <c r="W2" s="209" t="s">
-        <v>1507</v>
+        <v>1506</v>
       </c>
       <c r="X2" s="209" t="s">
         <v>429</v>
@@ -17275,7 +17277,7 @@
         <v>261</v>
       </c>
       <c r="AD2" s="319" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AE2" s="334" t="s">
         <v>263</v>
@@ -17286,11 +17288,11 @@
       </c>
       <c r="AH2" s="209"/>
       <c r="AI2" s="389" t="s">
-        <v>1499</v>
+        <v>1498</v>
       </c>
       <c r="AJ2" s="2"/>
-      <c r="AK2" s="441"/>
-      <c r="AL2" s="444"/>
+      <c r="AK2" s="421"/>
+      <c r="AL2" s="424"/>
       <c r="AM2" s="210"/>
       <c r="AN2" s="2"/>
       <c r="BC2" s="11"/>
@@ -17391,12 +17393,12 @@
         <v>"1" : { commit: "ㄅ" }</v>
       </c>
       <c r="AJ3" s="2"/>
-      <c r="AK3" s="442" t="str">
+      <c r="AK3" s="422" t="str">
         <f t="shared" ref="AK3:AK42" si="8" xml:space="preserve"> IF(LEN(AC3)=LEN(AD3), "", _xlfn.CONCAT( "xform/", AC3, "/", AD3, "/"))</f>
         <v/>
       </c>
-      <c r="AL3" s="445"/>
-      <c r="AM3" s="466" t="str">
+      <c r="AL3" s="425"/>
+      <c r="AM3" s="444" t="str">
         <f xml:space="preserve"> "  alphabet: '" &amp; _xlfn.CONCAT(AA$3:AA$54) &amp; "'"</f>
         <v xml:space="preserve">  alphabet: '1q!a2wsxyhnbYHNBedEgcuj8ik,9lUJ*I&lt;(L-M0;Oomp/. 43657'</v>
       </c>
@@ -17506,12 +17508,12 @@
         <v>"q" : { commit: "ㄆ" }</v>
       </c>
       <c r="AJ4" s="2"/>
-      <c r="AK4" s="442" t="str">
+      <c r="AK4" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL4" s="445"/>
-      <c r="AM4" s="466" t="str">
+      <c r="AL4" s="425"/>
+      <c r="AM4" s="444" t="str">
         <f xml:space="preserve"> "  initials: '" &amp; _xlfn.CONCAT(AA$3:AA$48) &amp; "'"</f>
         <v xml:space="preserve">  initials: '1q!a2wsxyhnbYHNBedEgcuj8ik,9lUJ*I&lt;(L-M0;Oomp/.'</v>
       </c>
@@ -17621,12 +17623,12 @@
         <v>"!" : { commit: "ㆠ" }</v>
       </c>
       <c r="AJ5" s="2"/>
-      <c r="AK5" s="442" t="str">
+      <c r="AK5" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL5" s="445"/>
-      <c r="AM5" s="466" t="str">
+      <c r="AL5" s="425"/>
+      <c r="AM5" s="444" t="str">
         <f xml:space="preserve"> "  finals:   '" &amp; _xlfn.CONCAT(AA$49:AA$54) &amp; "'"</f>
         <v xml:space="preserve">  finals:   ' 43657'</v>
       </c>
@@ -17740,11 +17742,11 @@
         <v>"a" : { commit: "ㄇ" }</v>
       </c>
       <c r="AJ6" s="2"/>
-      <c r="AK6" s="442" t="str">
+      <c r="AK6" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL6" s="445"/>
+      <c r="AL6" s="425"/>
       <c r="AM6" s="210"/>
       <c r="AN6" s="2"/>
       <c r="BC6" s="11"/>
@@ -17849,11 +17851,11 @@
         <v>"2" : { commit: "ㄉ" }</v>
       </c>
       <c r="AJ7" s="2"/>
-      <c r="AK7" s="442" t="str">
+      <c r="AK7" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL7" s="445"/>
+      <c r="AL7" s="425"/>
       <c r="AM7" s="210"/>
       <c r="AN7" s="2"/>
       <c r="BC7" s="11"/>
@@ -17950,11 +17952,11 @@
         <v>"w" : { commit: "ㄊ" }</v>
       </c>
       <c r="AJ8" s="2"/>
-      <c r="AK8" s="442" t="str">
+      <c r="AK8" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL8" s="445"/>
+      <c r="AL8" s="425"/>
       <c r="AM8" s="211" t="s">
         <v>413</v>
       </c>
@@ -18277,11 +18279,11 @@
         <v>"s" : { commit: "ㄋ" }</v>
       </c>
       <c r="AJ9" s="2"/>
-      <c r="AK9" s="442" t="str">
+      <c r="AK9" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL9" s="445"/>
+      <c r="AL9" s="425"/>
       <c r="AM9" s="212" t="s">
         <v>405</v>
       </c>
@@ -18618,11 +18620,11 @@
         <v>"x" : { commit: "ㄌ" }</v>
       </c>
       <c r="AJ10" s="2"/>
-      <c r="AK10" s="442" t="str">
+      <c r="AK10" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL10" s="445"/>
+      <c r="AL10" s="425"/>
       <c r="AM10" s="213" t="s">
         <v>11</v>
       </c>
@@ -18866,7 +18868,7 @@
     </row>
     <row r="11" spans="2:109" ht="32.25">
       <c r="B11" s="200" t="s">
-        <v>1532</v>
+        <v>1531</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" si="9"/>
@@ -18957,11 +18959,11 @@
         <v>"y" : { commit: "ㄗ" }</v>
       </c>
       <c r="AJ11" s="2"/>
-      <c r="AK11" s="442" t="str">
+      <c r="AK11" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL11" s="445"/>
+      <c r="AL11" s="425"/>
       <c r="AM11" s="214"/>
       <c r="AN11" s="37"/>
       <c r="AO11" s="37"/>
@@ -19064,11 +19066,11 @@
         <v>"h" : { commit: "ㄘ" }</v>
       </c>
       <c r="AJ12" s="2"/>
-      <c r="AK12" s="442" t="str">
+      <c r="AK12" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL12" s="445"/>
+      <c r="AL12" s="425"/>
       <c r="AM12" s="210"/>
       <c r="AN12" s="2"/>
       <c r="AO12" s="48"/>
@@ -19377,11 +19379,11 @@
         <v>"n" : { commit: "ㄙ" }</v>
       </c>
       <c r="AJ13" s="2"/>
-      <c r="AK13" s="442" t="str">
+      <c r="AK13" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL13" s="445"/>
+      <c r="AL13" s="425"/>
       <c r="AM13" s="211" t="s">
         <v>35</v>
       </c>
@@ -19708,11 +19710,11 @@
         <v>"b" : { commit: "ㆡ" }</v>
       </c>
       <c r="AJ14" s="2"/>
-      <c r="AK14" s="442" t="str">
+      <c r="AK14" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL14" s="445"/>
+      <c r="AL14" s="425"/>
       <c r="AM14" s="213" t="s">
         <v>11</v>
       </c>
@@ -20043,11 +20045,11 @@
         <v>"Y" : { commit: "ㄐ" }</v>
       </c>
       <c r="AJ15" s="2"/>
-      <c r="AK15" s="442" t="str">
+      <c r="AK15" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL15" s="445"/>
+      <c r="AL15" s="425"/>
       <c r="AM15" s="215" t="s">
         <v>13</v>
       </c>
@@ -20372,11 +20374,11 @@
         <v>"H" : { commit: "ㄑ" }</v>
       </c>
       <c r="AJ16" s="2"/>
-      <c r="AK16" s="442" t="str">
+      <c r="AK16" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL16" s="445"/>
+      <c r="AL16" s="425"/>
       <c r="AM16" s="210"/>
       <c r="AN16" s="2"/>
       <c r="AP16" s="54"/>
@@ -20474,11 +20476,11 @@
         <v>"N" : { commit: "ㄒ" }</v>
       </c>
       <c r="AJ17" s="2"/>
-      <c r="AK17" s="442" t="str">
+      <c r="AK17" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL17" s="445"/>
+      <c r="AL17" s="425"/>
       <c r="BE17" s="225"/>
       <c r="BH17" s="2"/>
     </row>
@@ -20572,11 +20574,11 @@
         <v>"B" : { commit: "ㆢ" }</v>
       </c>
       <c r="AJ18" s="2"/>
-      <c r="AK18" s="442" t="str">
+      <c r="AK18" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL18" s="445"/>
+      <c r="AL18" s="425"/>
       <c r="BE18" s="225"/>
       <c r="BH18" s="2"/>
     </row>
@@ -20670,11 +20672,11 @@
         <v>"e" : { commit: "ㄍ" }</v>
       </c>
       <c r="AJ19" s="2"/>
-      <c r="AK19" s="442" t="str">
+      <c r="AK19" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL19" s="445"/>
+      <c r="AL19" s="425"/>
       <c r="BE19" s="225"/>
       <c r="BH19" s="2"/>
     </row>
@@ -20771,11 +20773,11 @@
         <v>"d" : { commit: "ㄎ" }</v>
       </c>
       <c r="AJ20" s="2"/>
-      <c r="AK20" s="442" t="str">
+      <c r="AK20" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL20" s="445"/>
+      <c r="AL20" s="425"/>
       <c r="BC20" s="11"/>
       <c r="BE20" s="225"/>
       <c r="BH20" s="2"/>
@@ -20871,11 +20873,11 @@
         <v>"E" : { commit: "ㆣ" }</v>
       </c>
       <c r="AJ21" s="2"/>
-      <c r="AK21" s="442" t="str">
+      <c r="AK21" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL21" s="445"/>
+      <c r="AL21" s="425"/>
       <c r="BC21" s="11"/>
       <c r="BE21" s="225"/>
       <c r="BH21" s="2"/>
@@ -20974,11 +20976,11 @@
         <v>"g" : { commit: "ㄥ" }</v>
       </c>
       <c r="AJ22" s="2"/>
-      <c r="AK22" s="442" t="str">
+      <c r="AK22" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL22" s="445"/>
+      <c r="AL22" s="425"/>
       <c r="BC22" s="11"/>
       <c r="BE22" s="225"/>
       <c r="BH22" s="2"/>
@@ -21077,11 +21079,11 @@
         <v>"c" : { commit: "ㄏ" }</v>
       </c>
       <c r="AJ23" s="2"/>
-      <c r="AK23" s="442" t="str">
+      <c r="AK23" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL23" s="445"/>
+      <c r="AL23" s="425"/>
       <c r="AM23" s="210"/>
       <c r="AN23" s="2"/>
       <c r="BC23" s="11"/>
@@ -21182,11 +21184,11 @@
         <v>"u" : { commit: "ㄧ" }</v>
       </c>
       <c r="AJ24" s="2"/>
-      <c r="AK24" s="442" t="str">
+      <c r="AK24" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL24" s="445"/>
+      <c r="AL24" s="425"/>
       <c r="AM24" s="210"/>
       <c r="AN24" s="2"/>
       <c r="BC24" s="11"/>
@@ -21291,11 +21293,11 @@
         <v>"j" : { commit: "ㄨ" }</v>
       </c>
       <c r="AJ25" s="2"/>
-      <c r="AK25" s="442" t="str">
+      <c r="AK25" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL25" s="445"/>
+      <c r="AL25" s="425"/>
       <c r="AM25" s="211" t="s">
         <v>45</v>
       </c>
@@ -21419,11 +21421,11 @@
         <v>"8" : { commit: "ㄚ" }</v>
       </c>
       <c r="AJ26" s="2"/>
-      <c r="AK26" s="442" t="str">
+      <c r="AK26" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL26" s="445"/>
+      <c r="AL26" s="425"/>
       <c r="AM26" s="212" t="s">
         <v>380</v>
       </c>
@@ -21539,11 +21541,11 @@
         <v>"i" : { commit: "ㆦ" }</v>
       </c>
       <c r="AJ27" s="2"/>
-      <c r="AK27" s="442" t="str">
+      <c r="AK27" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL27" s="445"/>
+      <c r="AL27" s="425"/>
       <c r="AM27" s="215" t="s">
         <v>404</v>
       </c>
@@ -21653,11 +21655,11 @@
         <v>"k" : { commit: "ㄜ" }</v>
       </c>
       <c r="AJ28" s="2"/>
-      <c r="AK28" s="442" t="str">
+      <c r="AK28" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL28" s="445"/>
+      <c r="AL28" s="425"/>
       <c r="AM28" s="210"/>
       <c r="AN28" s="2"/>
       <c r="BC28" s="11"/>
@@ -21754,11 +21756,11 @@
         <v>"," : { commit: "ㆤ" }</v>
       </c>
       <c r="AJ29" s="2"/>
-      <c r="AK29" s="442" t="str">
+      <c r="AK29" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL29" s="445"/>
+      <c r="AL29" s="425"/>
       <c r="AM29" s="210"/>
       <c r="AN29" s="2"/>
       <c r="BC29" s="11"/>
@@ -21855,11 +21857,11 @@
         <v>"9" : { commit: "ㄞ" }</v>
       </c>
       <c r="AJ30" s="2"/>
-      <c r="AK30" s="442" t="str">
+      <c r="AK30" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL30" s="445"/>
+      <c r="AL30" s="425"/>
       <c r="AM30" s="210"/>
       <c r="AN30" s="2"/>
       <c r="BC30" s="11"/>
@@ -21956,11 +21958,11 @@
         <v>"l" : { commit: "ㄠ" }</v>
       </c>
       <c r="AJ31" s="2"/>
-      <c r="AK31" s="442" t="str">
+      <c r="AK31" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL31" s="445"/>
+      <c r="AL31" s="425"/>
       <c r="AM31" s="210"/>
       <c r="AN31" s="2"/>
       <c r="BC31" s="11"/>
@@ -22057,11 +22059,11 @@
         <v>"U" : { commit: "ㆪ" }</v>
       </c>
       <c r="AJ32" s="2"/>
-      <c r="AK32" s="442" t="str">
+      <c r="AK32" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL32" s="445"/>
+      <c r="AL32" s="425"/>
       <c r="AM32" s="210"/>
       <c r="BC32" s="11"/>
       <c r="BE32" s="225"/>
@@ -22157,11 +22159,11 @@
         <v>"J" : { commit: "ㆫ" }</v>
       </c>
       <c r="AJ33" s="2"/>
-      <c r="AK33" s="442" t="str">
+      <c r="AK33" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL33" s="445"/>
+      <c r="AL33" s="425"/>
       <c r="AM33" s="210"/>
       <c r="AN33" s="2"/>
       <c r="BC33" s="11"/>
@@ -22258,11 +22260,11 @@
         <v>"*" : { commit: "ㆩ" }</v>
       </c>
       <c r="AJ34" s="2"/>
-      <c r="AK34" s="442" t="str">
+      <c r="AK34" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL34" s="445"/>
+      <c r="AL34" s="425"/>
       <c r="AM34" s="210"/>
       <c r="AN34" s="2"/>
       <c r="BC34" s="11"/>
@@ -22359,11 +22361,11 @@
         <v>"I" : { commit: "ㆧ" }</v>
       </c>
       <c r="AJ35" s="2"/>
-      <c r="AK35" s="442" t="str">
+      <c r="AK35" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL35" s="445"/>
+      <c r="AL35" s="425"/>
       <c r="AM35" s="210" t="str">
         <f t="shared" ref="AM35:AM39" si="26" xml:space="preserve"> IF(LEN(AC35)=LEN(AD35), "", _xlfn.CONCAT( "xform/", AC35, "/", AD35, "/"))</f>
         <v/>
@@ -22463,11 +22465,11 @@
         <v>"&lt;" : { commit: "ㆥ" }</v>
       </c>
       <c r="AJ36" s="2"/>
-      <c r="AK36" s="442" t="str">
+      <c r="AK36" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL36" s="445"/>
+      <c r="AL36" s="425"/>
       <c r="AM36" s="210" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -22567,11 +22569,11 @@
         <v>"(" : { commit: "ㆮ" }</v>
       </c>
       <c r="AJ37" s="2"/>
-      <c r="AK37" s="442" t="str">
+      <c r="AK37" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL37" s="445"/>
+      <c r="AL37" s="425"/>
       <c r="AM37" s="210" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -22671,11 +22673,11 @@
         <v>"L" : { commit: "ㆯ" }</v>
       </c>
       <c r="AJ38" s="2"/>
-      <c r="AK38" s="442" t="str">
+      <c r="AK38" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL38" s="445"/>
+      <c r="AL38" s="425"/>
       <c r="AM38" s="210" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -22775,11 +22777,11 @@
         <v>"-" : { commit: "ㄦ" }</v>
       </c>
       <c r="AJ39" s="2"/>
-      <c r="AK39" s="442" t="str">
+      <c r="AK39" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL39" s="445"/>
+      <c r="AL39" s="425"/>
       <c r="AM39" s="210" t="str">
         <f t="shared" si="26"/>
         <v/>
@@ -22879,11 +22881,11 @@
         <v>"M" : { commit: "ㄚㄇ" }</v>
       </c>
       <c r="AJ40" s="2"/>
-      <c r="AK40" s="442" t="str">
+      <c r="AK40" s="422" t="str">
         <f t="shared" si="8"/>
         <v>xform/ㆰ/ㄚㄇ/</v>
       </c>
-      <c r="AL40" s="445"/>
+      <c r="AL40" s="425"/>
       <c r="AM40" s="210"/>
       <c r="AN40" s="2"/>
       <c r="BC40" s="11"/>
@@ -22980,11 +22982,11 @@
         <v>"0" : { commit: "ㄢ" }</v>
       </c>
       <c r="AJ41" s="2"/>
-      <c r="AK41" s="442" t="str">
+      <c r="AK41" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL41" s="445"/>
+      <c r="AL41" s="425"/>
       <c r="AM41" s="210" t="str">
         <f t="shared" ref="AM41:AM42" si="27" xml:space="preserve"> IF(LEN(AC41)=LEN(AD41), "", _xlfn.CONCAT( "xform/", AC41, "/", AD41, "/"))</f>
         <v/>
@@ -23084,11 +23086,11 @@
         <v>";" : { commit: "ㄤ" }</v>
       </c>
       <c r="AJ42" s="2"/>
-      <c r="AK42" s="442" t="str">
+      <c r="AK42" s="422" t="str">
         <f t="shared" si="8"/>
         <v/>
       </c>
-      <c r="AL42" s="445"/>
+      <c r="AL42" s="425"/>
       <c r="AM42" s="210" t="str">
         <f t="shared" si="27"/>
         <v/>
@@ -23188,11 +23190,11 @@
         <v>"O" : { commit: "ㄛㄇ" }</v>
       </c>
       <c r="AJ43" s="2"/>
-      <c r="AK43" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC43)=LEN(AD43), "", _xlfn.CONCAT( "xform/", AC43, "/", AD43, "/"))</f>
+      <c r="AK43" s="422" t="str">
+        <f t="shared" ref="AK43:AK54" si="28" xml:space="preserve"> IF(LEN(AC43)=LEN(AD43), "", _xlfn.CONCAT( "xform/", AC43, "/", AD43, "/"))</f>
         <v>xform/ㆱ/ㄛㄇ/</v>
       </c>
-      <c r="AL43" s="445"/>
+      <c r="AL43" s="425"/>
       <c r="AN43" s="2"/>
       <c r="BC43" s="11"/>
       <c r="BE43" s="225"/>
@@ -23288,11 +23290,11 @@
         <v>"o" : { commit: "ㄛㄥ" }</v>
       </c>
       <c r="AJ44" s="2"/>
-      <c r="AK44" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC44)=LEN(AD44), "", _xlfn.CONCAT( "xform/", AC44, "/", AD44, "/"))</f>
+      <c r="AK44" s="422" t="str">
+        <f t="shared" si="28"/>
         <v>xform/ㆲ/ㄛㄥ/</v>
       </c>
-      <c r="AL44" s="445"/>
+      <c r="AL44" s="425"/>
       <c r="AN44" s="2"/>
       <c r="BC44" s="11"/>
       <c r="BE44" s="225"/>
@@ -23378,11 +23380,11 @@
         <v>"m" : { commit: "ㄇ" }</v>
       </c>
       <c r="AJ45" s="2"/>
-      <c r="AK45" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC45)=LEN(AD45), "", _xlfn.CONCAT( "xform/", AC45, "/", AD45, "/"))</f>
+      <c r="AK45" s="422" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AL45" s="445"/>
+      <c r="AL45" s="425"/>
       <c r="AN45" s="2"/>
       <c r="BC45" s="11"/>
       <c r="BE45" s="225"/>
@@ -23472,11 +23474,11 @@
         <v>"p" : { commit: "ㄣ" }</v>
       </c>
       <c r="AJ46" s="2"/>
-      <c r="AK46" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC46)=LEN(AD46), "", _xlfn.CONCAT( "xform/", AC46, "/", AD46, "/"))</f>
+      <c r="AK46" s="422" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AL46" s="445"/>
+      <c r="AL46" s="425"/>
       <c r="AN46" s="2"/>
       <c r="BC46" s="11"/>
       <c r="BE46" s="225"/>
@@ -23566,11 +23568,11 @@
         <v>"/" : { commit: "ㄥ" }</v>
       </c>
       <c r="AJ47" s="2"/>
-      <c r="AK47" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC47)=LEN(AD47), "", _xlfn.CONCAT( "xform/", AC47, "/", AD47, "/"))</f>
+      <c r="AK47" s="422" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AL47" s="445"/>
+      <c r="AL47" s="425"/>
       <c r="AN47" s="2"/>
       <c r="BC47" s="11"/>
       <c r="BE47" s="225"/>
@@ -23661,20 +23663,20 @@
         <v>"." : { commit: "" }</v>
       </c>
       <c r="AJ48" s="2"/>
-      <c r="AK48" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC48)=LEN(AD48), "", _xlfn.CONCAT( "xform/", AC48, "/", AD48, "/"))</f>
+      <c r="AK48" s="422" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AL48" s="445"/>
-      <c r="AM48" s="447" t="s">
-        <v>1536</v>
+      <c r="AL48" s="425"/>
+      <c r="AM48" s="427" t="s">
+        <v>1535</v>
       </c>
       <c r="AN48" s="2"/>
-      <c r="AQ48" s="448" t="s">
+      <c r="AQ48" s="428" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AR48" s="428" t="s">
         <v>1533</v>
-      </c>
-      <c r="AR48" s="448" t="s">
-        <v>1534</v>
       </c>
       <c r="BC48" s="11"/>
       <c r="BE48" s="225"/>
@@ -23753,25 +23755,25 @@
         <v>" " : { commit: "ˉ" }</v>
       </c>
       <c r="AJ49" s="2"/>
-      <c r="AK49" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC49)=LEN(AD49), "", _xlfn.CONCAT( "xform/", AC49, "/", AD49, "/"))</f>
+      <c r="AK49" s="422" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AL49" s="445"/>
+      <c r="AL49" s="425"/>
       <c r="AM49" s="391" t="str">
-        <f xml:space="preserve"> "- xform/" &amp; AA49 &amp; "/" &amp; AD49 &amp; "/"</f>
+        <f t="shared" ref="AM49:AM54" si="29" xml:space="preserve"> "- xform/" &amp; AA49 &amp; "/" &amp; AD49 &amp; "/"</f>
         <v>- xform/ /ˉ/</v>
       </c>
       <c r="AN49" s="47"/>
       <c r="AQ49" s="11">
-        <f>AE49</f>
+        <f t="shared" ref="AQ49:AQ54" si="30">AE49</f>
         <v>1</v>
       </c>
       <c r="AR49" s="417" t="s">
-        <v>1520</v>
+        <v>1519</v>
       </c>
       <c r="AS49" s="2" t="str">
-        <f xml:space="preserve"> "# " &amp; AR49 &amp; ": 台羅調號【" &amp; AQ49 &amp; "】"</f>
+        <f t="shared" ref="AS49:AS54" si="31" xml:space="preserve"> "# " &amp; AR49 &amp; ": 台羅調號【" &amp; AQ49 &amp; "】"</f>
         <v># 陰平: 台羅調號【1】</v>
       </c>
       <c r="BC49" s="11"/>
@@ -23826,25 +23828,25 @@
         <v>"4" : { commit: "ˋ" }</v>
       </c>
       <c r="AJ50" s="2"/>
-      <c r="AK50" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC50)=LEN(AD50), "", _xlfn.CONCAT( "xform/", AC50, "/", AD50, "/"))</f>
+      <c r="AK50" s="422" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AL50" s="445"/>
+      <c r="AL50" s="425"/>
       <c r="AM50" s="391" t="str">
-        <f xml:space="preserve"> "- xform/" &amp; AA50 &amp; "/" &amp; AD50 &amp; "/"</f>
+        <f t="shared" si="29"/>
         <v>- xform/4/ˋ/</v>
       </c>
       <c r="AN50" s="47"/>
       <c r="AQ50" s="11">
-        <f>AE50</f>
+        <f t="shared" si="30"/>
         <v>2</v>
       </c>
       <c r="AR50" s="217" t="s">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="AS50" s="2" t="str">
-        <f xml:space="preserve"> "# " &amp; AR50 &amp; ": 台羅調號【" &amp; AQ50 &amp; "】"</f>
+        <f t="shared" si="31"/>
         <v># 陽平: 台羅調號【2】</v>
       </c>
       <c r="BC50" s="11"/>
@@ -23902,25 +23904,25 @@
         <v>"3" : { commit: "ˇ" }</v>
       </c>
       <c r="AJ51" s="2"/>
-      <c r="AK51" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC51)=LEN(AD51), "", _xlfn.CONCAT( "xform/", AC51, "/", AD51, "/"))</f>
+      <c r="AK51" s="422" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AL51" s="445"/>
+      <c r="AL51" s="425"/>
       <c r="AM51" s="391" t="str">
-        <f xml:space="preserve"> "- xform/" &amp; AA51 &amp; "/" &amp; AD51 &amp; "/"</f>
+        <f t="shared" si="29"/>
         <v>- xform/3/ˇ/</v>
       </c>
       <c r="AN51" s="47"/>
       <c r="AQ51" s="11">
-        <f>AE51</f>
+        <f t="shared" si="30"/>
         <v>3</v>
       </c>
       <c r="AR51" s="417" t="s">
-        <v>1522</v>
+        <v>1521</v>
       </c>
       <c r="AS51" s="2" t="str">
-        <f xml:space="preserve"> "# " &amp; AR51 &amp; ": 台羅調號【" &amp; AQ51 &amp; "】"</f>
+        <f t="shared" si="31"/>
         <v># 陰去: 台羅調號【3】</v>
       </c>
       <c r="BC51" s="11"/>
@@ -23978,25 +23980,25 @@
         <v>"6" : { commit: "ˊ" }</v>
       </c>
       <c r="AJ52" s="2"/>
-      <c r="AK52" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC52)=LEN(AD52), "", _xlfn.CONCAT( "xform/", AC52, "/", AD52, "/"))</f>
+      <c r="AK52" s="422" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AL52" s="445"/>
+      <c r="AL52" s="425"/>
       <c r="AM52" s="391" t="str">
-        <f xml:space="preserve"> "- xform/" &amp; AA52 &amp; "/" &amp; AD52 &amp; "/"</f>
+        <f t="shared" si="29"/>
         <v>- xform/6/ˊ/</v>
       </c>
       <c r="AN52" s="47"/>
       <c r="AQ52" s="11">
-        <f>AE52</f>
+        <f t="shared" si="30"/>
         <v>5</v>
       </c>
       <c r="AR52" s="217" t="s">
-        <v>1524</v>
+        <v>1523</v>
       </c>
       <c r="AS52" s="2" t="str">
-        <f xml:space="preserve"> "# " &amp; AR52 &amp; ": 台羅調號【" &amp; AQ52 &amp; "】"</f>
+        <f t="shared" si="31"/>
         <v># 陽入: 台羅調號【5】</v>
       </c>
       <c r="BC52" s="11"/>
@@ -24051,25 +24053,25 @@
         <v>"5" : { commit: "+" }</v>
       </c>
       <c r="AJ53" s="2"/>
-      <c r="AK53" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC53)=LEN(AD53), "", _xlfn.CONCAT( "xform/", AC53, "/", AD53, "/"))</f>
+      <c r="AK53" s="422" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AL53" s="445"/>
+      <c r="AL53" s="425"/>
       <c r="AM53" s="391" t="str">
-        <f xml:space="preserve"> "- xform/" &amp; AA53 &amp; "/" &amp; AD53 &amp; "/"</f>
+        <f t="shared" si="29"/>
         <v>- xform/5/+/</v>
       </c>
       <c r="AN53" s="47"/>
       <c r="AQ53" s="11">
-        <f>AE53</f>
+        <f t="shared" si="30"/>
         <v>7</v>
       </c>
       <c r="AR53" s="417" t="s">
-        <v>1521</v>
+        <v>1520</v>
       </c>
       <c r="AS53" s="2" t="str">
-        <f xml:space="preserve"> "# " &amp; AR53 &amp; ": 台羅調號【" &amp; AQ53 &amp; "】"</f>
+        <f t="shared" si="31"/>
         <v># 上声: 台羅調號【7】</v>
       </c>
       <c r="BC53" s="11"/>
@@ -24124,25 +24126,25 @@
         <v>"7" : { commit: "˙" }</v>
       </c>
       <c r="AJ54" s="2"/>
-      <c r="AK54" s="442" t="str">
-        <f xml:space="preserve"> IF(LEN(AC54)=LEN(AD54), "", _xlfn.CONCAT( "xform/", AC54, "/", AD54, "/"))</f>
+      <c r="AK54" s="422" t="str">
+        <f t="shared" si="28"/>
         <v/>
       </c>
-      <c r="AL54" s="445"/>
+      <c r="AL54" s="425"/>
       <c r="AM54" s="391" t="str">
-        <f xml:space="preserve"> "- xform/" &amp; AA54 &amp; "/" &amp; AD54 &amp; "/"</f>
+        <f t="shared" si="29"/>
         <v>- xform/7/˙/</v>
       </c>
       <c r="AN54" s="47"/>
       <c r="AQ54" s="11" t="str">
-        <f>AE54</f>
+        <f t="shared" si="30"/>
         <v>[48]</v>
       </c>
       <c r="AR54" s="217" t="s">
-        <v>1525</v>
+        <v>1524</v>
       </c>
       <c r="AS54" s="2" t="str">
-        <f xml:space="preserve"> "# " &amp; AR54 &amp; ": 台羅調號【" &amp; AQ54 &amp; "】"</f>
+        <f t="shared" si="31"/>
         <v># 去声: 台羅調號【[48]】</v>
       </c>
       <c r="BC54" s="11"/>
@@ -24162,8 +24164,8 @@
       <c r="AH55" s="204"/>
       <c r="AI55" s="204"/>
       <c r="AJ55" s="2"/>
-      <c r="AK55" s="441"/>
-      <c r="AL55" s="444"/>
+      <c r="AK55" s="421"/>
+      <c r="AL55" s="424"/>
       <c r="AM55" s="204"/>
       <c r="AN55" s="2"/>
       <c r="BC55" s="11"/>
@@ -24183,17 +24185,17 @@
       <c r="AH56" s="204"/>
       <c r="AI56" s="204"/>
       <c r="AJ56" s="2"/>
-      <c r="AK56" s="441"/>
-      <c r="AL56" s="444"/>
-      <c r="AM56" s="447" t="s">
-        <v>1537</v>
+      <c r="AK56" s="421"/>
+      <c r="AL56" s="424"/>
+      <c r="AM56" s="427" t="s">
+        <v>1536</v>
       </c>
       <c r="AN56" s="2"/>
-      <c r="AQ56" s="448" t="s">
+      <c r="AQ56" s="428" t="s">
+        <v>1532</v>
+      </c>
+      <c r="AR56" s="428" t="s">
         <v>1533</v>
-      </c>
-      <c r="AR56" s="448" t="s">
-        <v>1534</v>
       </c>
       <c r="BC56" s="11"/>
       <c r="BE56" s="225"/>
@@ -24225,8 +24227,8 @@
       <c r="AH57" s="204"/>
       <c r="AI57" s="204"/>
       <c r="AJ57" s="2"/>
-      <c r="AK57" s="441"/>
-      <c r="AL57" s="444"/>
+      <c r="AK57" s="421"/>
+      <c r="AL57" s="424"/>
       <c r="AM57" s="391" t="str">
         <f xml:space="preserve"> "- xform/" &amp; AE49 &amp; "/" &amp; AD49 &amp; "/"</f>
         <v>- xform/1/ˉ/</v>
@@ -24236,10 +24238,10 @@
         <v>1</v>
       </c>
       <c r="AR57" s="2" t="s">
+        <v>1537</v>
+      </c>
+      <c r="AS57" s="2" t="s">
         <v>1538</v>
-      </c>
-      <c r="AS57" s="2" t="s">
-        <v>1539</v>
       </c>
       <c r="BC57" s="11"/>
       <c r="BE57" s="225"/>
@@ -24271,10 +24273,10 @@
       <c r="AH58" s="204"/>
       <c r="AI58" s="204"/>
       <c r="AJ58" s="2"/>
-      <c r="AK58" s="441"/>
-      <c r="AL58" s="444"/>
+      <c r="AK58" s="421"/>
+      <c r="AL58" s="424"/>
       <c r="AM58" s="391" t="str">
-        <f t="shared" ref="AM58:AM61" si="28" xml:space="preserve"> "- xform/" &amp; AE50 &amp; "/" &amp; AD50 &amp; "/"</f>
+        <f t="shared" ref="AM58:AM61" si="32" xml:space="preserve"> "- xform/" &amp; AE50 &amp; "/" &amp; AD50 &amp; "/"</f>
         <v>- xform/2/ˋ/</v>
       </c>
       <c r="AN58" s="47"/>
@@ -24285,7 +24287,7 @@
         <v>355</v>
       </c>
       <c r="AS58" s="2" t="s">
-        <v>1540</v>
+        <v>1539</v>
       </c>
       <c r="BC58" s="11"/>
       <c r="BE58" s="225"/>
@@ -24317,10 +24319,10 @@
       <c r="AH59" s="204"/>
       <c r="AI59" s="204"/>
       <c r="AJ59" s="2"/>
-      <c r="AK59" s="441"/>
-      <c r="AL59" s="444"/>
+      <c r="AK59" s="421"/>
+      <c r="AL59" s="424"/>
       <c r="AM59" s="391" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>- xform/3/ˇ/</v>
       </c>
       <c r="AN59" s="47"/>
@@ -24331,7 +24333,7 @@
         <v>352</v>
       </c>
       <c r="AS59" s="2" t="s">
-        <v>1541</v>
+        <v>1540</v>
       </c>
       <c r="BC59" s="11"/>
       <c r="BE59" s="225"/>
@@ -24366,10 +24368,10 @@
       <c r="AH60" s="204"/>
       <c r="AI60" s="204"/>
       <c r="AJ60" s="2"/>
-      <c r="AK60" s="441"/>
-      <c r="AL60" s="444"/>
+      <c r="AK60" s="421"/>
+      <c r="AL60" s="424"/>
       <c r="AM60" s="391" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>- xform/5/ˊ/</v>
       </c>
       <c r="AN60" s="47"/>
@@ -24377,10 +24379,10 @@
         <v>5</v>
       </c>
       <c r="AR60" s="2" t="s">
+        <v>1541</v>
+      </c>
+      <c r="AS60" s="2" t="s">
         <v>1542</v>
-      </c>
-      <c r="AS60" s="2" t="s">
-        <v>1543</v>
       </c>
       <c r="BC60" s="11"/>
       <c r="BE60" s="225"/>
@@ -24401,10 +24403,10 @@
       <c r="AH61" s="204"/>
       <c r="AI61" s="204"/>
       <c r="AJ61" s="2"/>
-      <c r="AK61" s="441"/>
-      <c r="AL61" s="444"/>
+      <c r="AK61" s="421"/>
+      <c r="AL61" s="424"/>
       <c r="AM61" s="391" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>- xform/7/+/</v>
       </c>
       <c r="AN61" s="47"/>
@@ -24415,7 +24417,7 @@
         <v>353</v>
       </c>
       <c r="AS61" s="2" t="s">
-        <v>1544</v>
+        <v>1543</v>
       </c>
       <c r="BC61" s="11"/>
       <c r="BE61" s="225"/>
@@ -24431,8 +24433,8 @@
       <c r="AH62" s="204"/>
       <c r="AI62" s="204"/>
       <c r="AJ62" s="2"/>
-      <c r="AK62" s="441"/>
-      <c r="AL62" s="444"/>
+      <c r="AK62" s="421"/>
+      <c r="AL62" s="424"/>
       <c r="AM62" s="391" t="str">
         <f xml:space="preserve"> "- xform/8/˙/"</f>
         <v>- xform/8/˙/</v>
@@ -24442,10 +24444,10 @@
         <v>8</v>
       </c>
       <c r="AR62" s="2" t="s">
-        <v>1545</v>
+        <v>1544</v>
       </c>
       <c r="AS62" s="2" t="s">
-        <v>1547</v>
+        <v>1546</v>
       </c>
       <c r="BD62" s="11"/>
     </row>
@@ -24459,8 +24461,8 @@
       <c r="AH63" s="204"/>
       <c r="AI63" s="204"/>
       <c r="AJ63" s="2"/>
-      <c r="AK63" s="441"/>
-      <c r="AL63" s="444"/>
+      <c r="AK63" s="421"/>
+      <c r="AL63" s="424"/>
       <c r="AM63" s="391" t="str">
         <f xml:space="preserve"> "- xform/4//"</f>
         <v>- xform/4//</v>
@@ -24470,10 +24472,10 @@
         <v>4</v>
       </c>
       <c r="AR63" s="2" t="s">
-        <v>1546</v>
+        <v>1545</v>
       </c>
       <c r="AS63" s="2" t="s">
-        <v>1548</v>
+        <v>1547</v>
       </c>
       <c r="BD63" s="11"/>
     </row>
@@ -24487,8 +24489,8 @@
       <c r="AH64" s="204"/>
       <c r="AI64" s="204"/>
       <c r="AJ64" s="2"/>
-      <c r="AK64" s="441"/>
-      <c r="AL64" s="444"/>
+      <c r="AK64" s="421"/>
+      <c r="AL64" s="424"/>
       <c r="AM64" s="204"/>
       <c r="BD64" s="11"/>
     </row>
@@ -24788,32 +24790,32 @@
   <sheetData>
     <row r="1" spans="2:25" ht="9.9499999999999993" customHeight="1"/>
     <row r="2" spans="2:25" s="362" customFormat="1" ht="45" customHeight="1">
-      <c r="B2" s="421" t="s">
-        <v>598</v>
-      </c>
-      <c r="C2" s="421"/>
-      <c r="D2" s="421"/>
-      <c r="E2" s="421"/>
-      <c r="F2" s="421"/>
-      <c r="G2" s="421"/>
-      <c r="H2" s="421"/>
-      <c r="I2" s="421"/>
-      <c r="J2" s="421"/>
-      <c r="K2" s="421"/>
-      <c r="L2" s="421"/>
-      <c r="M2" s="421"/>
-      <c r="N2" s="421"/>
-      <c r="O2" s="421"/>
-      <c r="P2" s="421"/>
-      <c r="Q2" s="421"/>
-      <c r="R2" s="421"/>
-      <c r="S2" s="421"/>
-      <c r="T2" s="421"/>
-      <c r="U2" s="421"/>
-      <c r="V2" s="421"/>
-      <c r="W2" s="421"/>
-      <c r="X2" s="421"/>
-      <c r="Y2" s="421"/>
+      <c r="B2" s="445" t="s">
+        <v>597</v>
+      </c>
+      <c r="C2" s="445"/>
+      <c r="D2" s="445"/>
+      <c r="E2" s="445"/>
+      <c r="F2" s="445"/>
+      <c r="G2" s="445"/>
+      <c r="H2" s="445"/>
+      <c r="I2" s="445"/>
+      <c r="J2" s="445"/>
+      <c r="K2" s="445"/>
+      <c r="L2" s="445"/>
+      <c r="M2" s="445"/>
+      <c r="N2" s="445"/>
+      <c r="O2" s="445"/>
+      <c r="P2" s="445"/>
+      <c r="Q2" s="445"/>
+      <c r="R2" s="445"/>
+      <c r="S2" s="445"/>
+      <c r="T2" s="445"/>
+      <c r="U2" s="445"/>
+      <c r="V2" s="445"/>
+      <c r="W2" s="445"/>
+      <c r="X2" s="445"/>
+      <c r="Y2" s="445"/>
     </row>
     <row r="3" spans="2:25" ht="45" customHeight="1">
       <c r="B3" s="363" t="s">
@@ -24856,16 +24858,16 @@
         <v>52</v>
       </c>
       <c r="O3" s="363" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="P3" s="363" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="Q3" s="363" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="R3" s="363" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="S3" s="363" t="s">
         <v>43</v>
@@ -24918,7 +24920,7 @@
         <v>280</v>
       </c>
       <c r="M4" s="365" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="N4" s="365" t="s">
         <v>283</v>
@@ -24952,32 +24954,32 @@
       <c r="Y4" s="364"/>
     </row>
     <row r="5" spans="2:25" s="362" customFormat="1" ht="45" customHeight="1">
-      <c r="B5" s="421" t="s">
-        <v>599</v>
-      </c>
-      <c r="C5" s="421"/>
-      <c r="D5" s="421"/>
-      <c r="E5" s="421"/>
-      <c r="F5" s="421"/>
-      <c r="G5" s="421"/>
-      <c r="H5" s="421"/>
-      <c r="I5" s="421"/>
-      <c r="J5" s="421"/>
-      <c r="K5" s="421"/>
-      <c r="L5" s="421"/>
-      <c r="M5" s="421"/>
-      <c r="N5" s="421"/>
-      <c r="O5" s="421"/>
-      <c r="P5" s="421"/>
-      <c r="Q5" s="421"/>
-      <c r="R5" s="421"/>
-      <c r="S5" s="421"/>
-      <c r="T5" s="421"/>
-      <c r="U5" s="421"/>
-      <c r="V5" s="421"/>
-      <c r="W5" s="421"/>
-      <c r="X5" s="421"/>
-      <c r="Y5" s="421"/>
+      <c r="B5" s="445" t="s">
+        <v>598</v>
+      </c>
+      <c r="C5" s="445"/>
+      <c r="D5" s="445"/>
+      <c r="E5" s="445"/>
+      <c r="F5" s="445"/>
+      <c r="G5" s="445"/>
+      <c r="H5" s="445"/>
+      <c r="I5" s="445"/>
+      <c r="J5" s="445"/>
+      <c r="K5" s="445"/>
+      <c r="L5" s="445"/>
+      <c r="M5" s="445"/>
+      <c r="N5" s="445"/>
+      <c r="O5" s="445"/>
+      <c r="P5" s="445"/>
+      <c r="Q5" s="445"/>
+      <c r="R5" s="445"/>
+      <c r="S5" s="445"/>
+      <c r="T5" s="445"/>
+      <c r="U5" s="445"/>
+      <c r="V5" s="445"/>
+      <c r="W5" s="445"/>
+      <c r="X5" s="445"/>
+      <c r="Y5" s="445"/>
     </row>
     <row r="6" spans="2:25" ht="45" customHeight="1">
       <c r="B6" s="363" t="s">
@@ -25035,10 +25037,10 @@
         <v>95</v>
       </c>
       <c r="T6" s="363" t="s">
+        <v>1507</v>
+      </c>
+      <c r="U6" s="363" t="s">
         <v>1508</v>
-      </c>
-      <c r="U6" s="363" t="s">
-        <v>1509</v>
       </c>
       <c r="V6" s="363" t="s">
         <v>415</v>
@@ -25050,7 +25052,7 @@
         <v>425</v>
       </c>
       <c r="Y6" s="363" t="s">
-        <v>1526</v>
+        <v>1525</v>
       </c>
     </row>
     <row r="7" spans="2:25" ht="45" customHeight="1">
@@ -25076,7 +25078,7 @@
         <v>309</v>
       </c>
       <c r="I7" s="365" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="J7" s="365" t="s">
         <v>576</v>
@@ -25091,13 +25093,13 @@
         <v>311</v>
       </c>
       <c r="N7" s="365" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="O7" s="365" t="s">
         <v>315</v>
       </c>
       <c r="P7" s="365" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="Q7" s="365" t="s">
         <v>324</v>
@@ -25124,7 +25126,7 @@
         <v>323</v>
       </c>
       <c r="Y7" s="365" t="s">
-        <v>1510</v>
+        <v>1509</v>
       </c>
     </row>
     <row r="8" spans="2:25" ht="9.9499999999999993" customHeight="1"/>
@@ -25217,66 +25219,66 @@
     </row>
     <row r="2" spans="1:66" s="103" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="115"/>
-      <c r="B2" s="428" t="s">
+      <c r="B2" s="449" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="429"/>
-      <c r="D2" s="430"/>
-      <c r="E2" s="428" t="s">
+      <c r="C2" s="450"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="449" t="s">
         <v>340</v>
       </c>
-      <c r="F2" s="429"/>
-      <c r="G2" s="430"/>
-      <c r="H2" s="435" t="s">
+      <c r="F2" s="450"/>
+      <c r="G2" s="451"/>
+      <c r="H2" s="452" t="s">
         <v>341</v>
       </c>
-      <c r="I2" s="436"/>
-      <c r="J2" s="437"/>
-      <c r="K2" s="435" t="s">
+      <c r="I2" s="453"/>
+      <c r="J2" s="454"/>
+      <c r="K2" s="452" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="436"/>
-      <c r="M2" s="437"/>
-      <c r="N2" s="438">
+      <c r="L2" s="453"/>
+      <c r="M2" s="454"/>
+      <c r="N2" s="455">
         <v>0.05</v>
       </c>
-      <c r="O2" s="439"/>
-      <c r="P2" s="440"/>
-      <c r="Q2" s="435" t="s">
+      <c r="O2" s="456"/>
+      <c r="P2" s="457"/>
+      <c r="Q2" s="452" t="s">
         <v>343</v>
       </c>
-      <c r="R2" s="436"/>
-      <c r="S2" s="437"/>
-      <c r="T2" s="435" t="s">
+      <c r="R2" s="453"/>
+      <c r="S2" s="454"/>
+      <c r="T2" s="452" t="s">
         <v>344</v>
       </c>
-      <c r="U2" s="436"/>
-      <c r="V2" s="437"/>
-      <c r="W2" s="422" t="s">
+      <c r="U2" s="453"/>
+      <c r="V2" s="454"/>
+      <c r="W2" s="458" t="s">
         <v>345</v>
       </c>
-      <c r="X2" s="423"/>
-      <c r="Y2" s="424"/>
-      <c r="Z2" s="422" t="s">
+      <c r="X2" s="459"/>
+      <c r="Y2" s="460"/>
+      <c r="Z2" s="458" t="s">
         <v>346</v>
       </c>
-      <c r="AA2" s="423"/>
-      <c r="AB2" s="424"/>
-      <c r="AC2" s="422" t="s">
+      <c r="AA2" s="459"/>
+      <c r="AB2" s="460"/>
+      <c r="AC2" s="458" t="s">
         <v>347</v>
       </c>
-      <c r="AD2" s="423"/>
-      <c r="AE2" s="424"/>
-      <c r="AF2" s="425" t="s">
+      <c r="AD2" s="459"/>
+      <c r="AE2" s="460"/>
+      <c r="AF2" s="446" t="s">
         <v>348</v>
       </c>
-      <c r="AG2" s="426"/>
-      <c r="AH2" s="427"/>
-      <c r="AI2" s="425" t="s">
+      <c r="AG2" s="447"/>
+      <c r="AH2" s="448"/>
+      <c r="AI2" s="446" t="s">
         <v>349</v>
       </c>
-      <c r="AJ2" s="426"/>
-      <c r="AK2" s="427"/>
+      <c r="AJ2" s="447"/>
+      <c r="AK2" s="448"/>
       <c r="AL2" s="115"/>
       <c r="AM2" s="115"/>
       <c r="AN2" s="115"/>
@@ -25376,7 +25378,7 @@
         <v>260</v>
       </c>
       <c r="BD3" s="374" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="BE3" s="375" t="s">
         <v>250</v>
@@ -25408,43 +25410,43 @@
       <c r="G4" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="431" t="str">
+      <c r="H4" s="461" t="str">
         <f ca="1">AU19</f>
         <v>ˇ</v>
       </c>
-      <c r="I4" s="432"/>
+      <c r="I4" s="462"/>
       <c r="J4" s="133" t="s">
         <v>352</v>
       </c>
-      <c r="K4" s="433" t="str">
+      <c r="K4" s="463" t="str">
         <f ca="1">AT19</f>
         <v>ˋ</v>
       </c>
-      <c r="L4" s="434"/>
+      <c r="L4" s="464"/>
       <c r="M4" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="N4" s="431" t="str">
+      <c r="N4" s="461" t="str">
         <f ca="1">AW19</f>
         <v>+</v>
       </c>
-      <c r="O4" s="432"/>
+      <c r="O4" s="462"/>
       <c r="P4" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="Q4" s="433" t="str">
+      <c r="Q4" s="463" t="str">
         <f ca="1">AV19</f>
         <v>ˊ</v>
       </c>
-      <c r="R4" s="434"/>
+      <c r="R4" s="464"/>
       <c r="S4" s="133" t="s">
         <v>355</v>
       </c>
-      <c r="T4" s="431" t="str">
+      <c r="T4" s="461" t="str">
         <f ca="1">AX19</f>
         <v>˙</v>
       </c>
-      <c r="U4" s="432"/>
+      <c r="U4" s="462"/>
       <c r="V4" s="133" t="s">
         <v>356</v>
       </c>
@@ -25543,71 +25545,71 @@
     <row r="5" spans="1:66" s="103" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="115"/>
       <c r="B5" s="115"/>
-      <c r="C5" s="428" t="s">
+      <c r="C5" s="449" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="429"/>
-      <c r="E5" s="430"/>
-      <c r="F5" s="428" t="s">
+      <c r="D5" s="450"/>
+      <c r="E5" s="451"/>
+      <c r="F5" s="449" t="s">
         <v>358</v>
       </c>
-      <c r="G5" s="429"/>
-      <c r="H5" s="430"/>
-      <c r="I5" s="428" t="s">
+      <c r="G5" s="450"/>
+      <c r="H5" s="451"/>
+      <c r="I5" s="449" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="429"/>
-      <c r="K5" s="430"/>
-      <c r="L5" s="428" t="s">
+      <c r="J5" s="450"/>
+      <c r="K5" s="451"/>
+      <c r="L5" s="449" t="s">
         <v>359</v>
       </c>
-      <c r="M5" s="429"/>
-      <c r="N5" s="430"/>
-      <c r="O5" s="428" t="s">
+      <c r="M5" s="450"/>
+      <c r="N5" s="451"/>
+      <c r="O5" s="449" t="s">
         <v>275</v>
       </c>
-      <c r="P5" s="429"/>
-      <c r="Q5" s="430"/>
-      <c r="R5" s="428" t="s">
+      <c r="P5" s="450"/>
+      <c r="Q5" s="451"/>
+      <c r="R5" s="449" t="s">
         <v>294</v>
       </c>
-      <c r="S5" s="429"/>
-      <c r="T5" s="430"/>
-      <c r="U5" s="422" t="s">
+      <c r="S5" s="450"/>
+      <c r="T5" s="451"/>
+      <c r="U5" s="458" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="423"/>
-      <c r="W5" s="424"/>
-      <c r="X5" s="422" t="s">
+      <c r="V5" s="459"/>
+      <c r="W5" s="460"/>
+      <c r="X5" s="458" t="s">
         <v>205</v>
       </c>
-      <c r="Y5" s="423"/>
-      <c r="Z5" s="424"/>
-      <c r="AA5" s="422" t="s">
+      <c r="Y5" s="459"/>
+      <c r="Z5" s="460"/>
+      <c r="AA5" s="458" t="s">
         <v>201</v>
       </c>
-      <c r="AB5" s="423"/>
-      <c r="AC5" s="424"/>
-      <c r="AD5" s="422" t="s">
+      <c r="AB5" s="459"/>
+      <c r="AC5" s="460"/>
+      <c r="AD5" s="458" t="s">
         <v>270</v>
       </c>
-      <c r="AE5" s="423"/>
-      <c r="AF5" s="424"/>
-      <c r="AG5" s="422" t="s">
+      <c r="AE5" s="459"/>
+      <c r="AF5" s="460"/>
+      <c r="AG5" s="458" t="s">
         <v>360</v>
       </c>
-      <c r="AH5" s="423"/>
-      <c r="AI5" s="424"/>
-      <c r="AJ5" s="422" t="s">
+      <c r="AH5" s="459"/>
+      <c r="AI5" s="460"/>
+      <c r="AJ5" s="458" t="s">
         <v>361</v>
       </c>
-      <c r="AK5" s="423"/>
-      <c r="AL5" s="424"/>
-      <c r="AM5" s="425" t="s">
+      <c r="AK5" s="459"/>
+      <c r="AL5" s="460"/>
+      <c r="AM5" s="446" t="s">
         <v>362</v>
       </c>
-      <c r="AN5" s="426"/>
-      <c r="AO5" s="427"/>
+      <c r="AN5" s="447"/>
+      <c r="AO5" s="448"/>
       <c r="AP5" s="115"/>
       <c r="AQ5" s="115"/>
       <c r="AR5" s="116"/>
@@ -25907,61 +25909,61 @@
       <c r="A8" s="115"/>
       <c r="B8" s="115"/>
       <c r="C8" s="139"/>
-      <c r="D8" s="428" t="s">
+      <c r="D8" s="449" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="429"/>
-      <c r="F8" s="430"/>
-      <c r="G8" s="428" t="s">
+      <c r="E8" s="450"/>
+      <c r="F8" s="451"/>
+      <c r="G8" s="449" t="s">
         <v>300</v>
       </c>
-      <c r="H8" s="429"/>
-      <c r="I8" s="430"/>
-      <c r="J8" s="428" t="s">
+      <c r="H8" s="450"/>
+      <c r="I8" s="451"/>
+      <c r="J8" s="449" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="429"/>
-      <c r="L8" s="430"/>
-      <c r="M8" s="428" t="s">
+      <c r="K8" s="450"/>
+      <c r="L8" s="451"/>
+      <c r="M8" s="449" t="s">
         <v>363</v>
       </c>
-      <c r="N8" s="429"/>
-      <c r="O8" s="430"/>
-      <c r="P8" s="428" t="s">
+      <c r="N8" s="450"/>
+      <c r="O8" s="451"/>
+      <c r="P8" s="449" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="429"/>
-      <c r="R8" s="430"/>
-      <c r="S8" s="428" t="s">
+      <c r="Q8" s="450"/>
+      <c r="R8" s="451"/>
+      <c r="S8" s="449" t="s">
         <v>297</v>
       </c>
-      <c r="T8" s="429"/>
-      <c r="U8" s="430"/>
-      <c r="V8" s="422" t="s">
+      <c r="T8" s="450"/>
+      <c r="U8" s="451"/>
+      <c r="V8" s="458" t="s">
         <v>192</v>
       </c>
-      <c r="W8" s="423"/>
-      <c r="X8" s="424"/>
-      <c r="Y8" s="422" t="s">
+      <c r="W8" s="459"/>
+      <c r="X8" s="460"/>
+      <c r="Y8" s="458" t="s">
         <v>284</v>
       </c>
-      <c r="Z8" s="423"/>
-      <c r="AA8" s="424"/>
-      <c r="AB8" s="422" t="s">
+      <c r="Z8" s="459"/>
+      <c r="AA8" s="460"/>
+      <c r="AB8" s="458" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" s="423"/>
-      <c r="AD8" s="424"/>
-      <c r="AE8" s="422" t="s">
+      <c r="AC8" s="459"/>
+      <c r="AD8" s="460"/>
+      <c r="AE8" s="458" t="s">
         <v>364</v>
       </c>
-      <c r="AF8" s="423"/>
-      <c r="AG8" s="424"/>
-      <c r="AH8" s="425" t="s">
+      <c r="AF8" s="459"/>
+      <c r="AG8" s="460"/>
+      <c r="AH8" s="446" t="s">
         <v>365</v>
       </c>
-      <c r="AI8" s="426"/>
-      <c r="AJ8" s="427"/>
+      <c r="AI8" s="447"/>
+      <c r="AJ8" s="448"/>
       <c r="AK8" s="115"/>
       <c r="AL8" s="115"/>
       <c r="AM8" s="115"/>
@@ -26266,56 +26268,56 @@
       <c r="B11" s="115"/>
       <c r="C11" s="115"/>
       <c r="D11" s="115"/>
-      <c r="E11" s="428" t="s">
+      <c r="E11" s="449" t="s">
         <v>295</v>
       </c>
-      <c r="F11" s="429"/>
-      <c r="G11" s="430"/>
-      <c r="H11" s="428" t="s">
+      <c r="F11" s="450"/>
+      <c r="G11" s="451"/>
+      <c r="H11" s="449" t="s">
         <v>366</v>
       </c>
-      <c r="I11" s="429"/>
-      <c r="J11" s="430"/>
-      <c r="K11" s="428" t="s">
+      <c r="I11" s="450"/>
+      <c r="J11" s="451"/>
+      <c r="K11" s="449" t="s">
         <v>298</v>
       </c>
-      <c r="L11" s="429"/>
-      <c r="M11" s="430"/>
-      <c r="N11" s="428" t="s">
+      <c r="L11" s="450"/>
+      <c r="M11" s="451"/>
+      <c r="N11" s="449" t="s">
         <v>367</v>
       </c>
-      <c r="O11" s="429"/>
-      <c r="P11" s="430"/>
-      <c r="Q11" s="428" t="s">
+      <c r="O11" s="450"/>
+      <c r="P11" s="451"/>
+      <c r="Q11" s="449" t="s">
         <v>143</v>
       </c>
-      <c r="R11" s="429"/>
-      <c r="S11" s="430"/>
-      <c r="T11" s="428" t="s">
+      <c r="R11" s="450"/>
+      <c r="S11" s="451"/>
+      <c r="T11" s="449" t="s">
         <v>368</v>
       </c>
-      <c r="U11" s="429"/>
-      <c r="V11" s="430"/>
-      <c r="W11" s="422" t="s">
+      <c r="U11" s="450"/>
+      <c r="V11" s="451"/>
+      <c r="W11" s="458" t="s">
         <v>336</v>
       </c>
-      <c r="X11" s="423"/>
-      <c r="Y11" s="424"/>
-      <c r="Z11" s="422" t="s">
+      <c r="X11" s="459"/>
+      <c r="Y11" s="460"/>
+      <c r="Z11" s="458" t="s">
         <v>369</v>
       </c>
-      <c r="AA11" s="423"/>
-      <c r="AB11" s="424"/>
-      <c r="AC11" s="422" t="s">
+      <c r="AA11" s="459"/>
+      <c r="AB11" s="460"/>
+      <c r="AC11" s="458" t="s">
         <v>370</v>
       </c>
-      <c r="AD11" s="423"/>
-      <c r="AE11" s="424"/>
-      <c r="AF11" s="425" t="s">
+      <c r="AD11" s="459"/>
+      <c r="AE11" s="460"/>
+      <c r="AF11" s="446" t="s">
         <v>371</v>
       </c>
-      <c r="AG11" s="426"/>
-      <c r="AH11" s="427"/>
+      <c r="AG11" s="447"/>
+      <c r="AH11" s="448"/>
       <c r="AI11" s="115"/>
       <c r="AJ11" s="115"/>
       <c r="AK11" s="115"/>
@@ -27470,7 +27472,7 @@
     <row r="19" spans="1:80" s="105" customFormat="1" ht="45" customHeight="1">
       <c r="A19" s="147"/>
       <c r="B19" s="187" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C19" s="188"/>
       <c r="D19" s="189" t="str" cm="1">
@@ -31729,30 +31731,17 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="AJ5:AL5"/>
@@ -31769,17 +31758,30 @@
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36684,7 +36686,7 @@
     <row r="1" spans="2:20" ht="30">
       <c r="B1" s="367"/>
       <c r="C1" s="369" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="D1" s="369" t="s">
         <v>282</v>
@@ -36693,7 +36695,7 @@
         <v>178</v>
       </c>
       <c r="F1" s="369" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="G1" s="369" t="s">
         <v>165</v>
@@ -36705,7 +36707,7 @@
         <v>30</v>
       </c>
       <c r="J1" s="369" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K1" s="369" t="s">
         <v>34</v>
@@ -36714,28 +36716,28 @@
         <v>86</v>
       </c>
       <c r="M1" s="369" t="s">
+        <v>609</v>
+      </c>
+      <c r="N1" s="369" t="s">
         <v>610</v>
       </c>
-      <c r="N1" s="369" t="s">
+      <c r="O1" s="369" t="s">
         <v>611</v>
       </c>
-      <c r="O1" s="369" t="s">
+      <c r="P1" s="369" t="s">
         <v>612</v>
-      </c>
-      <c r="P1" s="369" t="s">
-        <v>613</v>
       </c>
       <c r="Q1" s="369" t="s">
         <v>37</v>
       </c>
       <c r="R1" s="369" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="S1" s="369" t="s">
         <v>161</v>
       </c>
       <c r="T1" s="369" t="s">
-        <v>1493</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="2" spans="2:20">
@@ -36746,53 +36748,53 @@
         <v>58</v>
       </c>
       <c r="D2" s="366" t="s">
+        <v>614</v>
+      </c>
+      <c r="E2" s="366" t="s">
         <v>615</v>
       </c>
-      <c r="E2" s="366" t="s">
+      <c r="F2" s="366" t="s">
         <v>616</v>
       </c>
-      <c r="F2" s="366" t="s">
+      <c r="G2" s="366" t="s">
         <v>617</v>
       </c>
-      <c r="G2" s="366" t="s">
+      <c r="H2" s="366" t="s">
         <v>618</v>
       </c>
-      <c r="H2" s="366" t="s">
+      <c r="I2" s="366" t="s">
         <v>619</v>
       </c>
-      <c r="I2" s="366" t="s">
+      <c r="J2" s="366" t="s">
         <v>620</v>
       </c>
-      <c r="J2" s="366" t="s">
+      <c r="K2" s="366" t="s">
         <v>621</v>
       </c>
-      <c r="K2" s="366" t="s">
+      <c r="L2" s="366" t="s">
         <v>622</v>
       </c>
-      <c r="L2" s="366" t="s">
+      <c r="M2" s="366" t="s">
         <v>623</v>
       </c>
-      <c r="M2" s="366" t="s">
+      <c r="N2" s="366" t="s">
         <v>624</v>
-      </c>
-      <c r="N2" s="366" t="s">
-        <v>625</v>
       </c>
       <c r="O2" s="366"/>
       <c r="P2" s="366" t="s">
+        <v>625</v>
+      </c>
+      <c r="Q2" s="366" t="s">
         <v>626</v>
       </c>
-      <c r="Q2" s="366" t="s">
+      <c r="R2" s="366" t="s">
         <v>627</v>
       </c>
-      <c r="R2" s="366" t="s">
+      <c r="S2" s="366" t="s">
         <v>628</v>
       </c>
-      <c r="S2" s="366" t="s">
+      <c r="T2" s="366" t="s">
         <v>629</v>
-      </c>
-      <c r="T2" s="366" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="3" spans="2:20">
@@ -36803,103 +36805,103 @@
         <v>115</v>
       </c>
       <c r="D3" s="366" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E3" s="366"/>
       <c r="F3" s="366" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="G3" s="366"/>
       <c r="H3" s="366"/>
       <c r="I3" s="366" t="s">
+        <v>632</v>
+      </c>
+      <c r="J3" s="366" t="s">
         <v>633</v>
-      </c>
-      <c r="J3" s="366" t="s">
-        <v>634</v>
       </c>
       <c r="K3" s="366"/>
       <c r="L3" s="366"/>
       <c r="M3" s="366" t="s">
+        <v>634</v>
+      </c>
+      <c r="N3" s="366" t="s">
         <v>635</v>
-      </c>
-      <c r="N3" s="366" t="s">
-        <v>636</v>
       </c>
       <c r="O3" s="366"/>
       <c r="P3" s="366" t="s">
+        <v>636</v>
+      </c>
+      <c r="Q3" s="366" t="s">
         <v>637</v>
       </c>
-      <c r="Q3" s="366" t="s">
+      <c r="R3" s="366" t="s">
         <v>638</v>
-      </c>
-      <c r="R3" s="366" t="s">
-        <v>639</v>
       </c>
       <c r="S3" s="366"/>
       <c r="T3" s="366"/>
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="370" t="s">
-        <v>1466</v>
+        <v>1465</v>
       </c>
       <c r="C4" s="366" t="s">
+        <v>639</v>
+      </c>
+      <c r="D4" s="366" t="s">
         <v>640</v>
       </c>
-      <c r="D4" s="366" t="s">
+      <c r="E4" s="366" t="s">
         <v>641</v>
       </c>
-      <c r="E4" s="366" t="s">
+      <c r="F4" s="366" t="s">
         <v>642</v>
       </c>
-      <c r="F4" s="366" t="s">
+      <c r="G4" s="366" t="s">
         <v>643</v>
       </c>
-      <c r="G4" s="366" t="s">
+      <c r="H4" s="366" t="s">
         <v>644</v>
       </c>
-      <c r="H4" s="366" t="s">
+      <c r="I4" s="366" t="s">
         <v>645</v>
       </c>
-      <c r="I4" s="366" t="s">
+      <c r="J4" s="366" t="s">
         <v>646</v>
       </c>
-      <c r="J4" s="366" t="s">
+      <c r="K4" s="366" t="s">
         <v>647</v>
       </c>
-      <c r="K4" s="366" t="s">
+      <c r="L4" s="366" t="s">
         <v>648</v>
       </c>
-      <c r="L4" s="366" t="s">
+      <c r="M4" s="366" t="s">
         <v>649</v>
       </c>
-      <c r="M4" s="366" t="s">
+      <c r="N4" s="366" t="s">
         <v>650</v>
-      </c>
-      <c r="N4" s="366" t="s">
-        <v>651</v>
       </c>
       <c r="O4" s="366"/>
       <c r="P4" s="366" t="s">
+        <v>651</v>
+      </c>
+      <c r="Q4" s="366" t="s">
         <v>652</v>
       </c>
-      <c r="Q4" s="366" t="s">
+      <c r="R4" s="366" t="s">
         <v>653</v>
-      </c>
-      <c r="R4" s="366" t="s">
-        <v>654</v>
       </c>
       <c r="S4" s="366"/>
       <c r="T4" s="366"/>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="370" t="s">
-        <v>1467</v>
+        <v>1466</v>
       </c>
       <c r="C5" s="366" t="s">
+        <v>654</v>
+      </c>
+      <c r="D5" s="366" t="s">
         <v>655</v>
-      </c>
-      <c r="D5" s="366" t="s">
-        <v>656</v>
       </c>
       <c r="E5" s="366"/>
       <c r="F5" s="366"/>
@@ -36913,7 +36915,7 @@
       <c r="N5" s="366"/>
       <c r="O5" s="366"/>
       <c r="P5" s="366" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="Q5" s="366"/>
       <c r="R5" s="366"/>
@@ -36928,40 +36930,40 @@
         <v>99</v>
       </c>
       <c r="D6" s="366" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="E6" s="366"/>
       <c r="F6" s="366"/>
       <c r="G6" s="366"/>
       <c r="H6" s="366"/>
       <c r="I6" s="366" t="s">
+        <v>658</v>
+      </c>
+      <c r="J6" s="366" t="s">
         <v>659</v>
-      </c>
-      <c r="J6" s="366" t="s">
-        <v>660</v>
       </c>
       <c r="K6" s="366"/>
       <c r="L6" s="366" t="s">
+        <v>660</v>
+      </c>
+      <c r="M6" s="366" t="s">
         <v>661</v>
       </c>
-      <c r="M6" s="366" t="s">
+      <c r="N6" s="366" t="s">
         <v>662</v>
-      </c>
-      <c r="N6" s="366" t="s">
-        <v>663</v>
       </c>
       <c r="O6" s="366"/>
       <c r="P6" s="366" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q6" s="366" t="s">
         <v>664</v>
       </c>
-      <c r="Q6" s="366" t="s">
+      <c r="R6" s="366" t="s">
         <v>665</v>
       </c>
-      <c r="R6" s="366" t="s">
+      <c r="S6" s="366" t="s">
         <v>666</v>
-      </c>
-      <c r="S6" s="366" t="s">
-        <v>667</v>
       </c>
       <c r="T6" s="366"/>
     </row>
@@ -36973,346 +36975,346 @@
         <v>97</v>
       </c>
       <c r="D7" s="366" t="s">
+        <v>667</v>
+      </c>
+      <c r="E7" s="366" t="s">
         <v>668</v>
       </c>
-      <c r="E7" s="366" t="s">
+      <c r="F7" s="366" t="s">
         <v>669</v>
       </c>
-      <c r="F7" s="366" t="s">
+      <c r="G7" s="366" t="s">
         <v>670</v>
-      </c>
-      <c r="G7" s="366" t="s">
-        <v>671</v>
       </c>
       <c r="H7" s="366"/>
       <c r="I7" s="366" t="s">
+        <v>671</v>
+      </c>
+      <c r="J7" s="366" t="s">
         <v>672</v>
-      </c>
-      <c r="J7" s="366" t="s">
-        <v>673</v>
       </c>
       <c r="K7" s="366"/>
       <c r="L7" s="366" t="s">
+        <v>673</v>
+      </c>
+      <c r="M7" s="366" t="s">
         <v>674</v>
       </c>
-      <c r="M7" s="366" t="s">
+      <c r="N7" s="366" t="s">
         <v>675</v>
-      </c>
-      <c r="N7" s="366" t="s">
-        <v>676</v>
       </c>
       <c r="O7" s="366"/>
       <c r="P7" s="366" t="s">
+        <v>676</v>
+      </c>
+      <c r="Q7" s="366" t="s">
         <v>677</v>
       </c>
-      <c r="Q7" s="366" t="s">
+      <c r="R7" s="366" t="s">
         <v>678</v>
       </c>
-      <c r="R7" s="366" t="s">
+      <c r="S7" s="366" t="s">
         <v>679</v>
-      </c>
-      <c r="S7" s="366" t="s">
-        <v>680</v>
       </c>
       <c r="T7" s="366"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="370" t="s">
-        <v>1468</v>
+        <v>1467</v>
       </c>
       <c r="C8" s="366" t="s">
         <v>95</v>
       </c>
       <c r="D8" s="366" t="s">
+        <v>680</v>
+      </c>
+      <c r="E8" s="366" t="s">
         <v>681</v>
       </c>
-      <c r="E8" s="366" t="s">
+      <c r="F8" s="366" t="s">
         <v>682</v>
       </c>
-      <c r="F8" s="366" t="s">
+      <c r="G8" s="366" t="s">
         <v>683</v>
-      </c>
-      <c r="G8" s="366" t="s">
-        <v>684</v>
       </c>
       <c r="H8" s="366"/>
       <c r="I8" s="366" t="s">
+        <v>684</v>
+      </c>
+      <c r="J8" s="366" t="s">
         <v>685</v>
-      </c>
-      <c r="J8" s="366" t="s">
-        <v>686</v>
       </c>
       <c r="K8" s="366"/>
       <c r="L8" s="366" t="s">
+        <v>686</v>
+      </c>
+      <c r="M8" s="366" t="s">
         <v>687</v>
       </c>
-      <c r="M8" s="366" t="s">
+      <c r="N8" s="366" t="s">
         <v>688</v>
-      </c>
-      <c r="N8" s="366" t="s">
-        <v>689</v>
       </c>
       <c r="O8" s="366"/>
       <c r="P8" s="366" t="s">
+        <v>689</v>
+      </c>
+      <c r="Q8" s="366" t="s">
         <v>690</v>
       </c>
-      <c r="Q8" s="366" t="s">
+      <c r="R8" s="366" t="s">
         <v>691</v>
       </c>
-      <c r="R8" s="366" t="s">
+      <c r="S8" s="366" t="s">
         <v>692</v>
-      </c>
-      <c r="S8" s="366" t="s">
-        <v>693</v>
       </c>
       <c r="T8" s="366"/>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="370" t="s">
+        <v>693</v>
+      </c>
+      <c r="C9" s="366" t="s">
         <v>694</v>
       </c>
-      <c r="C9" s="366" t="s">
+      <c r="D9" s="366" t="s">
         <v>695</v>
-      </c>
-      <c r="D9" s="366" t="s">
-        <v>696</v>
       </c>
       <c r="E9" s="366"/>
       <c r="F9" s="366"/>
       <c r="G9" s="366"/>
       <c r="H9" s="366"/>
       <c r="I9" s="366" t="s">
+        <v>696</v>
+      </c>
+      <c r="J9" s="366" t="s">
         <v>697</v>
-      </c>
-      <c r="J9" s="366" t="s">
-        <v>698</v>
       </c>
       <c r="K9" s="366"/>
       <c r="L9" s="366" t="s">
+        <v>698</v>
+      </c>
+      <c r="M9" s="366" t="s">
         <v>699</v>
       </c>
-      <c r="M9" s="366" t="s">
+      <c r="N9" s="366" t="s">
         <v>700</v>
-      </c>
-      <c r="N9" s="366" t="s">
-        <v>701</v>
       </c>
       <c r="O9" s="366"/>
       <c r="P9" s="366" t="s">
+        <v>701</v>
+      </c>
+      <c r="Q9" s="366" t="s">
         <v>702</v>
       </c>
-      <c r="Q9" s="366" t="s">
+      <c r="R9" s="366" t="s">
         <v>703</v>
-      </c>
-      <c r="R9" s="366" t="s">
-        <v>704</v>
       </c>
       <c r="S9" s="366"/>
       <c r="T9" s="366"/>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="370" t="s">
+        <v>704</v>
+      </c>
+      <c r="C10" s="366" t="s">
         <v>705</v>
       </c>
-      <c r="C10" s="366" t="s">
+      <c r="D10" s="366" t="s">
         <v>706</v>
       </c>
-      <c r="D10" s="366" t="s">
+      <c r="E10" s="366" t="s">
         <v>707</v>
       </c>
-      <c r="E10" s="366" t="s">
+      <c r="F10" s="366" t="s">
         <v>708</v>
       </c>
-      <c r="F10" s="366" t="s">
+      <c r="G10" s="366" t="s">
         <v>709</v>
-      </c>
-      <c r="G10" s="366" t="s">
-        <v>710</v>
       </c>
       <c r="H10" s="366"/>
       <c r="I10" s="366" t="s">
+        <v>710</v>
+      </c>
+      <c r="J10" s="366" t="s">
         <v>711</v>
-      </c>
-      <c r="J10" s="366" t="s">
-        <v>712</v>
       </c>
       <c r="K10" s="366"/>
       <c r="L10" s="366" t="s">
+        <v>712</v>
+      </c>
+      <c r="M10" s="366" t="s">
         <v>713</v>
       </c>
-      <c r="M10" s="366" t="s">
+      <c r="N10" s="366" t="s">
         <v>714</v>
-      </c>
-      <c r="N10" s="366" t="s">
-        <v>715</v>
       </c>
       <c r="O10" s="366"/>
       <c r="P10" s="366" t="s">
+        <v>715</v>
+      </c>
+      <c r="Q10" s="366" t="s">
         <v>716</v>
       </c>
-      <c r="Q10" s="366" t="s">
+      <c r="R10" s="366" t="s">
         <v>717</v>
-      </c>
-      <c r="R10" s="366" t="s">
-        <v>718</v>
       </c>
       <c r="S10" s="366"/>
       <c r="T10" s="366"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="370" t="s">
+        <v>718</v>
+      </c>
+      <c r="C11" s="366" t="s">
         <v>719</v>
       </c>
-      <c r="C11" s="366" t="s">
+      <c r="D11" s="366" t="s">
         <v>720</v>
       </c>
-      <c r="D11" s="366" t="s">
+      <c r="E11" s="366" t="s">
         <v>721</v>
       </c>
-      <c r="E11" s="366" t="s">
+      <c r="F11" s="366" t="s">
         <v>722</v>
       </c>
-      <c r="F11" s="366" t="s">
+      <c r="G11" s="366" t="s">
         <v>723</v>
-      </c>
-      <c r="G11" s="366" t="s">
-        <v>724</v>
       </c>
       <c r="H11" s="366"/>
       <c r="I11" s="366" t="s">
+        <v>724</v>
+      </c>
+      <c r="J11" s="366" t="s">
         <v>725</v>
-      </c>
-      <c r="J11" s="366" t="s">
-        <v>726</v>
       </c>
       <c r="K11" s="366"/>
       <c r="L11" s="366" t="s">
+        <v>726</v>
+      </c>
+      <c r="M11" s="366" t="s">
         <v>727</v>
       </c>
-      <c r="M11" s="366" t="s">
+      <c r="N11" s="366" t="s">
         <v>728</v>
-      </c>
-      <c r="N11" s="366" t="s">
-        <v>729</v>
       </c>
       <c r="O11" s="366"/>
       <c r="P11" s="366" t="s">
+        <v>729</v>
+      </c>
+      <c r="Q11" s="366" t="s">
         <v>730</v>
       </c>
-      <c r="Q11" s="366" t="s">
+      <c r="R11" s="366" t="s">
         <v>731</v>
       </c>
-      <c r="R11" s="366" t="s">
+      <c r="S11" s="366" t="s">
         <v>732</v>
-      </c>
-      <c r="S11" s="366" t="s">
-        <v>733</v>
       </c>
       <c r="T11" s="366"/>
     </row>
     <row r="12" spans="2:20">
       <c r="B12" s="370" t="s">
-        <v>1462</v>
+        <v>1461</v>
       </c>
       <c r="C12" s="366" t="s">
         <v>189</v>
       </c>
       <c r="D12" s="366" t="s">
+        <v>733</v>
+      </c>
+      <c r="E12" s="366" t="s">
         <v>734</v>
       </c>
-      <c r="E12" s="366" t="s">
+      <c r="F12" s="366" t="s">
         <v>735</v>
       </c>
-      <c r="F12" s="366" t="s">
+      <c r="G12" s="366" t="s">
         <v>736</v>
       </c>
-      <c r="G12" s="366" t="s">
+      <c r="H12" s="366" t="s">
         <v>737</v>
       </c>
-      <c r="H12" s="366" t="s">
+      <c r="I12" s="366" t="s">
         <v>738</v>
       </c>
-      <c r="I12" s="366" t="s">
+      <c r="J12" s="366" t="s">
         <v>739</v>
       </c>
-      <c r="J12" s="366" t="s">
+      <c r="K12" s="366" t="s">
         <v>740</v>
       </c>
-      <c r="K12" s="366" t="s">
+      <c r="L12" s="366" t="s">
         <v>741</v>
       </c>
-      <c r="L12" s="366" t="s">
+      <c r="M12" s="366" t="s">
         <v>742</v>
       </c>
-      <c r="M12" s="366" t="s">
+      <c r="N12" s="366" t="s">
         <v>743</v>
-      </c>
-      <c r="N12" s="366" t="s">
-        <v>744</v>
       </c>
       <c r="O12" s="366"/>
       <c r="P12" s="366" t="s">
+        <v>744</v>
+      </c>
+      <c r="Q12" s="366" t="s">
         <v>745</v>
       </c>
-      <c r="Q12" s="366" t="s">
+      <c r="R12" s="366" t="s">
         <v>746</v>
       </c>
-      <c r="R12" s="366" t="s">
+      <c r="S12" s="366" t="s">
         <v>747</v>
       </c>
-      <c r="S12" s="366" t="s">
+      <c r="T12" s="366" t="s">
         <v>748</v>
-      </c>
-      <c r="T12" s="366" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="13" spans="2:20">
       <c r="B13" s="370" t="s">
-        <v>1463</v>
+        <v>1462</v>
       </c>
       <c r="C13" s="366" t="s">
         <v>117</v>
       </c>
       <c r="D13" s="366" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E13" s="366"/>
       <c r="F13" s="366" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G13" s="366"/>
       <c r="H13" s="366"/>
       <c r="I13" s="366" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="J13" s="366"/>
       <c r="K13" s="366"/>
       <c r="L13" s="366"/>
       <c r="M13" s="366" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N13" s="366"/>
       <c r="O13" s="366"/>
       <c r="P13" s="366"/>
       <c r="Q13" s="366" t="s">
+        <v>753</v>
+      </c>
+      <c r="R13" s="366" t="s">
         <v>754</v>
-      </c>
-      <c r="R13" s="366" t="s">
-        <v>755</v>
       </c>
       <c r="S13" s="366"/>
       <c r="T13" s="366"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="370" t="s">
-        <v>1464</v>
+        <v>1463</v>
       </c>
       <c r="C14" s="366" t="s">
         <v>236</v>
       </c>
       <c r="D14" s="366" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="E14" s="366"/>
       <c r="F14" s="366"/>
@@ -37322,13 +37324,13 @@
       <c r="J14" s="366"/>
       <c r="K14" s="366"/>
       <c r="L14" s="366" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="M14" s="366"/>
       <c r="N14" s="366"/>
       <c r="O14" s="366"/>
       <c r="P14" s="366" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="Q14" s="366"/>
       <c r="R14" s="366"/>
@@ -37343,58 +37345,58 @@
         <v>72</v>
       </c>
       <c r="D15" s="366" t="s">
+        <v>758</v>
+      </c>
+      <c r="E15" s="366" t="s">
         <v>759</v>
       </c>
-      <c r="E15" s="366" t="s">
+      <c r="F15" s="366" t="s">
         <v>760</v>
       </c>
-      <c r="F15" s="366" t="s">
+      <c r="G15" s="366" t="s">
         <v>761</v>
       </c>
-      <c r="G15" s="366" t="s">
+      <c r="H15" s="366" t="s">
+        <v>1464</v>
+      </c>
+      <c r="I15" s="366" t="s">
         <v>762</v>
       </c>
-      <c r="H15" s="366" t="s">
-        <v>1465</v>
-      </c>
-      <c r="I15" s="366" t="s">
+      <c r="J15" s="366" t="s">
         <v>763</v>
       </c>
-      <c r="J15" s="366" t="s">
+      <c r="K15" s="366" t="s">
         <v>764</v>
       </c>
-      <c r="K15" s="366" t="s">
+      <c r="L15" s="366" t="s">
         <v>765</v>
       </c>
-      <c r="L15" s="366" t="s">
+      <c r="M15" s="366" t="s">
         <v>766</v>
       </c>
-      <c r="M15" s="366" t="s">
+      <c r="N15" s="366" t="s">
         <v>767</v>
-      </c>
-      <c r="N15" s="366" t="s">
-        <v>768</v>
       </c>
       <c r="O15" s="366"/>
       <c r="P15" s="366" t="s">
+        <v>768</v>
+      </c>
+      <c r="Q15" s="366" t="s">
         <v>769</v>
       </c>
-      <c r="Q15" s="366" t="s">
+      <c r="R15" s="366" t="s">
         <v>770</v>
       </c>
-      <c r="R15" s="366" t="s">
+      <c r="S15" s="366" t="s">
         <v>771</v>
       </c>
-      <c r="S15" s="366" t="s">
+      <c r="T15" s="366" t="s">
         <v>772</v>
-      </c>
-      <c r="T15" s="366" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="370" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C16" s="366" t="s">
         <v>233</v>
@@ -37402,35 +37404,35 @@
       <c r="D16" s="366"/>
       <c r="E16" s="366"/>
       <c r="F16" s="366" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G16" s="366"/>
       <c r="H16" s="366" t="s">
+        <v>775</v>
+      </c>
+      <c r="I16" s="366" t="s">
         <v>776</v>
-      </c>
-      <c r="I16" s="366" t="s">
-        <v>777</v>
       </c>
       <c r="J16" s="366"/>
       <c r="K16" s="366" t="s">
+        <v>777</v>
+      </c>
+      <c r="L16" s="366" t="s">
         <v>778</v>
-      </c>
-      <c r="L16" s="366" t="s">
-        <v>779</v>
       </c>
       <c r="M16" s="366"/>
       <c r="N16" s="366" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="O16" s="366"/>
       <c r="P16" s="366"/>
       <c r="Q16" s="366" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="R16" s="366"/>
       <c r="S16" s="366"/>
       <c r="T16" s="366" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="17" spans="2:20">
@@ -37441,53 +37443,53 @@
         <v>61</v>
       </c>
       <c r="D17" s="366" t="s">
+        <v>782</v>
+      </c>
+      <c r="E17" s="366" t="s">
         <v>783</v>
       </c>
-      <c r="E17" s="366" t="s">
+      <c r="F17" s="366" t="s">
         <v>784</v>
       </c>
-      <c r="F17" s="366" t="s">
+      <c r="G17" s="366" t="s">
         <v>785</v>
       </c>
-      <c r="G17" s="366" t="s">
+      <c r="H17" s="366" t="s">
         <v>786</v>
       </c>
-      <c r="H17" s="366" t="s">
+      <c r="I17" s="366" t="s">
         <v>787</v>
       </c>
-      <c r="I17" s="366" t="s">
+      <c r="J17" s="366" t="s">
         <v>788</v>
       </c>
-      <c r="J17" s="366" t="s">
+      <c r="K17" s="366" t="s">
         <v>789</v>
       </c>
-      <c r="K17" s="366" t="s">
+      <c r="L17" s="366" t="s">
         <v>790</v>
       </c>
-      <c r="L17" s="366" t="s">
+      <c r="M17" s="366" t="s">
         <v>791</v>
       </c>
-      <c r="M17" s="366" t="s">
+      <c r="N17" s="366" t="s">
         <v>792</v>
-      </c>
-      <c r="N17" s="366" t="s">
-        <v>793</v>
       </c>
       <c r="O17" s="366"/>
       <c r="P17" s="366" t="s">
+        <v>793</v>
+      </c>
+      <c r="Q17" s="366" t="s">
         <v>794</v>
       </c>
-      <c r="Q17" s="366" t="s">
+      <c r="R17" s="366" t="s">
         <v>795</v>
       </c>
-      <c r="R17" s="366" t="s">
+      <c r="S17" s="366" t="s">
         <v>796</v>
       </c>
-      <c r="S17" s="366" t="s">
+      <c r="T17" s="366" t="s">
         <v>797</v>
-      </c>
-      <c r="T17" s="366" t="s">
-        <v>798</v>
       </c>
     </row>
     <row r="18" spans="2:20">
@@ -37498,109 +37500,109 @@
         <v>119</v>
       </c>
       <c r="D18" s="366" t="s">
+        <v>798</v>
+      </c>
+      <c r="E18" s="366" t="s">
         <v>799</v>
       </c>
-      <c r="E18" s="366" t="s">
+      <c r="F18" s="366" t="s">
         <v>800</v>
-      </c>
-      <c r="F18" s="366" t="s">
-        <v>801</v>
       </c>
       <c r="G18" s="366"/>
       <c r="H18" s="366"/>
       <c r="I18" s="366" t="s">
+        <v>801</v>
+      </c>
+      <c r="J18" s="366" t="s">
         <v>802</v>
-      </c>
-      <c r="J18" s="366" t="s">
-        <v>803</v>
       </c>
       <c r="K18" s="366"/>
       <c r="L18" s="366"/>
       <c r="M18" s="366" t="s">
+        <v>803</v>
+      </c>
+      <c r="N18" s="366" t="s">
         <v>804</v>
-      </c>
-      <c r="N18" s="366" t="s">
-        <v>805</v>
       </c>
       <c r="O18" s="366"/>
       <c r="P18" s="366" t="s">
+        <v>805</v>
+      </c>
+      <c r="Q18" s="366" t="s">
         <v>806</v>
       </c>
-      <c r="Q18" s="366" t="s">
+      <c r="R18" s="366" t="s">
         <v>807</v>
-      </c>
-      <c r="R18" s="366" t="s">
-        <v>808</v>
       </c>
       <c r="S18" s="366"/>
       <c r="T18" s="366"/>
     </row>
     <row r="19" spans="2:20">
       <c r="B19" s="370" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C19" s="366" t="s">
         <v>240</v>
       </c>
       <c r="D19" s="366" t="s">
+        <v>809</v>
+      </c>
+      <c r="E19" s="366" t="s">
         <v>810</v>
       </c>
-      <c r="E19" s="366" t="s">
+      <c r="F19" s="366" t="s">
         <v>811</v>
       </c>
-      <c r="F19" s="366" t="s">
+      <c r="G19" s="366" t="s">
         <v>812</v>
       </c>
-      <c r="G19" s="366" t="s">
+      <c r="H19" s="366" t="s">
         <v>813</v>
       </c>
-      <c r="H19" s="366" t="s">
+      <c r="I19" s="366" t="s">
         <v>814</v>
       </c>
-      <c r="I19" s="366" t="s">
+      <c r="J19" s="366" t="s">
         <v>815</v>
       </c>
-      <c r="J19" s="366" t="s">
+      <c r="K19" s="366" t="s">
         <v>816</v>
       </c>
-      <c r="K19" s="366" t="s">
+      <c r="L19" s="366" t="s">
         <v>817</v>
       </c>
-      <c r="L19" s="366" t="s">
+      <c r="M19" s="366" t="s">
         <v>818</v>
       </c>
-      <c r="M19" s="366" t="s">
+      <c r="N19" s="366" t="s">
         <v>819</v>
-      </c>
-      <c r="N19" s="366" t="s">
-        <v>820</v>
       </c>
       <c r="O19" s="366"/>
       <c r="P19" s="366" t="s">
+        <v>820</v>
+      </c>
+      <c r="Q19" s="366" t="s">
         <v>821</v>
       </c>
-      <c r="Q19" s="366" t="s">
+      <c r="R19" s="366" t="s">
         <v>822</v>
       </c>
-      <c r="R19" s="366" t="s">
+      <c r="S19" s="366" t="s">
         <v>823</v>
       </c>
-      <c r="S19" s="366" t="s">
+      <c r="T19" s="366" t="s">
         <v>824</v>
-      </c>
-      <c r="T19" s="366" t="s">
-        <v>825</v>
       </c>
     </row>
     <row r="20" spans="2:20">
       <c r="B20" s="370" t="s">
+        <v>825</v>
+      </c>
+      <c r="C20" s="366" t="s">
         <v>826</v>
       </c>
-      <c r="C20" s="366" t="s">
+      <c r="D20" s="366" t="s">
         <v>827</v>
-      </c>
-      <c r="D20" s="366" t="s">
-        <v>828</v>
       </c>
       <c r="E20" s="366"/>
       <c r="F20" s="366"/>
@@ -37616,7 +37618,7 @@
       <c r="P20" s="366"/>
       <c r="Q20" s="366"/>
       <c r="R20" s="366" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="S20" s="366"/>
       <c r="T20" s="366"/>
@@ -37629,149 +37631,149 @@
         <v>54</v>
       </c>
       <c r="D21" s="366" t="s">
+        <v>829</v>
+      </c>
+      <c r="E21" s="366" t="s">
         <v>830</v>
       </c>
-      <c r="E21" s="366" t="s">
+      <c r="F21" s="366" t="s">
         <v>831</v>
       </c>
-      <c r="F21" s="366" t="s">
+      <c r="G21" s="366" t="s">
         <v>832</v>
       </c>
-      <c r="G21" s="366" t="s">
+      <c r="H21" s="366" t="s">
         <v>833</v>
       </c>
-      <c r="H21" s="366" t="s">
+      <c r="I21" s="366" t="s">
         <v>834</v>
       </c>
-      <c r="I21" s="366" t="s">
+      <c r="J21" s="366" t="s">
         <v>835</v>
       </c>
-      <c r="J21" s="366" t="s">
+      <c r="K21" s="366" t="s">
         <v>836</v>
       </c>
-      <c r="K21" s="366" t="s">
+      <c r="L21" s="366" t="s">
         <v>837</v>
       </c>
-      <c r="L21" s="366" t="s">
+      <c r="M21" s="366" t="s">
         <v>838</v>
       </c>
-      <c r="M21" s="366" t="s">
+      <c r="N21" s="366" t="s">
         <v>839</v>
       </c>
-      <c r="N21" s="366" t="s">
+      <c r="O21" s="366" t="s">
         <v>840</v>
       </c>
-      <c r="O21" s="366" t="s">
+      <c r="P21" s="366" t="s">
+        <v>600</v>
+      </c>
+      <c r="Q21" s="366" t="s">
         <v>841</v>
       </c>
-      <c r="P21" s="366" t="s">
-        <v>601</v>
-      </c>
-      <c r="Q21" s="366" t="s">
+      <c r="R21" s="366" t="s">
         <v>842</v>
       </c>
-      <c r="R21" s="366" t="s">
+      <c r="S21" s="366" t="s">
         <v>843</v>
       </c>
-      <c r="S21" s="366" t="s">
+      <c r="T21" s="366" t="s">
         <v>844</v>
-      </c>
-      <c r="T21" s="366" t="s">
-        <v>845</v>
       </c>
     </row>
     <row r="22" spans="2:20">
       <c r="B22" s="370" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C22" s="366" t="s">
         <v>111</v>
       </c>
       <c r="D22" s="366" t="s">
+        <v>846</v>
+      </c>
+      <c r="E22" s="366" t="s">
         <v>847</v>
       </c>
-      <c r="E22" s="366" t="s">
+      <c r="F22" s="366" t="s">
         <v>848</v>
-      </c>
-      <c r="F22" s="366" t="s">
-        <v>849</v>
       </c>
       <c r="G22" s="366"/>
       <c r="H22" s="366"/>
       <c r="I22" s="366" t="s">
+        <v>849</v>
+      </c>
+      <c r="J22" s="366" t="s">
         <v>850</v>
-      </c>
-      <c r="J22" s="366" t="s">
-        <v>851</v>
       </c>
       <c r="K22" s="366"/>
       <c r="L22" s="366"/>
       <c r="M22" s="366" t="s">
+        <v>851</v>
+      </c>
+      <c r="N22" s="366" t="s">
         <v>852</v>
-      </c>
-      <c r="N22" s="366" t="s">
-        <v>853</v>
       </c>
       <c r="O22" s="366"/>
       <c r="P22" s="366" t="s">
+        <v>853</v>
+      </c>
+      <c r="Q22" s="366" t="s">
         <v>854</v>
       </c>
-      <c r="Q22" s="366" t="s">
+      <c r="R22" s="366" t="s">
         <v>855</v>
-      </c>
-      <c r="R22" s="366" t="s">
-        <v>856</v>
       </c>
       <c r="S22" s="366"/>
       <c r="T22" s="366"/>
     </row>
     <row r="23" spans="2:20">
       <c r="B23" s="370" t="s">
+        <v>856</v>
+      </c>
+      <c r="C23" s="366" t="s">
         <v>857</v>
-      </c>
-      <c r="C23" s="366" t="s">
-        <v>858</v>
       </c>
       <c r="D23" s="366"/>
       <c r="E23" s="366" t="s">
+        <v>858</v>
+      </c>
+      <c r="F23" s="366" t="s">
         <v>859</v>
       </c>
-      <c r="F23" s="366" t="s">
+      <c r="G23" s="366" t="s">
         <v>860</v>
       </c>
-      <c r="G23" s="366" t="s">
+      <c r="H23" s="366" t="s">
         <v>861</v>
       </c>
-      <c r="H23" s="366" t="s">
+      <c r="I23" s="366" t="s">
         <v>862</v>
       </c>
-      <c r="I23" s="366" t="s">
+      <c r="J23" s="366" t="s">
         <v>863</v>
       </c>
-      <c r="J23" s="366" t="s">
+      <c r="K23" s="366" t="s">
         <v>864</v>
       </c>
-      <c r="K23" s="366" t="s">
+      <c r="L23" s="366" t="s">
         <v>865</v>
       </c>
-      <c r="L23" s="366" t="s">
+      <c r="M23" s="366" t="s">
         <v>866</v>
       </c>
-      <c r="M23" s="366" t="s">
+      <c r="N23" s="366" t="s">
         <v>867</v>
-      </c>
-      <c r="N23" s="366" t="s">
-        <v>868</v>
       </c>
       <c r="O23" s="366"/>
       <c r="P23" s="366" t="s">
+        <v>868</v>
+      </c>
+      <c r="Q23" s="366" t="s">
         <v>869</v>
       </c>
-      <c r="Q23" s="366" t="s">
+      <c r="R23" s="366" t="s">
         <v>870</v>
-      </c>
-      <c r="R23" s="366" t="s">
-        <v>871</v>
       </c>
       <c r="S23" s="366"/>
       <c r="T23" s="366"/>
@@ -37784,42 +37786,42 @@
         <v>496</v>
       </c>
       <c r="D24" s="366" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E24" s="366"/>
       <c r="F24" s="366"/>
       <c r="G24" s="366"/>
       <c r="H24" s="366"/>
       <c r="I24" s="366" t="s">
+        <v>872</v>
+      </c>
+      <c r="J24" s="366" t="s">
         <v>873</v>
-      </c>
-      <c r="J24" s="366" t="s">
-        <v>874</v>
       </c>
       <c r="K24" s="366"/>
       <c r="L24" s="366" t="s">
+        <v>874</v>
+      </c>
+      <c r="M24" s="366" t="s">
         <v>875</v>
       </c>
-      <c r="M24" s="366" t="s">
+      <c r="N24" s="366" t="s">
         <v>876</v>
       </c>
-      <c r="N24" s="366" t="s">
+      <c r="O24" s="366" t="s">
         <v>877</v>
       </c>
-      <c r="O24" s="366" t="s">
+      <c r="P24" s="366" t="s">
         <v>878</v>
       </c>
-      <c r="P24" s="366" t="s">
+      <c r="Q24" s="366" t="s">
         <v>879</v>
       </c>
-      <c r="Q24" s="366" t="s">
+      <c r="R24" s="366" t="s">
         <v>880</v>
       </c>
-      <c r="R24" s="366" t="s">
+      <c r="S24" s="366" t="s">
         <v>881</v>
-      </c>
-      <c r="S24" s="366" t="s">
-        <v>882</v>
       </c>
       <c r="T24" s="366"/>
     </row>
@@ -37831,111 +37833,111 @@
         <v>163</v>
       </c>
       <c r="D25" s="366" t="s">
+        <v>882</v>
+      </c>
+      <c r="E25" s="366" t="s">
         <v>883</v>
       </c>
-      <c r="E25" s="366" t="s">
+      <c r="F25" s="366" t="s">
         <v>884</v>
       </c>
-      <c r="F25" s="366" t="s">
+      <c r="G25" s="366" t="s">
         <v>885</v>
-      </c>
-      <c r="G25" s="366" t="s">
-        <v>886</v>
       </c>
       <c r="H25" s="366"/>
       <c r="I25" s="366" t="s">
+        <v>886</v>
+      </c>
+      <c r="J25" s="366" t="s">
         <v>887</v>
-      </c>
-      <c r="J25" s="366" t="s">
-        <v>888</v>
       </c>
       <c r="K25" s="366"/>
       <c r="L25" s="366" t="s">
+        <v>888</v>
+      </c>
+      <c r="M25" s="366" t="s">
         <v>889</v>
       </c>
-      <c r="M25" s="366" t="s">
+      <c r="N25" s="366" t="s">
         <v>890</v>
       </c>
-      <c r="N25" s="366" t="s">
+      <c r="O25" s="366" t="s">
         <v>891</v>
       </c>
-      <c r="O25" s="366" t="s">
+      <c r="P25" s="366" t="s">
         <v>892</v>
       </c>
-      <c r="P25" s="366" t="s">
+      <c r="Q25" s="366" t="s">
         <v>893</v>
       </c>
-      <c r="Q25" s="366" t="s">
+      <c r="R25" s="366" t="s">
         <v>894</v>
       </c>
-      <c r="R25" s="366" t="s">
+      <c r="S25" s="366" t="s">
         <v>895</v>
-      </c>
-      <c r="S25" s="366" t="s">
-        <v>896</v>
       </c>
       <c r="T25" s="366"/>
     </row>
     <row r="26" spans="2:20" ht="30.75">
       <c r="B26" s="370" t="s">
-        <v>1494</v>
+        <v>1493</v>
       </c>
       <c r="C26" s="366" t="s">
         <v>147</v>
       </c>
       <c r="D26" s="366" t="s">
+        <v>896</v>
+      </c>
+      <c r="E26" s="366" t="s">
         <v>897</v>
       </c>
-      <c r="E26" s="366" t="s">
+      <c r="F26" s="366" t="s">
         <v>898</v>
       </c>
-      <c r="F26" s="366" t="s">
+      <c r="G26" s="366" t="s">
         <v>899</v>
-      </c>
-      <c r="G26" s="366" t="s">
-        <v>900</v>
       </c>
       <c r="H26" s="366"/>
       <c r="I26" s="366" t="s">
+        <v>900</v>
+      </c>
+      <c r="J26" s="366" t="s">
         <v>901</v>
-      </c>
-      <c r="J26" s="366" t="s">
-        <v>902</v>
       </c>
       <c r="K26" s="366"/>
       <c r="L26" s="366" t="s">
+        <v>902</v>
+      </c>
+      <c r="M26" s="366" t="s">
         <v>903</v>
       </c>
-      <c r="M26" s="366" t="s">
+      <c r="N26" s="366" t="s">
         <v>904</v>
-      </c>
-      <c r="N26" s="366" t="s">
-        <v>905</v>
       </c>
       <c r="O26" s="366"/>
       <c r="P26" s="366" t="s">
+        <v>905</v>
+      </c>
+      <c r="Q26" s="366" t="s">
         <v>906</v>
       </c>
-      <c r="Q26" s="366" t="s">
+      <c r="R26" s="366" t="s">
         <v>907</v>
       </c>
-      <c r="R26" s="366" t="s">
+      <c r="S26" s="366" t="s">
         <v>908</v>
-      </c>
-      <c r="S26" s="366" t="s">
-        <v>909</v>
       </c>
       <c r="T26" s="366"/>
     </row>
     <row r="27" spans="2:20">
       <c r="B27" s="370" t="s">
+        <v>909</v>
+      </c>
+      <c r="C27" s="366" t="s">
         <v>910</v>
       </c>
-      <c r="C27" s="366" t="s">
+      <c r="D27" s="366" t="s">
         <v>911</v>
-      </c>
-      <c r="D27" s="366" t="s">
-        <v>912</v>
       </c>
       <c r="E27" s="366"/>
       <c r="F27" s="366"/>
@@ -37945,289 +37947,289 @@
       <c r="J27" s="366"/>
       <c r="K27" s="366"/>
       <c r="L27" s="366" t="s">
+        <v>912</v>
+      </c>
+      <c r="M27" s="366" t="s">
         <v>913</v>
       </c>
-      <c r="M27" s="366" t="s">
+      <c r="N27" s="366" t="s">
         <v>914</v>
       </c>
-      <c r="N27" s="366" t="s">
+      <c r="O27" s="366" t="s">
         <v>915</v>
       </c>
-      <c r="O27" s="366" t="s">
+      <c r="P27" s="366" t="s">
         <v>916</v>
       </c>
-      <c r="P27" s="366" t="s">
+      <c r="Q27" s="366" t="s">
         <v>917</v>
       </c>
-      <c r="Q27" s="366" t="s">
+      <c r="R27" s="366" t="s">
         <v>918</v>
-      </c>
-      <c r="R27" s="366" t="s">
-        <v>919</v>
       </c>
       <c r="S27" s="366"/>
       <c r="T27" s="366"/>
     </row>
     <row r="28" spans="2:20">
       <c r="B28" s="370" t="s">
+        <v>919</v>
+      </c>
+      <c r="C28" s="366" t="s">
         <v>920</v>
       </c>
-      <c r="C28" s="366" t="s">
+      <c r="D28" s="366" t="s">
         <v>921</v>
       </c>
-      <c r="D28" s="366" t="s">
+      <c r="E28" s="366" t="s">
         <v>922</v>
       </c>
-      <c r="E28" s="366" t="s">
+      <c r="F28" s="366" t="s">
         <v>923</v>
       </c>
-      <c r="F28" s="366" t="s">
+      <c r="G28" s="366" t="s">
         <v>924</v>
-      </c>
-      <c r="G28" s="366" t="s">
-        <v>925</v>
       </c>
       <c r="H28" s="366"/>
       <c r="I28" s="366" t="s">
+        <v>925</v>
+      </c>
+      <c r="J28" s="366" t="s">
         <v>926</v>
-      </c>
-      <c r="J28" s="366" t="s">
-        <v>927</v>
       </c>
       <c r="K28" s="366"/>
       <c r="L28" s="366" t="s">
+        <v>927</v>
+      </c>
+      <c r="M28" s="366" t="s">
         <v>928</v>
       </c>
-      <c r="M28" s="366" t="s">
+      <c r="N28" s="366" t="s">
         <v>929</v>
       </c>
-      <c r="N28" s="366" t="s">
+      <c r="O28" s="366" t="s">
         <v>930</v>
       </c>
-      <c r="O28" s="366" t="s">
+      <c r="P28" s="366" t="s">
         <v>931</v>
       </c>
-      <c r="P28" s="366" t="s">
+      <c r="Q28" s="366" t="s">
         <v>932</v>
       </c>
-      <c r="Q28" s="366" t="s">
+      <c r="R28" s="366" t="s">
         <v>933</v>
-      </c>
-      <c r="R28" s="366" t="s">
-        <v>934</v>
       </c>
       <c r="S28" s="366"/>
       <c r="T28" s="366"/>
     </row>
     <row r="29" spans="2:20">
       <c r="B29" s="370" t="s">
-        <v>1495</v>
+        <v>1494</v>
       </c>
       <c r="C29" s="366" t="s">
+        <v>934</v>
+      </c>
+      <c r="D29" s="366" t="s">
         <v>935</v>
       </c>
-      <c r="D29" s="366" t="s">
+      <c r="E29" s="366" t="s">
         <v>936</v>
       </c>
-      <c r="E29" s="366" t="s">
+      <c r="F29" s="366" t="s">
         <v>937</v>
       </c>
-      <c r="F29" s="366" t="s">
+      <c r="G29" s="366" t="s">
         <v>938</v>
-      </c>
-      <c r="G29" s="366" t="s">
-        <v>939</v>
       </c>
       <c r="H29" s="366"/>
       <c r="I29" s="366" t="s">
+        <v>939</v>
+      </c>
+      <c r="J29" s="366" t="s">
         <v>940</v>
-      </c>
-      <c r="J29" s="366" t="s">
-        <v>941</v>
       </c>
       <c r="K29" s="366"/>
       <c r="L29" s="366" t="s">
+        <v>941</v>
+      </c>
+      <c r="M29" s="366" t="s">
         <v>942</v>
       </c>
-      <c r="M29" s="366" t="s">
+      <c r="N29" s="366" t="s">
         <v>943</v>
       </c>
-      <c r="N29" s="366" t="s">
+      <c r="O29" s="366" t="s">
         <v>944</v>
       </c>
-      <c r="O29" s="366" t="s">
+      <c r="P29" s="366" t="s">
         <v>945</v>
       </c>
-      <c r="P29" s="366" t="s">
+      <c r="Q29" s="366" t="s">
         <v>946</v>
       </c>
-      <c r="Q29" s="366" t="s">
+      <c r="R29" s="366" t="s">
         <v>947</v>
       </c>
-      <c r="R29" s="366" t="s">
+      <c r="S29" s="366" t="s">
         <v>948</v>
-      </c>
-      <c r="S29" s="366" t="s">
-        <v>949</v>
       </c>
       <c r="T29" s="366"/>
     </row>
     <row r="30" spans="2:20">
       <c r="B30" s="370" t="s">
-        <v>1469</v>
+        <v>1468</v>
       </c>
       <c r="C30" s="366" t="s">
         <v>228</v>
       </c>
       <c r="D30" s="366" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="E30" s="366"/>
       <c r="F30" s="366"/>
       <c r="G30" s="366"/>
       <c r="H30" s="366" t="s">
+        <v>950</v>
+      </c>
+      <c r="I30" s="366" t="s">
         <v>951</v>
-      </c>
-      <c r="I30" s="366" t="s">
-        <v>952</v>
       </c>
       <c r="J30" s="366"/>
       <c r="K30" s="366" t="s">
+        <v>952</v>
+      </c>
+      <c r="L30" s="366" t="s">
         <v>953</v>
       </c>
-      <c r="L30" s="366" t="s">
+      <c r="M30" s="366" t="s">
         <v>954</v>
       </c>
-      <c r="M30" s="366" t="s">
+      <c r="N30" s="366" t="s">
         <v>955</v>
       </c>
-      <c r="N30" s="366" t="s">
+      <c r="O30" s="366" t="s">
         <v>956</v>
       </c>
-      <c r="O30" s="366" t="s">
+      <c r="P30" s="366" t="s">
         <v>957</v>
       </c>
-      <c r="P30" s="366" t="s">
+      <c r="Q30" s="366" t="s">
         <v>958</v>
       </c>
-      <c r="Q30" s="366" t="s">
+      <c r="R30" s="366" t="s">
         <v>959</v>
       </c>
-      <c r="R30" s="366" t="s">
+      <c r="S30" s="366" t="s">
         <v>960</v>
       </c>
-      <c r="S30" s="366" t="s">
+      <c r="T30" s="366" t="s">
         <v>961</v>
-      </c>
-      <c r="T30" s="366" t="s">
-        <v>962</v>
       </c>
     </row>
     <row r="31" spans="2:20">
       <c r="B31" s="370" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C31" s="366" t="s">
         <v>196</v>
       </c>
       <c r="D31" s="366" t="s">
+        <v>963</v>
+      </c>
+      <c r="E31" s="366" t="s">
         <v>964</v>
       </c>
-      <c r="E31" s="366" t="s">
+      <c r="F31" s="366" t="s">
         <v>965</v>
-      </c>
-      <c r="F31" s="366" t="s">
-        <v>966</v>
       </c>
       <c r="G31" s="366"/>
       <c r="H31" s="366"/>
       <c r="I31" s="366" t="s">
+        <v>966</v>
+      </c>
+      <c r="J31" s="366" t="s">
         <v>967</v>
-      </c>
-      <c r="J31" s="366" t="s">
-        <v>968</v>
       </c>
       <c r="K31" s="366"/>
       <c r="L31" s="366"/>
       <c r="M31" s="366" t="s">
+        <v>968</v>
+      </c>
+      <c r="N31" s="366" t="s">
         <v>969</v>
-      </c>
-      <c r="N31" s="366" t="s">
-        <v>970</v>
       </c>
       <c r="O31" s="366"/>
       <c r="P31" s="366" t="s">
+        <v>970</v>
+      </c>
+      <c r="Q31" s="366" t="s">
         <v>971</v>
       </c>
-      <c r="Q31" s="366" t="s">
+      <c r="R31" s="366" t="s">
         <v>972</v>
-      </c>
-      <c r="R31" s="366" t="s">
-        <v>973</v>
       </c>
       <c r="S31" s="366"/>
       <c r="T31" s="366"/>
     </row>
     <row r="32" spans="2:20">
       <c r="B32" s="370" t="s">
-        <v>1470</v>
+        <v>1469</v>
       </c>
       <c r="C32" s="366" t="s">
         <v>227</v>
       </c>
       <c r="D32" s="366" t="s">
+        <v>973</v>
+      </c>
+      <c r="E32" s="366" t="s">
         <v>974</v>
       </c>
-      <c r="E32" s="366" t="s">
+      <c r="F32" s="366" t="s">
         <v>975</v>
-      </c>
-      <c r="F32" s="366" t="s">
-        <v>976</v>
       </c>
       <c r="G32" s="366"/>
       <c r="H32" s="366"/>
       <c r="I32" s="366" t="s">
+        <v>976</v>
+      </c>
+      <c r="J32" s="366" t="s">
         <v>977</v>
-      </c>
-      <c r="J32" s="366" t="s">
-        <v>978</v>
       </c>
       <c r="K32" s="366"/>
       <c r="L32" s="366" t="s">
+        <v>978</v>
+      </c>
+      <c r="M32" s="366" t="s">
         <v>979</v>
       </c>
-      <c r="M32" s="366" t="s">
+      <c r="N32" s="366" t="s">
         <v>980</v>
       </c>
-      <c r="N32" s="366" t="s">
+      <c r="O32" s="366" t="s">
         <v>981</v>
       </c>
-      <c r="O32" s="366" t="s">
+      <c r="P32" s="366" t="s">
         <v>982</v>
       </c>
-      <c r="P32" s="366" t="s">
+      <c r="Q32" s="366" t="s">
         <v>983</v>
       </c>
-      <c r="Q32" s="366" t="s">
+      <c r="R32" s="366" t="s">
         <v>984</v>
       </c>
-      <c r="R32" s="366" t="s">
+      <c r="S32" s="366" t="s">
         <v>985</v>
-      </c>
-      <c r="S32" s="366" t="s">
-        <v>986</v>
       </c>
       <c r="T32" s="366"/>
     </row>
     <row r="33" spans="2:20">
       <c r="B33" s="370" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="C33" s="366" t="s">
         <v>195</v>
       </c>
       <c r="D33" s="366" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="E33" s="366"/>
       <c r="F33" s="366"/>
@@ -38241,7 +38243,7 @@
       <c r="N33" s="366"/>
       <c r="O33" s="366"/>
       <c r="P33" s="366" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="Q33" s="366"/>
       <c r="R33" s="366"/>
@@ -38250,119 +38252,119 @@
     </row>
     <row r="34" spans="2:20">
       <c r="B34" s="370" t="s">
-        <v>1471</v>
+        <v>1470</v>
       </c>
       <c r="C34" s="366" t="s">
         <v>497</v>
       </c>
       <c r="D34" s="366" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="E34" s="366"/>
       <c r="F34" s="366"/>
       <c r="G34" s="366"/>
       <c r="H34" s="366"/>
       <c r="I34" s="366" t="s">
+        <v>990</v>
+      </c>
+      <c r="J34" s="366" t="s">
         <v>991</v>
-      </c>
-      <c r="J34" s="366" t="s">
-        <v>992</v>
       </c>
       <c r="K34" s="366"/>
       <c r="L34" s="366" t="s">
+        <v>992</v>
+      </c>
+      <c r="M34" s="366" t="s">
         <v>993</v>
       </c>
-      <c r="M34" s="366" t="s">
+      <c r="N34" s="366" t="s">
         <v>994</v>
       </c>
-      <c r="N34" s="366" t="s">
+      <c r="O34" s="366" t="s">
         <v>995</v>
       </c>
-      <c r="O34" s="366" t="s">
+      <c r="P34" s="366" t="s">
         <v>996</v>
       </c>
-      <c r="P34" s="366" t="s">
+      <c r="Q34" s="366" t="s">
         <v>997</v>
       </c>
-      <c r="Q34" s="366" t="s">
+      <c r="R34" s="366" t="s">
         <v>998</v>
       </c>
-      <c r="R34" s="366" t="s">
+      <c r="S34" s="366" t="s">
         <v>999</v>
-      </c>
-      <c r="S34" s="366" t="s">
-        <v>1000</v>
       </c>
       <c r="T34" s="366"/>
     </row>
     <row r="35" spans="2:20">
       <c r="B35" s="370" t="s">
-        <v>1472</v>
+        <v>1471</v>
       </c>
       <c r="C35" s="366" t="s">
         <v>155</v>
       </c>
       <c r="D35" s="366" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="366" t="s">
         <v>1001</v>
       </c>
-      <c r="E35" s="366" t="s">
+      <c r="F35" s="366" t="s">
         <v>1002</v>
       </c>
-      <c r="F35" s="366" t="s">
+      <c r="G35" s="366" t="s">
         <v>1003</v>
-      </c>
-      <c r="G35" s="366" t="s">
-        <v>1004</v>
       </c>
       <c r="H35" s="366"/>
       <c r="I35" s="366" t="s">
+        <v>1004</v>
+      </c>
+      <c r="J35" s="366" t="s">
         <v>1005</v>
-      </c>
-      <c r="J35" s="366" t="s">
-        <v>1006</v>
       </c>
       <c r="K35" s="366"/>
       <c r="L35" s="366" t="s">
+        <v>1006</v>
+      </c>
+      <c r="M35" s="366" t="s">
         <v>1007</v>
       </c>
-      <c r="M35" s="366" t="s">
+      <c r="N35" s="366" t="s">
         <v>1008</v>
       </c>
-      <c r="N35" s="366" t="s">
+      <c r="O35" s="366" t="s">
         <v>1009</v>
       </c>
-      <c r="O35" s="366" t="s">
+      <c r="P35" s="366" t="s">
         <v>1010</v>
       </c>
-      <c r="P35" s="366" t="s">
+      <c r="Q35" s="366" t="s">
         <v>1011</v>
       </c>
-      <c r="Q35" s="366" t="s">
+      <c r="R35" s="366" t="s">
         <v>1012</v>
       </c>
-      <c r="R35" s="366" t="s">
+      <c r="S35" s="366" t="s">
         <v>1013</v>
-      </c>
-      <c r="S35" s="366" t="s">
-        <v>1014</v>
       </c>
       <c r="T35" s="366"/>
     </row>
     <row r="36" spans="2:20">
       <c r="B36" s="370" t="s">
-        <v>1473</v>
+        <v>1472</v>
       </c>
       <c r="C36" s="366" t="s">
         <v>148</v>
       </c>
       <c r="D36" s="366" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E36" s="366" t="s">
         <v>1015</v>
       </c>
-      <c r="E36" s="366" t="s">
+      <c r="F36" s="366" t="s">
         <v>1016</v>
-      </c>
-      <c r="F36" s="366" t="s">
-        <v>1017</v>
       </c>
       <c r="G36" s="366"/>
       <c r="H36" s="366"/>
@@ -38370,230 +38372,230 @@
       <c r="J36" s="366"/>
       <c r="K36" s="366"/>
       <c r="L36" s="366" t="s">
+        <v>1017</v>
+      </c>
+      <c r="M36" s="366" t="s">
         <v>1018</v>
       </c>
-      <c r="M36" s="366" t="s">
+      <c r="N36" s="366" t="s">
         <v>1019</v>
       </c>
-      <c r="N36" s="366" t="s">
+      <c r="O36" s="366" t="s">
         <v>1020</v>
       </c>
-      <c r="O36" s="366" t="s">
+      <c r="P36" s="366" t="s">
         <v>1021</v>
       </c>
-      <c r="P36" s="366" t="s">
+      <c r="Q36" s="366" t="s">
         <v>1022</v>
       </c>
-      <c r="Q36" s="366" t="s">
+      <c r="R36" s="366" t="s">
         <v>1023</v>
       </c>
-      <c r="R36" s="366" t="s">
+      <c r="S36" s="366" t="s">
         <v>1024</v>
-      </c>
-      <c r="S36" s="366" t="s">
-        <v>1025</v>
       </c>
       <c r="T36" s="366"/>
     </row>
     <row r="37" spans="2:20">
       <c r="B37" s="370" t="s">
-        <v>1474</v>
+        <v>1473</v>
       </c>
       <c r="C37" s="366" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D37" s="366" t="s">
         <v>1026</v>
-      </c>
-      <c r="D37" s="366" t="s">
-        <v>1027</v>
       </c>
       <c r="E37" s="366"/>
       <c r="F37" s="366"/>
       <c r="G37" s="366"/>
       <c r="H37" s="366"/>
       <c r="I37" s="366" t="s">
+        <v>1027</v>
+      </c>
+      <c r="J37" s="366" t="s">
         <v>1028</v>
-      </c>
-      <c r="J37" s="366" t="s">
-        <v>1029</v>
       </c>
       <c r="K37" s="366"/>
       <c r="L37" s="366" t="s">
+        <v>1029</v>
+      </c>
+      <c r="M37" s="366" t="s">
         <v>1030</v>
       </c>
-      <c r="M37" s="366" t="s">
+      <c r="N37" s="366" t="s">
         <v>1031</v>
       </c>
-      <c r="N37" s="366" t="s">
+      <c r="O37" s="366" t="s">
         <v>1032</v>
       </c>
-      <c r="O37" s="366" t="s">
+      <c r="P37" s="366" t="s">
         <v>1033</v>
       </c>
-      <c r="P37" s="366" t="s">
+      <c r="Q37" s="366" t="s">
         <v>1034</v>
       </c>
-      <c r="Q37" s="366" t="s">
+      <c r="R37" s="366" t="s">
         <v>1035</v>
       </c>
-      <c r="R37" s="366" t="s">
+      <c r="S37" s="366" t="s">
         <v>1036</v>
-      </c>
-      <c r="S37" s="366" t="s">
-        <v>1037</v>
       </c>
       <c r="T37" s="366"/>
     </row>
     <row r="38" spans="2:20">
       <c r="B38" s="370" t="s">
-        <v>1475</v>
+        <v>1474</v>
       </c>
       <c r="C38" s="366" t="s">
+        <v>1037</v>
+      </c>
+      <c r="D38" s="366" t="s">
         <v>1038</v>
       </c>
-      <c r="D38" s="366" t="s">
+      <c r="E38" s="366" t="s">
         <v>1039</v>
       </c>
-      <c r="E38" s="366" t="s">
+      <c r="F38" s="366" t="s">
         <v>1040</v>
       </c>
-      <c r="F38" s="366" t="s">
+      <c r="G38" s="366" t="s">
         <v>1041</v>
-      </c>
-      <c r="G38" s="366" t="s">
-        <v>1042</v>
       </c>
       <c r="H38" s="366"/>
       <c r="I38" s="366" t="s">
+        <v>1042</v>
+      </c>
+      <c r="J38" s="366" t="s">
         <v>1043</v>
-      </c>
-      <c r="J38" s="366" t="s">
-        <v>1044</v>
       </c>
       <c r="K38" s="366"/>
       <c r="L38" s="366" t="s">
+        <v>1044</v>
+      </c>
+      <c r="M38" s="366" t="s">
         <v>1045</v>
       </c>
-      <c r="M38" s="366" t="s">
+      <c r="N38" s="366" t="s">
         <v>1046</v>
       </c>
-      <c r="N38" s="366" t="s">
+      <c r="O38" s="366" t="s">
         <v>1047</v>
       </c>
-      <c r="O38" s="366" t="s">
+      <c r="P38" s="366" t="s">
         <v>1048</v>
       </c>
-      <c r="P38" s="366" t="s">
+      <c r="Q38" s="366" t="s">
         <v>1049</v>
       </c>
-      <c r="Q38" s="366" t="s">
+      <c r="R38" s="366" t="s">
         <v>1050</v>
       </c>
-      <c r="R38" s="366" t="s">
+      <c r="S38" s="366" t="s">
         <v>1051</v>
-      </c>
-      <c r="S38" s="366" t="s">
-        <v>1052</v>
       </c>
       <c r="T38" s="366"/>
     </row>
     <row r="39" spans="2:20">
       <c r="B39" s="370" t="s">
-        <v>1476</v>
+        <v>1475</v>
       </c>
       <c r="C39" s="366" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="D39" s="366"/>
       <c r="E39" s="366" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F39" s="366" t="s">
         <v>1054</v>
-      </c>
-      <c r="F39" s="366" t="s">
-        <v>1055</v>
       </c>
       <c r="G39" s="366"/>
       <c r="H39" s="366"/>
       <c r="I39" s="366" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="J39" s="366"/>
       <c r="K39" s="366"/>
       <c r="L39" s="366"/>
       <c r="M39" s="366"/>
       <c r="N39" s="366" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="O39" s="366"/>
       <c r="P39" s="366" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="Q39" s="366"/>
       <c r="R39" s="366" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="S39" s="366"/>
       <c r="T39" s="366"/>
     </row>
     <row r="40" spans="2:20">
       <c r="B40" s="370" t="s">
-        <v>1477</v>
+        <v>1476</v>
       </c>
       <c r="C40" s="366" t="s">
         <v>222</v>
       </c>
       <c r="D40" s="366" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E40" s="366" t="s">
         <v>1060</v>
       </c>
-      <c r="E40" s="366" t="s">
+      <c r="F40" s="366" t="s">
         <v>1061</v>
       </c>
-      <c r="F40" s="366" t="s">
+      <c r="G40" s="366" t="s">
         <v>1062</v>
       </c>
-      <c r="G40" s="366" t="s">
+      <c r="H40" s="366" t="s">
         <v>1063</v>
       </c>
-      <c r="H40" s="366" t="s">
+      <c r="I40" s="366" t="s">
         <v>1064</v>
       </c>
-      <c r="I40" s="366" t="s">
+      <c r="J40" s="366" t="s">
         <v>1065</v>
       </c>
-      <c r="J40" s="366" t="s">
+      <c r="K40" s="366" t="s">
         <v>1066</v>
       </c>
-      <c r="K40" s="366" t="s">
+      <c r="L40" s="366" t="s">
         <v>1067</v>
       </c>
-      <c r="L40" s="366" t="s">
+      <c r="M40" s="366" t="s">
         <v>1068</v>
       </c>
-      <c r="M40" s="366" t="s">
+      <c r="N40" s="366" t="s">
         <v>1069</v>
       </c>
-      <c r="N40" s="366" t="s">
+      <c r="O40" s="366" t="s">
         <v>1070</v>
       </c>
-      <c r="O40" s="366" t="s">
+      <c r="P40" s="366" t="s">
         <v>1071</v>
       </c>
-      <c r="P40" s="366" t="s">
+      <c r="Q40" s="366" t="s">
         <v>1072</v>
       </c>
-      <c r="Q40" s="366" t="s">
+      <c r="R40" s="366" t="s">
         <v>1073</v>
       </c>
-      <c r="R40" s="366" t="s">
+      <c r="S40" s="366" t="s">
         <v>1074</v>
       </c>
-      <c r="S40" s="366" t="s">
+      <c r="T40" s="366" t="s">
         <v>1075</v>
-      </c>
-      <c r="T40" s="366" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="41" spans="2:20">
       <c r="B41" s="370" t="s">
-        <v>1478</v>
+        <v>1477</v>
       </c>
       <c r="C41" s="366" t="s">
         <v>191</v>
@@ -38618,13 +38620,13 @@
     </row>
     <row r="42" spans="2:20">
       <c r="B42" s="370" t="s">
-        <v>1479</v>
+        <v>1478</v>
       </c>
       <c r="C42" s="366" t="s">
         <v>221</v>
       </c>
       <c r="D42" s="366" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="E42" s="366"/>
       <c r="F42" s="366"/>
@@ -38640,239 +38642,239 @@
       <c r="P42" s="366"/>
       <c r="Q42" s="366"/>
       <c r="R42" s="366" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="S42" s="366"/>
       <c r="T42" s="366" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="43" spans="2:20">
       <c r="B43" s="370" t="s">
-        <v>1480</v>
+        <v>1479</v>
       </c>
       <c r="C43" s="366" t="s">
         <v>225</v>
       </c>
       <c r="D43" s="366" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E43" s="366" t="s">
         <v>1080</v>
       </c>
-      <c r="E43" s="366" t="s">
+      <c r="F43" s="366" t="s">
         <v>1081</v>
       </c>
-      <c r="F43" s="366" t="s">
+      <c r="G43" s="366" t="s">
         <v>1082</v>
-      </c>
-      <c r="G43" s="366" t="s">
-        <v>1083</v>
       </c>
       <c r="H43" s="366"/>
       <c r="I43" s="366" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J43" s="366" t="s">
         <v>1084</v>
-      </c>
-      <c r="J43" s="366" t="s">
-        <v>1085</v>
       </c>
       <c r="K43" s="366"/>
       <c r="L43" s="366" t="s">
+        <v>1085</v>
+      </c>
+      <c r="M43" s="366" t="s">
         <v>1086</v>
       </c>
-      <c r="M43" s="366" t="s">
+      <c r="N43" s="366" t="s">
         <v>1087</v>
       </c>
-      <c r="N43" s="366" t="s">
+      <c r="O43" s="366" t="s">
         <v>1088</v>
       </c>
-      <c r="O43" s="366" t="s">
+      <c r="P43" s="366" t="s">
         <v>1089</v>
       </c>
-      <c r="P43" s="366" t="s">
+      <c r="Q43" s="366" t="s">
         <v>1090</v>
       </c>
-      <c r="Q43" s="366" t="s">
+      <c r="R43" s="366" t="s">
         <v>1091</v>
       </c>
-      <c r="R43" s="366" t="s">
+      <c r="S43" s="366" t="s">
         <v>1092</v>
-      </c>
-      <c r="S43" s="366" t="s">
-        <v>1093</v>
       </c>
       <c r="T43" s="366"/>
     </row>
     <row r="44" spans="2:20">
       <c r="B44" s="370" t="s">
-        <v>1481</v>
+        <v>1480</v>
       </c>
       <c r="C44" s="366" t="s">
         <v>193</v>
       </c>
       <c r="D44" s="366" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="E44" s="366"/>
       <c r="F44" s="366"/>
       <c r="G44" s="366"/>
       <c r="H44" s="366"/>
       <c r="I44" s="366" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="J44" s="366"/>
       <c r="K44" s="366"/>
       <c r="L44" s="366"/>
       <c r="M44" s="366" t="s">
+        <v>1095</v>
+      </c>
+      <c r="N44" s="366" t="s">
         <v>1096</v>
-      </c>
-      <c r="N44" s="366" t="s">
-        <v>1097</v>
       </c>
       <c r="O44" s="366"/>
       <c r="P44" s="366" t="s">
+        <v>1097</v>
+      </c>
+      <c r="Q44" s="366" t="s">
         <v>1098</v>
       </c>
-      <c r="Q44" s="366" t="s">
+      <c r="R44" s="366" t="s">
         <v>1099</v>
-      </c>
-      <c r="R44" s="366" t="s">
-        <v>1100</v>
       </c>
       <c r="S44" s="366"/>
       <c r="T44" s="366"/>
     </row>
     <row r="45" spans="2:20">
       <c r="B45" s="370" t="s">
-        <v>1482</v>
+        <v>1481</v>
       </c>
       <c r="C45" s="366" t="s">
         <v>224</v>
       </c>
       <c r="D45" s="366" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="E45" s="366"/>
       <c r="F45" s="366"/>
       <c r="G45" s="366"/>
       <c r="H45" s="366"/>
       <c r="I45" s="366" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="J45" s="366"/>
       <c r="K45" s="366"/>
       <c r="L45" s="366" t="s">
+        <v>1102</v>
+      </c>
+      <c r="M45" s="366" t="s">
         <v>1103</v>
       </c>
-      <c r="M45" s="366" t="s">
+      <c r="N45" s="366" t="s">
         <v>1104</v>
-      </c>
-      <c r="N45" s="366" t="s">
-        <v>1105</v>
       </c>
       <c r="O45" s="366"/>
       <c r="P45" s="366" t="s">
+        <v>1105</v>
+      </c>
+      <c r="Q45" s="366" t="s">
         <v>1106</v>
       </c>
-      <c r="Q45" s="366" t="s">
+      <c r="R45" s="366" t="s">
         <v>1107</v>
       </c>
-      <c r="R45" s="366" t="s">
+      <c r="S45" s="366" t="s">
         <v>1108</v>
-      </c>
-      <c r="S45" s="366" t="s">
-        <v>1109</v>
       </c>
       <c r="T45" s="366"/>
     </row>
     <row r="46" spans="2:20">
       <c r="B46" s="370" t="s">
-        <v>1483</v>
+        <v>1482</v>
       </c>
       <c r="C46" s="366" t="s">
         <v>146</v>
       </c>
       <c r="D46" s="366" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="E46" s="366"/>
       <c r="F46" s="366"/>
       <c r="G46" s="366"/>
       <c r="H46" s="366"/>
       <c r="I46" s="366" t="s">
+        <v>1110</v>
+      </c>
+      <c r="J46" s="366" t="s">
         <v>1111</v>
-      </c>
-      <c r="J46" s="366" t="s">
-        <v>1112</v>
       </c>
       <c r="K46" s="366"/>
       <c r="L46" s="366" t="s">
+        <v>1112</v>
+      </c>
+      <c r="M46" s="366" t="s">
         <v>1113</v>
       </c>
-      <c r="M46" s="366" t="s">
+      <c r="N46" s="366" t="s">
         <v>1114</v>
       </c>
-      <c r="N46" s="366" t="s">
+      <c r="O46" s="366" t="s">
         <v>1115</v>
       </c>
-      <c r="O46" s="366" t="s">
+      <c r="P46" s="366" t="s">
         <v>1116</v>
       </c>
-      <c r="P46" s="366" t="s">
+      <c r="Q46" s="366" t="s">
         <v>1117</v>
       </c>
-      <c r="Q46" s="366" t="s">
+      <c r="R46" s="366" t="s">
         <v>1118</v>
       </c>
-      <c r="R46" s="366" t="s">
+      <c r="S46" s="366" t="s">
         <v>1119</v>
-      </c>
-      <c r="S46" s="366" t="s">
-        <v>1120</v>
       </c>
       <c r="T46" s="366"/>
     </row>
     <row r="47" spans="2:20">
       <c r="B47" s="370" t="s">
-        <v>1484</v>
+        <v>1483</v>
       </c>
       <c r="C47" s="366" t="s">
+        <v>1120</v>
+      </c>
+      <c r="D47" s="366" t="s">
         <v>1121</v>
-      </c>
-      <c r="D47" s="366" t="s">
-        <v>1122</v>
       </c>
       <c r="E47" s="366"/>
       <c r="F47" s="366"/>
       <c r="G47" s="366"/>
       <c r="H47" s="366"/>
       <c r="I47" s="366" t="s">
+        <v>1122</v>
+      </c>
+      <c r="J47" s="366" t="s">
         <v>1123</v>
-      </c>
-      <c r="J47" s="366" t="s">
-        <v>1124</v>
       </c>
       <c r="K47" s="366"/>
       <c r="L47" s="366" t="s">
+        <v>1124</v>
+      </c>
+      <c r="M47" s="366" t="s">
         <v>1125</v>
       </c>
-      <c r="M47" s="366" t="s">
+      <c r="N47" s="366" t="s">
         <v>1126</v>
       </c>
-      <c r="N47" s="366" t="s">
+      <c r="O47" s="366" t="s">
         <v>1127</v>
       </c>
-      <c r="O47" s="366" t="s">
+      <c r="P47" s="366" t="s">
         <v>1128</v>
       </c>
-      <c r="P47" s="366" t="s">
+      <c r="Q47" s="366" t="s">
         <v>1129</v>
       </c>
-      <c r="Q47" s="366" t="s">
+      <c r="R47" s="366" t="s">
         <v>1130</v>
       </c>
-      <c r="R47" s="366" t="s">
+      <c r="S47" s="366" t="s">
         <v>1131</v>
-      </c>
-      <c r="S47" s="366" t="s">
-        <v>1132</v>
       </c>
       <c r="T47" s="366"/>
     </row>
@@ -38884,101 +38886,101 @@
         <v>230</v>
       </c>
       <c r="D48" s="366" t="s">
+        <v>1132</v>
+      </c>
+      <c r="E48" s="366" t="s">
         <v>1133</v>
-      </c>
-      <c r="E48" s="366" t="s">
-        <v>1134</v>
       </c>
       <c r="F48" s="366"/>
       <c r="G48" s="366" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="H48" s="366"/>
       <c r="I48" s="366" t="s">
+        <v>1135</v>
+      </c>
+      <c r="J48" s="366" t="s">
         <v>1136</v>
       </c>
-      <c r="J48" s="366" t="s">
+      <c r="K48" s="366" t="s">
         <v>1137</v>
       </c>
-      <c r="K48" s="366" t="s">
+      <c r="L48" s="366" t="s">
         <v>1138</v>
       </c>
-      <c r="L48" s="366" t="s">
+      <c r="M48" s="366" t="s">
         <v>1139</v>
       </c>
-      <c r="M48" s="366" t="s">
+      <c r="N48" s="366" t="s">
         <v>1140</v>
       </c>
-      <c r="N48" s="366" t="s">
+      <c r="O48" s="366" t="s">
         <v>1141</v>
       </c>
-      <c r="O48" s="366" t="s">
+      <c r="P48" s="366" t="s">
         <v>1142</v>
       </c>
-      <c r="P48" s="366" t="s">
+      <c r="Q48" s="366" t="s">
         <v>1143</v>
       </c>
-      <c r="Q48" s="366" t="s">
+      <c r="R48" s="366" t="s">
         <v>1144</v>
       </c>
-      <c r="R48" s="366" t="s">
+      <c r="S48" s="366" t="s">
         <v>1145</v>
       </c>
-      <c r="S48" s="366" t="s">
+      <c r="T48" s="366" t="s">
         <v>1146</v>
-      </c>
-      <c r="T48" s="366" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="49" spans="2:20">
       <c r="B49" s="370" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="C49" s="366" t="s">
         <v>198</v>
       </c>
       <c r="D49" s="366" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="E49" s="366"/>
       <c r="F49" s="366"/>
       <c r="G49" s="366"/>
       <c r="H49" s="366"/>
       <c r="I49" s="366" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="J49" s="366"/>
       <c r="K49" s="366"/>
       <c r="L49" s="366"/>
       <c r="M49" s="366" t="s">
+        <v>1150</v>
+      </c>
+      <c r="N49" s="366" t="s">
         <v>1151</v>
-      </c>
-      <c r="N49" s="366" t="s">
-        <v>1152</v>
       </c>
       <c r="O49" s="366"/>
       <c r="P49" s="366" t="s">
+        <v>1152</v>
+      </c>
+      <c r="Q49" s="366" t="s">
         <v>1153</v>
       </c>
-      <c r="Q49" s="366" t="s">
+      <c r="R49" s="366" t="s">
         <v>1154</v>
-      </c>
-      <c r="R49" s="366" t="s">
-        <v>1155</v>
       </c>
       <c r="S49" s="366"/>
       <c r="T49" s="366"/>
     </row>
     <row r="50" spans="2:20">
       <c r="B50" s="370" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C50" s="366" t="s">
         <v>1156</v>
       </c>
-      <c r="C50" s="366" t="s">
+      <c r="D50" s="366" t="s">
         <v>1157</v>
-      </c>
-      <c r="D50" s="366" t="s">
-        <v>1158</v>
       </c>
       <c r="E50" s="366"/>
       <c r="F50" s="366"/>
@@ -38999,52 +39001,52 @@
     </row>
     <row r="51" spans="2:20">
       <c r="B51" s="370" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="C51" s="366" t="s">
         <v>308</v>
       </c>
       <c r="D51" s="366" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E51" s="366" t="s">
         <v>1160</v>
       </c>
-      <c r="E51" s="366" t="s">
+      <c r="F51" s="366" t="s">
         <v>1161</v>
       </c>
-      <c r="F51" s="366" t="s">
+      <c r="G51" s="366" t="s">
         <v>1162</v>
-      </c>
-      <c r="G51" s="366" t="s">
-        <v>1163</v>
       </c>
       <c r="H51" s="366"/>
       <c r="I51" s="366" t="s">
+        <v>1163</v>
+      </c>
+      <c r="J51" s="366" t="s">
         <v>1164</v>
-      </c>
-      <c r="J51" s="366" t="s">
-        <v>1165</v>
       </c>
       <c r="K51" s="366"/>
       <c r="L51" s="366" t="s">
+        <v>1165</v>
+      </c>
+      <c r="M51" s="366" t="s">
         <v>1166</v>
       </c>
-      <c r="M51" s="366" t="s">
+      <c r="N51" s="366" t="s">
         <v>1167</v>
-      </c>
-      <c r="N51" s="366" t="s">
-        <v>1168</v>
       </c>
       <c r="O51" s="366"/>
       <c r="P51" s="366" t="s">
+        <v>1168</v>
+      </c>
+      <c r="Q51" s="366" t="s">
         <v>1169</v>
       </c>
-      <c r="Q51" s="366" t="s">
+      <c r="R51" s="366" t="s">
         <v>1170</v>
       </c>
-      <c r="R51" s="366" t="s">
+      <c r="S51" s="366" t="s">
         <v>1171</v>
-      </c>
-      <c r="S51" s="366" t="s">
-        <v>1172</v>
       </c>
       <c r="T51" s="366"/>
     </row>
@@ -39056,53 +39058,53 @@
         <v>67</v>
       </c>
       <c r="D52" s="366" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E52" s="366" t="s">
         <v>1173</v>
       </c>
-      <c r="E52" s="366" t="s">
+      <c r="F52" s="366" t="s">
         <v>1174</v>
       </c>
-      <c r="F52" s="366" t="s">
+      <c r="G52" s="366" t="s">
         <v>1175</v>
       </c>
-      <c r="G52" s="366" t="s">
+      <c r="H52" s="366" t="s">
         <v>1176</v>
       </c>
-      <c r="H52" s="366" t="s">
+      <c r="I52" s="366" t="s">
         <v>1177</v>
       </c>
-      <c r="I52" s="366" t="s">
+      <c r="J52" s="366" t="s">
         <v>1178</v>
       </c>
-      <c r="J52" s="366" t="s">
+      <c r="K52" s="366" t="s">
         <v>1179</v>
       </c>
-      <c r="K52" s="366" t="s">
+      <c r="L52" s="366" t="s">
         <v>1180</v>
       </c>
-      <c r="L52" s="366" t="s">
+      <c r="M52" s="366" t="s">
         <v>1181</v>
       </c>
-      <c r="M52" s="366" t="s">
+      <c r="N52" s="366" t="s">
         <v>1182</v>
-      </c>
-      <c r="N52" s="366" t="s">
-        <v>1183</v>
       </c>
       <c r="O52" s="366"/>
       <c r="P52" s="366" t="s">
+        <v>1183</v>
+      </c>
+      <c r="Q52" s="366" t="s">
         <v>1184</v>
       </c>
-      <c r="Q52" s="366" t="s">
+      <c r="R52" s="366" t="s">
         <v>1185</v>
       </c>
-      <c r="R52" s="366" t="s">
+      <c r="S52" s="366" t="s">
         <v>1186</v>
       </c>
-      <c r="S52" s="366" t="s">
+      <c r="T52" s="366" t="s">
         <v>1187</v>
-      </c>
-      <c r="T52" s="366" t="s">
-        <v>1188</v>
       </c>
     </row>
     <row r="53" spans="2:20">
@@ -39113,7 +39115,7 @@
         <v>121</v>
       </c>
       <c r="D53" s="366" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="E53" s="366"/>
       <c r="F53" s="366"/>
@@ -39128,7 +39130,7 @@
       <c r="O53" s="366"/>
       <c r="P53" s="366"/>
       <c r="Q53" s="366" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="R53" s="366"/>
       <c r="S53" s="366"/>
@@ -39136,46 +39138,46 @@
     </row>
     <row r="54" spans="2:20">
       <c r="B54" s="370" t="s">
-        <v>1485</v>
+        <v>1484</v>
       </c>
       <c r="C54" s="366" t="s">
+        <v>1190</v>
+      </c>
+      <c r="D54" s="366" t="s">
         <v>1191</v>
       </c>
-      <c r="D54" s="366" t="s">
+      <c r="E54" s="366" t="s">
         <v>1192</v>
       </c>
-      <c r="E54" s="366" t="s">
+      <c r="F54" s="366" t="s">
         <v>1193</v>
       </c>
-      <c r="F54" s="366" t="s">
+      <c r="G54" s="366" t="s">
         <v>1194</v>
-      </c>
-      <c r="G54" s="366" t="s">
-        <v>1195</v>
       </c>
       <c r="H54" s="366"/>
       <c r="I54" s="366" t="s">
+        <v>1195</v>
+      </c>
+      <c r="J54" s="366" t="s">
         <v>1196</v>
-      </c>
-      <c r="J54" s="366" t="s">
-        <v>1197</v>
       </c>
       <c r="K54" s="366"/>
       <c r="L54" s="366" t="s">
+        <v>1197</v>
+      </c>
+      <c r="M54" s="366" t="s">
         <v>1198</v>
       </c>
-      <c r="M54" s="366" t="s">
+      <c r="N54" s="366" t="s">
         <v>1199</v>
-      </c>
-      <c r="N54" s="366" t="s">
-        <v>1200</v>
       </c>
       <c r="O54" s="366"/>
       <c r="P54" s="366" t="s">
+        <v>1200</v>
+      </c>
+      <c r="Q54" s="366" t="s">
         <v>1201</v>
-      </c>
-      <c r="Q54" s="366" t="s">
-        <v>1202</v>
       </c>
       <c r="R54" s="366"/>
       <c r="S54" s="366"/>
@@ -39183,34 +39185,34 @@
     </row>
     <row r="55" spans="2:20">
       <c r="B55" s="370" t="s">
-        <v>1486</v>
+        <v>1485</v>
       </c>
       <c r="C55" s="366" t="s">
         <v>238</v>
       </c>
       <c r="D55" s="366" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E55" s="366"/>
       <c r="F55" s="366"/>
       <c r="G55" s="366"/>
       <c r="H55" s="366" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I55" s="366" t="s">
         <v>1204</v>
-      </c>
-      <c r="I55" s="366" t="s">
-        <v>1205</v>
       </c>
       <c r="J55" s="366"/>
       <c r="K55" s="366"/>
       <c r="L55" s="366" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="M55" s="366"/>
       <c r="N55" s="366"/>
       <c r="O55" s="366"/>
       <c r="P55" s="366"/>
       <c r="Q55" s="366" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="R55" s="366"/>
       <c r="S55" s="366"/>
@@ -39218,13 +39220,13 @@
     </row>
     <row r="56" spans="2:20">
       <c r="B56" s="370" t="s">
-        <v>1487</v>
+        <v>1486</v>
       </c>
       <c r="C56" s="366" t="s">
+        <v>1207</v>
+      </c>
+      <c r="D56" s="366" t="s">
         <v>1208</v>
-      </c>
-      <c r="D56" s="366" t="s">
-        <v>1209</v>
       </c>
       <c r="E56" s="366"/>
       <c r="F56" s="366"/>
@@ -39245,7 +39247,7 @@
     </row>
     <row r="57" spans="2:20">
       <c r="B57" s="370" t="s">
-        <v>1488</v>
+        <v>1487</v>
       </c>
       <c r="C57" s="366" t="s">
         <v>125</v>
@@ -39256,7 +39258,7 @@
       <c r="G57" s="366"/>
       <c r="H57" s="366"/>
       <c r="I57" s="366" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="J57" s="366"/>
       <c r="K57" s="366"/>
@@ -39265,7 +39267,7 @@
       <c r="N57" s="366"/>
       <c r="O57" s="366"/>
       <c r="P57" s="366" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="Q57" s="366"/>
       <c r="R57" s="366"/>
@@ -39280,58 +39282,58 @@
         <v>101</v>
       </c>
       <c r="D58" s="366" t="s">
+        <v>1211</v>
+      </c>
+      <c r="E58" s="366" t="s">
         <v>1212</v>
       </c>
-      <c r="E58" s="366" t="s">
+      <c r="F58" s="366" t="s">
         <v>1213</v>
       </c>
-      <c r="F58" s="366" t="s">
+      <c r="G58" s="366" t="s">
         <v>1214</v>
-      </c>
-      <c r="G58" s="366" t="s">
-        <v>1215</v>
       </c>
       <c r="H58" s="366"/>
       <c r="I58" s="366" t="s">
+        <v>1215</v>
+      </c>
+      <c r="J58" s="366" t="s">
         <v>1216</v>
-      </c>
-      <c r="J58" s="366" t="s">
-        <v>1217</v>
       </c>
       <c r="K58" s="366"/>
       <c r="L58" s="366" t="s">
+        <v>1217</v>
+      </c>
+      <c r="M58" s="366" t="s">
         <v>1218</v>
       </c>
-      <c r="M58" s="366" t="s">
+      <c r="N58" s="366" t="s">
         <v>1219</v>
-      </c>
-      <c r="N58" s="366" t="s">
-        <v>1220</v>
       </c>
       <c r="O58" s="366"/>
       <c r="P58" s="366" t="s">
+        <v>1220</v>
+      </c>
+      <c r="Q58" s="366" t="s">
         <v>1221</v>
       </c>
-      <c r="Q58" s="366" t="s">
+      <c r="R58" s="366" t="s">
         <v>1222</v>
       </c>
-      <c r="R58" s="366" t="s">
+      <c r="S58" s="366" t="s">
         <v>1223</v>
-      </c>
-      <c r="S58" s="366" t="s">
-        <v>1224</v>
       </c>
       <c r="T58" s="366"/>
     </row>
     <row r="59" spans="2:20">
       <c r="B59" s="370" t="s">
-        <v>1489</v>
+        <v>1488</v>
       </c>
       <c r="C59" s="366" t="s">
+        <v>1224</v>
+      </c>
+      <c r="D59" s="366" t="s">
         <v>1225</v>
-      </c>
-      <c r="D59" s="366" t="s">
-        <v>1226</v>
       </c>
       <c r="E59" s="366"/>
       <c r="F59" s="366"/>
@@ -39341,14 +39343,14 @@
       <c r="J59" s="366"/>
       <c r="K59" s="366"/>
       <c r="L59" s="366" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="M59" s="366"/>
       <c r="N59" s="366"/>
       <c r="O59" s="366"/>
       <c r="P59" s="366"/>
       <c r="Q59" s="366" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="R59" s="366"/>
       <c r="S59" s="366"/>
@@ -39356,52 +39358,52 @@
     </row>
     <row r="60" spans="2:20">
       <c r="B60" s="370" t="s">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="C60" s="366" t="s">
+        <v>1228</v>
+      </c>
+      <c r="D60" s="366" t="s">
         <v>1229</v>
       </c>
-      <c r="D60" s="366" t="s">
+      <c r="E60" s="366" t="s">
         <v>1230</v>
       </c>
-      <c r="E60" s="366" t="s">
+      <c r="F60" s="366" t="s">
         <v>1231</v>
       </c>
-      <c r="F60" s="366" t="s">
+      <c r="G60" s="366" t="s">
         <v>1232</v>
-      </c>
-      <c r="G60" s="366" t="s">
-        <v>1233</v>
       </c>
       <c r="H60" s="366"/>
       <c r="I60" s="366" t="s">
+        <v>1233</v>
+      </c>
+      <c r="J60" s="366" t="s">
         <v>1234</v>
-      </c>
-      <c r="J60" s="366" t="s">
-        <v>1235</v>
       </c>
       <c r="K60" s="366"/>
       <c r="L60" s="366" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M60" s="366" t="s">
         <v>1236</v>
       </c>
-      <c r="M60" s="366" t="s">
+      <c r="N60" s="366" t="s">
         <v>1237</v>
-      </c>
-      <c r="N60" s="366" t="s">
-        <v>1238</v>
       </c>
       <c r="O60" s="366"/>
       <c r="P60" s="366" t="s">
+        <v>1238</v>
+      </c>
+      <c r="Q60" s="366" t="s">
         <v>1239</v>
       </c>
-      <c r="Q60" s="366" t="s">
+      <c r="R60" s="366" t="s">
         <v>1240</v>
       </c>
-      <c r="R60" s="366" t="s">
+      <c r="S60" s="366" t="s">
         <v>1241</v>
-      </c>
-      <c r="S60" s="366" t="s">
-        <v>1242</v>
       </c>
       <c r="T60" s="366"/>
     </row>
@@ -39413,92 +39415,92 @@
         <v>56</v>
       </c>
       <c r="D61" s="366" t="s">
+        <v>1242</v>
+      </c>
+      <c r="E61" s="366" t="s">
         <v>1243</v>
       </c>
-      <c r="E61" s="366" t="s">
+      <c r="F61" s="366" t="s">
         <v>1244</v>
       </c>
-      <c r="F61" s="366" t="s">
+      <c r="G61" s="366" t="s">
         <v>1245</v>
-      </c>
-      <c r="G61" s="366" t="s">
-        <v>1246</v>
       </c>
       <c r="H61" s="366"/>
       <c r="I61" s="366" t="s">
+        <v>1246</v>
+      </c>
+      <c r="J61" s="366" t="s">
         <v>1247</v>
-      </c>
-      <c r="J61" s="366" t="s">
-        <v>1248</v>
       </c>
       <c r="K61" s="366"/>
       <c r="L61" s="366" t="s">
+        <v>1248</v>
+      </c>
+      <c r="M61" s="366" t="s">
         <v>1249</v>
       </c>
-      <c r="M61" s="366" t="s">
+      <c r="N61" s="366" t="s">
         <v>1250</v>
       </c>
-      <c r="N61" s="366" t="s">
+      <c r="O61" s="366" t="s">
         <v>1251</v>
       </c>
-      <c r="O61" s="366" t="s">
+      <c r="P61" s="366" t="s">
         <v>1252</v>
       </c>
-      <c r="P61" s="366" t="s">
+      <c r="Q61" s="366" t="s">
         <v>1253</v>
       </c>
-      <c r="Q61" s="366" t="s">
+      <c r="R61" s="366" t="s">
         <v>1254</v>
       </c>
-      <c r="R61" s="366" t="s">
+      <c r="S61" s="366" t="s">
         <v>1255</v>
-      </c>
-      <c r="S61" s="366" t="s">
-        <v>1256</v>
       </c>
       <c r="T61" s="366"/>
     </row>
     <row r="62" spans="2:20">
       <c r="B62" s="370" t="s">
+        <v>1256</v>
+      </c>
+      <c r="C62" s="366" t="s">
         <v>1257</v>
-      </c>
-      <c r="C62" s="366" t="s">
-        <v>1258</v>
       </c>
       <c r="D62" s="366"/>
       <c r="E62" s="366" t="s">
+        <v>1258</v>
+      </c>
+      <c r="F62" s="366" t="s">
         <v>1259</v>
       </c>
-      <c r="F62" s="366" t="s">
+      <c r="G62" s="366" t="s">
         <v>1260</v>
-      </c>
-      <c r="G62" s="366" t="s">
-        <v>1261</v>
       </c>
       <c r="H62" s="366"/>
       <c r="I62" s="366" t="s">
+        <v>1261</v>
+      </c>
+      <c r="J62" s="366" t="s">
         <v>1262</v>
-      </c>
-      <c r="J62" s="366" t="s">
-        <v>1263</v>
       </c>
       <c r="K62" s="366"/>
       <c r="L62" s="366" t="s">
+        <v>1263</v>
+      </c>
+      <c r="M62" s="366" t="s">
         <v>1264</v>
       </c>
-      <c r="M62" s="366" t="s">
+      <c r="N62" s="366" t="s">
         <v>1265</v>
-      </c>
-      <c r="N62" s="366" t="s">
-        <v>1266</v>
       </c>
       <c r="O62" s="366"/>
       <c r="P62" s="366" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="Q62" s="366"/>
       <c r="R62" s="366" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="S62" s="366"/>
       <c r="T62" s="366"/>
@@ -39511,96 +39513,96 @@
         <v>160</v>
       </c>
       <c r="D63" s="366" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E63" s="366" t="s">
         <v>1269</v>
       </c>
-      <c r="E63" s="366" t="s">
+      <c r="F63" s="366" t="s">
         <v>1270</v>
       </c>
-      <c r="F63" s="366" t="s">
+      <c r="G63" s="366" t="s">
         <v>1271</v>
-      </c>
-      <c r="G63" s="366" t="s">
-        <v>1272</v>
       </c>
       <c r="H63" s="366"/>
       <c r="I63" s="366" t="s">
+        <v>1272</v>
+      </c>
+      <c r="J63" s="366" t="s">
         <v>1273</v>
-      </c>
-      <c r="J63" s="366" t="s">
-        <v>1274</v>
       </c>
       <c r="K63" s="366"/>
       <c r="L63" s="366" t="s">
+        <v>1274</v>
+      </c>
+      <c r="M63" s="366" t="s">
         <v>1275</v>
       </c>
-      <c r="M63" s="366" t="s">
+      <c r="N63" s="366" t="s">
         <v>1276</v>
       </c>
-      <c r="N63" s="366" t="s">
+      <c r="O63" s="366" t="s">
         <v>1277</v>
       </c>
-      <c r="O63" s="366" t="s">
+      <c r="P63" s="366" t="s">
         <v>1278</v>
       </c>
-      <c r="P63" s="366" t="s">
+      <c r="Q63" s="366" t="s">
         <v>1279</v>
       </c>
-      <c r="Q63" s="366" t="s">
+      <c r="R63" s="366" t="s">
         <v>1280</v>
       </c>
-      <c r="R63" s="366" t="s">
+      <c r="S63" s="366" t="s">
         <v>1281</v>
-      </c>
-      <c r="S63" s="366" t="s">
-        <v>1282</v>
       </c>
       <c r="T63" s="366"/>
     </row>
     <row r="64" spans="2:20">
       <c r="B64" s="370" t="s">
+        <v>1282</v>
+      </c>
+      <c r="C64" s="366" t="s">
         <v>1283</v>
       </c>
-      <c r="C64" s="366" t="s">
+      <c r="D64" s="366" t="s">
         <v>1284</v>
       </c>
-      <c r="D64" s="366" t="s">
+      <c r="E64" s="366" t="s">
         <v>1285</v>
       </c>
-      <c r="E64" s="366" t="s">
+      <c r="F64" s="366" t="s">
         <v>1286</v>
       </c>
-      <c r="F64" s="366" t="s">
+      <c r="G64" s="366" t="s">
         <v>1287</v>
-      </c>
-      <c r="G64" s="366" t="s">
-        <v>1288</v>
       </c>
       <c r="H64" s="366"/>
       <c r="I64" s="366" t="s">
+        <v>1288</v>
+      </c>
+      <c r="J64" s="366" t="s">
         <v>1289</v>
-      </c>
-      <c r="J64" s="366" t="s">
-        <v>1290</v>
       </c>
       <c r="K64" s="366"/>
       <c r="L64" s="366" t="s">
+        <v>1290</v>
+      </c>
+      <c r="M64" s="366" t="s">
         <v>1291</v>
       </c>
-      <c r="M64" s="366" t="s">
+      <c r="N64" s="366" t="s">
         <v>1292</v>
-      </c>
-      <c r="N64" s="366" t="s">
-        <v>1293</v>
       </c>
       <c r="O64" s="366"/>
       <c r="P64" s="366" t="s">
+        <v>1293</v>
+      </c>
+      <c r="Q64" s="366" t="s">
         <v>1294</v>
       </c>
-      <c r="Q64" s="366" t="s">
+      <c r="R64" s="366" t="s">
         <v>1295</v>
-      </c>
-      <c r="R64" s="366" t="s">
-        <v>1296</v>
       </c>
       <c r="S64" s="366"/>
       <c r="T64" s="366"/>
@@ -39613,147 +39615,147 @@
         <v>217</v>
       </c>
       <c r="D65" s="366" t="s">
+        <v>1296</v>
+      </c>
+      <c r="E65" s="366" t="s">
         <v>1297</v>
       </c>
-      <c r="E65" s="366" t="s">
+      <c r="F65" s="366" t="s">
         <v>1298</v>
       </c>
-      <c r="F65" s="366" t="s">
+      <c r="G65" s="366" t="s">
         <v>1299</v>
       </c>
-      <c r="G65" s="366" t="s">
+      <c r="H65" s="366" t="s">
         <v>1300</v>
       </c>
-      <c r="H65" s="366" t="s">
+      <c r="I65" s="366" t="s">
         <v>1301</v>
       </c>
-      <c r="I65" s="366" t="s">
+      <c r="J65" s="366" t="s">
         <v>1302</v>
       </c>
-      <c r="J65" s="366" t="s">
+      <c r="K65" s="366" t="s">
         <v>1303</v>
       </c>
-      <c r="K65" s="366" t="s">
+      <c r="L65" s="366" t="s">
         <v>1304</v>
       </c>
-      <c r="L65" s="366" t="s">
+      <c r="M65" s="366" t="s">
         <v>1305</v>
       </c>
-      <c r="M65" s="366" t="s">
+      <c r="N65" s="366" t="s">
         <v>1306</v>
       </c>
-      <c r="N65" s="366" t="s">
+      <c r="O65" s="366" t="s">
         <v>1307</v>
       </c>
-      <c r="O65" s="366" t="s">
+      <c r="P65" s="366" t="s">
         <v>1308</v>
       </c>
-      <c r="P65" s="366" t="s">
+      <c r="Q65" s="366" t="s">
         <v>1309</v>
       </c>
-      <c r="Q65" s="366" t="s">
+      <c r="R65" s="366" t="s">
         <v>1310</v>
       </c>
-      <c r="R65" s="366" t="s">
+      <c r="S65" s="366" t="s">
         <v>1311</v>
-      </c>
-      <c r="S65" s="366" t="s">
-        <v>1312</v>
       </c>
       <c r="T65" s="366"/>
     </row>
     <row r="66" spans="2:20">
       <c r="B66" s="370" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="C66" s="366" t="s">
         <v>187</v>
       </c>
       <c r="D66" s="366" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E66" s="366" t="s">
         <v>1314</v>
       </c>
-      <c r="E66" s="366" t="s">
+      <c r="F66" s="366" t="s">
         <v>1315</v>
-      </c>
-      <c r="F66" s="366" t="s">
-        <v>1316</v>
       </c>
       <c r="G66" s="366"/>
       <c r="H66" s="366"/>
       <c r="I66" s="366" t="s">
+        <v>1316</v>
+      </c>
+      <c r="J66" s="366" t="s">
         <v>1317</v>
-      </c>
-      <c r="J66" s="366" t="s">
-        <v>1318</v>
       </c>
       <c r="K66" s="366"/>
       <c r="L66" s="366"/>
       <c r="M66" s="366" t="s">
+        <v>1318</v>
+      </c>
+      <c r="N66" s="366" t="s">
         <v>1319</v>
-      </c>
-      <c r="N66" s="366" t="s">
-        <v>1320</v>
       </c>
       <c r="O66" s="366"/>
       <c r="P66" s="366" t="s">
+        <v>1320</v>
+      </c>
+      <c r="Q66" s="366" t="s">
         <v>1321</v>
       </c>
-      <c r="Q66" s="366" t="s">
+      <c r="R66" s="366" t="s">
         <v>1322</v>
-      </c>
-      <c r="R66" s="366" t="s">
-        <v>1323</v>
       </c>
       <c r="S66" s="366"/>
       <c r="T66" s="366"/>
     </row>
     <row r="67" spans="2:20">
       <c r="B67" s="370" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="C67" s="366" t="s">
         <v>216</v>
       </c>
       <c r="D67" s="366" t="s">
+        <v>1324</v>
+      </c>
+      <c r="E67" s="366" t="s">
         <v>1325</v>
       </c>
-      <c r="E67" s="366" t="s">
+      <c r="F67" s="366" t="s">
         <v>1326</v>
       </c>
-      <c r="F67" s="366" t="s">
+      <c r="G67" s="366" t="s">
         <v>1327</v>
-      </c>
-      <c r="G67" s="366" t="s">
-        <v>1328</v>
       </c>
       <c r="H67" s="366"/>
       <c r="I67" s="366" t="s">
+        <v>1328</v>
+      </c>
+      <c r="J67" s="366" t="s">
         <v>1329</v>
-      </c>
-      <c r="J67" s="366" t="s">
-        <v>1330</v>
       </c>
       <c r="K67" s="366"/>
       <c r="L67" s="366" t="s">
+        <v>1330</v>
+      </c>
+      <c r="M67" s="366" t="s">
         <v>1331</v>
       </c>
-      <c r="M67" s="366" t="s">
+      <c r="N67" s="366" t="s">
         <v>1332</v>
       </c>
-      <c r="N67" s="366" t="s">
+      <c r="O67" s="366" t="s">
         <v>1333</v>
       </c>
-      <c r="O67" s="366" t="s">
+      <c r="P67" s="366" t="s">
         <v>1334</v>
       </c>
-      <c r="P67" s="366" t="s">
+      <c r="Q67" s="366" t="s">
         <v>1335</v>
       </c>
-      <c r="Q67" s="366" t="s">
+      <c r="R67" s="366" t="s">
         <v>1336</v>
-      </c>
-      <c r="R67" s="366" t="s">
-        <v>1337</v>
       </c>
       <c r="S67" s="366"/>
       <c r="T67" s="366"/>
@@ -39766,58 +39768,58 @@
         <v>153</v>
       </c>
       <c r="D68" s="366" t="s">
+        <v>1337</v>
+      </c>
+      <c r="E68" s="366" t="s">
         <v>1338</v>
       </c>
-      <c r="E68" s="366" t="s">
+      <c r="F68" s="366" t="s">
         <v>1339</v>
       </c>
-      <c r="F68" s="366" t="s">
+      <c r="G68" s="366" t="s">
         <v>1340</v>
-      </c>
-      <c r="G68" s="366" t="s">
-        <v>1341</v>
       </c>
       <c r="H68" s="366"/>
       <c r="I68" s="366" t="s">
+        <v>1341</v>
+      </c>
+      <c r="J68" s="366" t="s">
         <v>1342</v>
-      </c>
-      <c r="J68" s="366" t="s">
-        <v>1343</v>
       </c>
       <c r="K68" s="366"/>
       <c r="L68" s="366" t="s">
+        <v>1343</v>
+      </c>
+      <c r="M68" s="366" t="s">
         <v>1344</v>
       </c>
-      <c r="M68" s="366" t="s">
+      <c r="N68" s="366" t="s">
         <v>1345</v>
-      </c>
-      <c r="N68" s="366" t="s">
-        <v>1346</v>
       </c>
       <c r="O68" s="366"/>
       <c r="P68" s="366" t="s">
+        <v>1346</v>
+      </c>
+      <c r="Q68" s="366" t="s">
         <v>1347</v>
       </c>
-      <c r="Q68" s="366" t="s">
+      <c r="R68" s="366" t="s">
         <v>1348</v>
       </c>
-      <c r="R68" s="366" t="s">
+      <c r="S68" s="366" t="s">
         <v>1349</v>
-      </c>
-      <c r="S68" s="366" t="s">
-        <v>1350</v>
       </c>
       <c r="T68" s="366"/>
     </row>
     <row r="69" spans="2:20">
       <c r="B69" s="370" t="s">
-        <v>1491</v>
+        <v>1490</v>
       </c>
       <c r="C69" s="366" t="s">
         <v>145</v>
       </c>
       <c r="D69" s="366" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="E69" s="366"/>
       <c r="F69" s="366"/>
@@ -39829,7 +39831,7 @@
       <c r="L69" s="366"/>
       <c r="M69" s="366"/>
       <c r="N69" s="366" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="O69" s="366"/>
       <c r="P69" s="366"/>
@@ -39840,50 +39842,50 @@
     </row>
     <row r="70" spans="2:20">
       <c r="B70" s="370" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C70" s="366" t="s">
         <v>1353</v>
       </c>
-      <c r="C70" s="366" t="s">
+      <c r="D70" s="366" t="s">
         <v>1354</v>
       </c>
-      <c r="D70" s="366" t="s">
+      <c r="E70" s="366" t="s">
         <v>1355</v>
       </c>
-      <c r="E70" s="366" t="s">
+      <c r="F70" s="366" t="s">
         <v>1356</v>
       </c>
-      <c r="F70" s="366" t="s">
+      <c r="G70" s="366" t="s">
         <v>1357</v>
-      </c>
-      <c r="G70" s="366" t="s">
-        <v>1358</v>
       </c>
       <c r="H70" s="366"/>
       <c r="I70" s="366" t="s">
+        <v>1358</v>
+      </c>
+      <c r="J70" s="366" t="s">
         <v>1359</v>
-      </c>
-      <c r="J70" s="366" t="s">
-        <v>1360</v>
       </c>
       <c r="K70" s="366"/>
       <c r="L70" s="366" t="s">
+        <v>1360</v>
+      </c>
+      <c r="M70" s="366" t="s">
         <v>1361</v>
-      </c>
-      <c r="M70" s="366" t="s">
-        <v>1362</v>
       </c>
       <c r="N70" s="366"/>
       <c r="O70" s="366"/>
       <c r="P70" s="366" t="s">
+        <v>1362</v>
+      </c>
+      <c r="Q70" s="366" t="s">
         <v>1363</v>
       </c>
-      <c r="Q70" s="366" t="s">
+      <c r="R70" s="366" t="s">
         <v>1364</v>
       </c>
-      <c r="R70" s="366" t="s">
+      <c r="S70" s="366" t="s">
         <v>1365</v>
-      </c>
-      <c r="S70" s="366" t="s">
-        <v>1366</v>
       </c>
       <c r="T70" s="366"/>
     </row>
@@ -39895,7 +39897,7 @@
         <v>213</v>
       </c>
       <c r="D71" s="366" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="E71" s="366"/>
       <c r="F71" s="366"/>
@@ -39909,26 +39911,26 @@
       <c r="N71" s="366"/>
       <c r="O71" s="366"/>
       <c r="P71" s="366" t="s">
+        <v>1367</v>
+      </c>
+      <c r="Q71" s="366" t="s">
         <v>1368</v>
       </c>
-      <c r="Q71" s="366" t="s">
+      <c r="R71" s="366" t="s">
         <v>1369</v>
-      </c>
-      <c r="R71" s="366" t="s">
-        <v>1370</v>
       </c>
       <c r="S71" s="366"/>
       <c r="T71" s="366"/>
     </row>
     <row r="72" spans="2:20">
       <c r="B72" s="370" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="C72" s="366" t="s">
         <v>184</v>
       </c>
       <c r="D72" s="366" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="E72" s="366"/>
       <c r="F72" s="366"/>
@@ -39939,15 +39941,15 @@
       <c r="K72" s="366"/>
       <c r="L72" s="366"/>
       <c r="M72" s="366" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="N72" s="366"/>
       <c r="O72" s="366"/>
       <c r="P72" s="366" t="s">
+        <v>1373</v>
+      </c>
+      <c r="Q72" s="366" t="s">
         <v>1374</v>
-      </c>
-      <c r="Q72" s="366" t="s">
-        <v>1375</v>
       </c>
       <c r="R72" s="366"/>
       <c r="S72" s="366"/>
@@ -39955,7 +39957,7 @@
     </row>
     <row r="73" spans="2:20">
       <c r="B73" s="370" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="C73" s="366" t="s">
         <v>212</v>
@@ -39964,23 +39966,23 @@
       <c r="E73" s="366"/>
       <c r="F73" s="366"/>
       <c r="G73" s="366" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="H73" s="366"/>
       <c r="I73" s="366"/>
       <c r="J73" s="366"/>
       <c r="K73" s="366"/>
       <c r="L73" s="366" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="M73" s="366"/>
       <c r="N73" s="366" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="O73" s="366"/>
       <c r="P73" s="366"/>
       <c r="Q73" s="366" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="R73" s="366"/>
       <c r="S73" s="366"/>
@@ -39988,7 +39990,7 @@
     </row>
     <row r="74" spans="2:20">
       <c r="B74" s="370" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="C74" s="366" t="s">
         <v>183</v>
@@ -40007,7 +40009,7 @@
       <c r="O74" s="366"/>
       <c r="P74" s="366"/>
       <c r="Q74" s="366" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="R74" s="366"/>
       <c r="S74" s="366"/>
@@ -40021,102 +40023,102 @@
         <v>494</v>
       </c>
       <c r="D75" s="366" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E75" s="366" t="s">
         <v>1383</v>
       </c>
-      <c r="E75" s="366" t="s">
+      <c r="F75" s="366" t="s">
         <v>1384</v>
       </c>
-      <c r="F75" s="366" t="s">
+      <c r="G75" s="366" t="s">
         <v>1385</v>
       </c>
-      <c r="G75" s="366" t="s">
+      <c r="H75" s="366" t="s">
         <v>1386</v>
       </c>
-      <c r="H75" s="366" t="s">
+      <c r="I75" s="366" t="s">
         <v>1387</v>
       </c>
-      <c r="I75" s="366" t="s">
+      <c r="J75" s="366" t="s">
         <v>1388</v>
-      </c>
-      <c r="J75" s="366" t="s">
-        <v>1389</v>
       </c>
       <c r="K75" s="366"/>
       <c r="L75" s="366" t="s">
+        <v>1389</v>
+      </c>
+      <c r="M75" s="366" t="s">
         <v>1390</v>
       </c>
-      <c r="M75" s="366" t="s">
+      <c r="N75" s="366" t="s">
         <v>1391</v>
       </c>
-      <c r="N75" s="366" t="s">
+      <c r="O75" s="366" t="s">
         <v>1392</v>
       </c>
-      <c r="O75" s="366" t="s">
+      <c r="P75" s="366" t="s">
         <v>1393</v>
       </c>
-      <c r="P75" s="366" t="s">
+      <c r="Q75" s="366" t="s">
         <v>1394</v>
       </c>
-      <c r="Q75" s="366" t="s">
+      <c r="R75" s="366" t="s">
         <v>1395</v>
       </c>
-      <c r="R75" s="366" t="s">
+      <c r="S75" s="366" t="s">
         <v>1396</v>
-      </c>
-      <c r="S75" s="366" t="s">
-        <v>1397</v>
       </c>
       <c r="T75" s="366"/>
     </row>
     <row r="76" spans="2:20">
       <c r="B76" s="370" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C76" s="366" t="s">
         <v>1398</v>
       </c>
-      <c r="C76" s="366" t="s">
+      <c r="D76" s="366" t="s">
         <v>1399</v>
       </c>
-      <c r="D76" s="366" t="s">
+      <c r="E76" s="366" t="s">
         <v>1400</v>
       </c>
-      <c r="E76" s="366" t="s">
+      <c r="F76" s="366" t="s">
         <v>1401</v>
       </c>
-      <c r="F76" s="366" t="s">
+      <c r="G76" s="366" t="s">
         <v>1402</v>
-      </c>
-      <c r="G76" s="366" t="s">
-        <v>1403</v>
       </c>
       <c r="H76" s="366"/>
       <c r="I76" s="366"/>
       <c r="J76" s="366" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="K76" s="366"/>
       <c r="L76" s="366" t="s">
+        <v>1404</v>
+      </c>
+      <c r="M76" s="366" t="s">
         <v>1405</v>
       </c>
-      <c r="M76" s="366" t="s">
+      <c r="N76" s="366" t="s">
         <v>1406</v>
-      </c>
-      <c r="N76" s="366" t="s">
-        <v>1407</v>
       </c>
       <c r="O76" s="366"/>
       <c r="P76" s="366" t="s">
+        <v>1407</v>
+      </c>
+      <c r="Q76" s="366" t="s">
         <v>1408</v>
       </c>
-      <c r="Q76" s="366" t="s">
+      <c r="R76" s="366" t="s">
         <v>1409</v>
       </c>
-      <c r="R76" s="366" t="s">
+      <c r="S76" s="366" t="s">
         <v>1410</v>
       </c>
-      <c r="S76" s="366" t="s">
+      <c r="T76" s="366" t="s">
         <v>1411</v>
-      </c>
-      <c r="T76" s="366" t="s">
-        <v>1412</v>
       </c>
     </row>
     <row r="77" spans="2:20">
@@ -40127,63 +40129,63 @@
         <v>220</v>
       </c>
       <c r="D77" s="366" t="s">
+        <v>1412</v>
+      </c>
+      <c r="E77" s="366" t="s">
         <v>1413</v>
       </c>
-      <c r="E77" s="366" t="s">
+      <c r="F77" s="366" t="s">
         <v>1414</v>
       </c>
-      <c r="F77" s="366" t="s">
+      <c r="G77" s="366" t="s">
         <v>1415</v>
       </c>
-      <c r="G77" s="366" t="s">
+      <c r="H77" s="366" t="s">
         <v>1416</v>
       </c>
-      <c r="H77" s="366" t="s">
+      <c r="I77" s="366" t="s">
         <v>1417</v>
       </c>
-      <c r="I77" s="366" t="s">
+      <c r="J77" s="366" t="s">
         <v>1418</v>
-      </c>
-      <c r="J77" s="366" t="s">
-        <v>1419</v>
       </c>
       <c r="K77" s="366"/>
       <c r="L77" s="366" t="s">
+        <v>1419</v>
+      </c>
+      <c r="M77" s="366" t="s">
         <v>1420</v>
       </c>
-      <c r="M77" s="366" t="s">
+      <c r="N77" s="366" t="s">
         <v>1421</v>
-      </c>
-      <c r="N77" s="366" t="s">
-        <v>1422</v>
       </c>
       <c r="O77" s="366"/>
       <c r="P77" s="366" t="s">
+        <v>1422</v>
+      </c>
+      <c r="Q77" s="366" t="s">
         <v>1423</v>
       </c>
-      <c r="Q77" s="366" t="s">
+      <c r="R77" s="366" t="s">
         <v>1424</v>
       </c>
-      <c r="R77" s="366" t="s">
+      <c r="S77" s="366" t="s">
         <v>1425</v>
-      </c>
-      <c r="S77" s="366" t="s">
-        <v>1426</v>
       </c>
       <c r="T77" s="366"/>
     </row>
     <row r="78" spans="2:20">
       <c r="B78" s="370" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="C78" s="366" t="s">
         <v>190</v>
       </c>
       <c r="D78" s="366" t="s">
+        <v>1427</v>
+      </c>
+      <c r="E78" s="366" t="s">
         <v>1428</v>
-      </c>
-      <c r="E78" s="366" t="s">
-        <v>1429</v>
       </c>
       <c r="F78" s="366"/>
       <c r="G78" s="366"/>
@@ -40193,17 +40195,17 @@
       <c r="K78" s="366"/>
       <c r="L78" s="366"/>
       <c r="M78" s="366" t="s">
+        <v>1429</v>
+      </c>
+      <c r="N78" s="366" t="s">
         <v>1430</v>
-      </c>
-      <c r="N78" s="366" t="s">
-        <v>1431</v>
       </c>
       <c r="O78" s="366"/>
       <c r="P78" s="366" t="s">
+        <v>1431</v>
+      </c>
+      <c r="Q78" s="366" t="s">
         <v>1432</v>
-      </c>
-      <c r="Q78" s="366" t="s">
-        <v>1433</v>
       </c>
       <c r="R78" s="366"/>
       <c r="S78" s="366"/>
@@ -40211,13 +40213,13 @@
     </row>
     <row r="79" spans="2:20">
       <c r="B79" s="370" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C79" s="366" t="s">
         <v>219</v>
       </c>
       <c r="D79" s="366" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="E79" s="366"/>
       <c r="F79" s="366"/>
@@ -40232,7 +40234,7 @@
       <c r="O79" s="366"/>
       <c r="P79" s="366"/>
       <c r="Q79" s="366" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="R79" s="366"/>
       <c r="S79" s="366"/>
@@ -40246,7 +40248,7 @@
         <v>144</v>
       </c>
       <c r="D80" s="366" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="E80" s="366"/>
       <c r="F80" s="366"/>
@@ -40267,13 +40269,13 @@
     </row>
     <row r="81" spans="2:20">
       <c r="B81" s="370" t="s">
+        <v>1437</v>
+      </c>
+      <c r="C81" s="366" t="s">
         <v>1438</v>
       </c>
-      <c r="C81" s="366" t="s">
+      <c r="D81" s="366" t="s">
         <v>1439</v>
-      </c>
-      <c r="D81" s="366" t="s">
-        <v>1440</v>
       </c>
       <c r="E81" s="366"/>
       <c r="F81" s="366"/>
@@ -40300,62 +40302,62 @@
         <v>74</v>
       </c>
       <c r="D82" s="366" t="s">
+        <v>1440</v>
+      </c>
+      <c r="E82" s="366" t="s">
         <v>1441</v>
-      </c>
-      <c r="E82" s="366" t="s">
-        <v>1442</v>
       </c>
       <c r="F82" s="366"/>
       <c r="G82" s="366"/>
       <c r="H82" s="366" t="s">
+        <v>1442</v>
+      </c>
+      <c r="I82" s="366" t="s">
         <v>1443</v>
       </c>
-      <c r="I82" s="366" t="s">
+      <c r="J82" s="366" t="s">
         <v>1444</v>
       </c>
-      <c r="J82" s="366" t="s">
+      <c r="K82" s="366" t="s">
         <v>1445</v>
-      </c>
-      <c r="K82" s="366" t="s">
-        <v>1446</v>
       </c>
       <c r="L82" s="366"/>
       <c r="M82" s="366" t="s">
+        <v>1446</v>
+      </c>
+      <c r="N82" s="366" t="s">
         <v>1447</v>
-      </c>
-      <c r="N82" s="366" t="s">
-        <v>1448</v>
       </c>
       <c r="O82" s="366"/>
       <c r="P82" s="366" t="s">
+        <v>1448</v>
+      </c>
+      <c r="Q82" s="366" t="s">
         <v>1449</v>
       </c>
-      <c r="Q82" s="366" t="s">
+      <c r="R82" s="366" t="s">
         <v>1450</v>
-      </c>
-      <c r="R82" s="366" t="s">
-        <v>1451</v>
       </c>
       <c r="S82" s="366"/>
       <c r="T82" s="366"/>
     </row>
     <row r="83" spans="2:20">
       <c r="B83" s="370" t="s">
-        <v>1492</v>
+        <v>1491</v>
       </c>
       <c r="C83" s="366" t="s">
+        <v>1451</v>
+      </c>
+      <c r="D83" s="366" t="s">
         <v>1452</v>
-      </c>
-      <c r="D83" s="366" t="s">
-        <v>1453</v>
       </c>
       <c r="E83" s="366"/>
       <c r="F83" s="366" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="G83" s="366"/>
       <c r="H83" s="366" t="s">
-        <v>1455</v>
+        <v>1454</v>
       </c>
       <c r="I83" s="366"/>
       <c r="J83" s="366"/>
@@ -40363,27 +40365,27 @@
       <c r="L83" s="366"/>
       <c r="M83" s="366"/>
       <c r="N83" s="366" t="s">
-        <v>1456</v>
+        <v>1455</v>
       </c>
       <c r="O83" s="366"/>
       <c r="P83" s="366" t="s">
-        <v>1457</v>
+        <v>1456</v>
       </c>
       <c r="Q83" s="366"/>
       <c r="R83" s="366" t="s">
-        <v>1458</v>
+        <v>1457</v>
       </c>
       <c r="S83" s="366"/>
       <c r="T83" s="366"/>
     </row>
     <row r="85" spans="2:20" ht="27.75">
       <c r="B85" s="368" t="s">
-        <v>1461</v>
+        <v>1460</v>
       </c>
     </row>
     <row r="87" spans="2:20" ht="28.5">
       <c r="B87" s="371" t="s">
-        <v>1459</v>
+        <v>1458</v>
       </c>
       <c r="C87" s="372"/>
       <c r="D87" s="372"/>
@@ -40406,7 +40408,7 @@
     </row>
     <row r="88" spans="2:20" ht="28.5">
       <c r="B88" s="371" t="s">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="C88" s="372"/>
       <c r="D88" s="372"/>

--- a/docs/鍵盤設計規格_台語ㄅㄆㄇV3.xlsx
+++ b/docs/鍵盤設計規格_台語ㄅㄆㄇV3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87B7C30E-B1EE-441A-9E16-0C7126D2A5F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4694F3C-B3FC-4D03-A492-CEB2BA06213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
@@ -98,7 +98,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="1574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2138" uniqueCount="1575">
   <si>
     <t>Speller:</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -5697,6 +5697,10 @@
   </si>
   <si>
     <t>ㄬ</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>˪</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -8663,6 +8667,15 @@
     <xf numFmtId="0" fontId="148" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="57" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8681,6 +8694,18 @@
     <xf numFmtId="0" fontId="56" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="56" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8697,27 +8722,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="56" fillId="14" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11884,8 +11888,8 @@
   <dimension ref="B1:S87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H48" sqref="H48"/>
+      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" outlineLevelCol="1"/>
@@ -13919,26 +13923,26 @@
         <v>48</v>
       </c>
       <c r="C50" s="71" t="s">
-        <v>167</v>
+        <v>156</v>
       </c>
       <c r="D50" s="32" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E50" s="192" t="s">
-        <v>245</v>
+        <v>154</v>
       </c>
       <c r="F50" s="311"/>
       <c r="G50" s="219">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H50" s="378">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I50" s="378" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="J50" s="241" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K50" s="241"/>
       <c r="L50"/>
@@ -13958,26 +13962,26 @@
         <v>49</v>
       </c>
       <c r="C51" s="71" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D51" s="32" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E51" s="192" t="s">
-        <v>166</v>
+        <v>245</v>
       </c>
       <c r="F51" s="311"/>
       <c r="G51" s="219">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H51" s="378">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" s="378" t="s">
-        <v>1504</v>
+        <v>104</v>
       </c>
       <c r="J51" s="241" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K51" s="241"/>
       <c r="L51"/>
@@ -13997,26 +14001,26 @@
         <v>50</v>
       </c>
       <c r="C52" s="71" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D52" s="32" t="s">
-        <v>106</v>
+        <v>1574</v>
       </c>
       <c r="E52" s="192" t="s">
-        <v>154</v>
+        <v>166</v>
       </c>
       <c r="F52" s="311"/>
       <c r="G52" s="219">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H52" s="378">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I52" s="378" t="s">
-        <v>106</v>
+        <v>1504</v>
       </c>
       <c r="J52" s="241" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K52" s="241"/>
       <c r="L52"/>
@@ -14836,7 +14840,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="C3:I54 C57:H60 C62:H67">
+  <conditionalFormatting sqref="C57:H60 C62:H67 C3:I54">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
@@ -25219,66 +25223,66 @@
     </row>
     <row r="2" spans="1:66" s="103" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="115"/>
-      <c r="B2" s="449" t="s">
+      <c r="B2" s="452" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="450"/>
-      <c r="D2" s="451"/>
-      <c r="E2" s="449" t="s">
+      <c r="C2" s="453"/>
+      <c r="D2" s="454"/>
+      <c r="E2" s="452" t="s">
         <v>340</v>
       </c>
-      <c r="F2" s="450"/>
-      <c r="G2" s="451"/>
-      <c r="H2" s="452" t="s">
+      <c r="F2" s="453"/>
+      <c r="G2" s="454"/>
+      <c r="H2" s="459" t="s">
         <v>341</v>
       </c>
-      <c r="I2" s="453"/>
-      <c r="J2" s="454"/>
-      <c r="K2" s="452" t="s">
+      <c r="I2" s="460"/>
+      <c r="J2" s="461"/>
+      <c r="K2" s="459" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="453"/>
-      <c r="M2" s="454"/>
-      <c r="N2" s="455">
+      <c r="L2" s="460"/>
+      <c r="M2" s="461"/>
+      <c r="N2" s="462">
         <v>0.05</v>
       </c>
-      <c r="O2" s="456"/>
-      <c r="P2" s="457"/>
-      <c r="Q2" s="452" t="s">
+      <c r="O2" s="463"/>
+      <c r="P2" s="464"/>
+      <c r="Q2" s="459" t="s">
         <v>343</v>
       </c>
-      <c r="R2" s="453"/>
-      <c r="S2" s="454"/>
-      <c r="T2" s="452" t="s">
+      <c r="R2" s="460"/>
+      <c r="S2" s="461"/>
+      <c r="T2" s="459" t="s">
         <v>344</v>
       </c>
-      <c r="U2" s="453"/>
-      <c r="V2" s="454"/>
-      <c r="W2" s="458" t="s">
+      <c r="U2" s="460"/>
+      <c r="V2" s="461"/>
+      <c r="W2" s="446" t="s">
         <v>345</v>
       </c>
-      <c r="X2" s="459"/>
-      <c r="Y2" s="460"/>
-      <c r="Z2" s="458" t="s">
+      <c r="X2" s="447"/>
+      <c r="Y2" s="448"/>
+      <c r="Z2" s="446" t="s">
         <v>346</v>
       </c>
-      <c r="AA2" s="459"/>
-      <c r="AB2" s="460"/>
-      <c r="AC2" s="458" t="s">
+      <c r="AA2" s="447"/>
+      <c r="AB2" s="448"/>
+      <c r="AC2" s="446" t="s">
         <v>347</v>
       </c>
-      <c r="AD2" s="459"/>
-      <c r="AE2" s="460"/>
-      <c r="AF2" s="446" t="s">
+      <c r="AD2" s="447"/>
+      <c r="AE2" s="448"/>
+      <c r="AF2" s="449" t="s">
         <v>348</v>
       </c>
-      <c r="AG2" s="447"/>
-      <c r="AH2" s="448"/>
-      <c r="AI2" s="446" t="s">
+      <c r="AG2" s="450"/>
+      <c r="AH2" s="451"/>
+      <c r="AI2" s="449" t="s">
         <v>349</v>
       </c>
-      <c r="AJ2" s="447"/>
-      <c r="AK2" s="448"/>
+      <c r="AJ2" s="450"/>
+      <c r="AK2" s="451"/>
       <c r="AL2" s="115"/>
       <c r="AM2" s="115"/>
       <c r="AN2" s="115"/>
@@ -25410,43 +25414,43 @@
       <c r="G4" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="461" t="str">
+      <c r="H4" s="455" t="str">
         <f ca="1">AU19</f>
         <v>ˇ</v>
       </c>
-      <c r="I4" s="462"/>
+      <c r="I4" s="456"/>
       <c r="J4" s="133" t="s">
         <v>352</v>
       </c>
-      <c r="K4" s="463" t="str">
+      <c r="K4" s="457" t="str">
         <f ca="1">AT19</f>
         <v>ˋ</v>
       </c>
-      <c r="L4" s="464"/>
+      <c r="L4" s="458"/>
       <c r="M4" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="N4" s="461" t="str">
+      <c r="N4" s="455" t="str">
         <f ca="1">AW19</f>
         <v>+</v>
       </c>
-      <c r="O4" s="462"/>
+      <c r="O4" s="456"/>
       <c r="P4" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="Q4" s="463" t="str">
+      <c r="Q4" s="457" t="str">
         <f ca="1">AV19</f>
         <v>ˊ</v>
       </c>
-      <c r="R4" s="464"/>
+      <c r="R4" s="458"/>
       <c r="S4" s="133" t="s">
         <v>355</v>
       </c>
-      <c r="T4" s="461" t="str">
+      <c r="T4" s="455" t="str">
         <f ca="1">AX19</f>
         <v>˙</v>
       </c>
-      <c r="U4" s="462"/>
+      <c r="U4" s="456"/>
       <c r="V4" s="133" t="s">
         <v>356</v>
       </c>
@@ -25545,71 +25549,71 @@
     <row r="5" spans="1:66" s="103" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="115"/>
       <c r="B5" s="115"/>
-      <c r="C5" s="449" t="s">
+      <c r="C5" s="452" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="450"/>
-      <c r="E5" s="451"/>
-      <c r="F5" s="449" t="s">
+      <c r="D5" s="453"/>
+      <c r="E5" s="454"/>
+      <c r="F5" s="452" t="s">
         <v>358</v>
       </c>
-      <c r="G5" s="450"/>
-      <c r="H5" s="451"/>
-      <c r="I5" s="449" t="s">
+      <c r="G5" s="453"/>
+      <c r="H5" s="454"/>
+      <c r="I5" s="452" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="450"/>
-      <c r="K5" s="451"/>
-      <c r="L5" s="449" t="s">
+      <c r="J5" s="453"/>
+      <c r="K5" s="454"/>
+      <c r="L5" s="452" t="s">
         <v>359</v>
       </c>
-      <c r="M5" s="450"/>
-      <c r="N5" s="451"/>
-      <c r="O5" s="449" t="s">
+      <c r="M5" s="453"/>
+      <c r="N5" s="454"/>
+      <c r="O5" s="452" t="s">
         <v>275</v>
       </c>
-      <c r="P5" s="450"/>
-      <c r="Q5" s="451"/>
-      <c r="R5" s="449" t="s">
+      <c r="P5" s="453"/>
+      <c r="Q5" s="454"/>
+      <c r="R5" s="452" t="s">
         <v>294</v>
       </c>
-      <c r="S5" s="450"/>
-      <c r="T5" s="451"/>
-      <c r="U5" s="458" t="s">
+      <c r="S5" s="453"/>
+      <c r="T5" s="454"/>
+      <c r="U5" s="446" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="459"/>
-      <c r="W5" s="460"/>
-      <c r="X5" s="458" t="s">
+      <c r="V5" s="447"/>
+      <c r="W5" s="448"/>
+      <c r="X5" s="446" t="s">
         <v>205</v>
       </c>
-      <c r="Y5" s="459"/>
-      <c r="Z5" s="460"/>
-      <c r="AA5" s="458" t="s">
+      <c r="Y5" s="447"/>
+      <c r="Z5" s="448"/>
+      <c r="AA5" s="446" t="s">
         <v>201</v>
       </c>
-      <c r="AB5" s="459"/>
-      <c r="AC5" s="460"/>
-      <c r="AD5" s="458" t="s">
+      <c r="AB5" s="447"/>
+      <c r="AC5" s="448"/>
+      <c r="AD5" s="446" t="s">
         <v>270</v>
       </c>
-      <c r="AE5" s="459"/>
-      <c r="AF5" s="460"/>
-      <c r="AG5" s="458" t="s">
+      <c r="AE5" s="447"/>
+      <c r="AF5" s="448"/>
+      <c r="AG5" s="446" t="s">
         <v>360</v>
       </c>
-      <c r="AH5" s="459"/>
-      <c r="AI5" s="460"/>
-      <c r="AJ5" s="458" t="s">
+      <c r="AH5" s="447"/>
+      <c r="AI5" s="448"/>
+      <c r="AJ5" s="446" t="s">
         <v>361</v>
       </c>
-      <c r="AK5" s="459"/>
-      <c r="AL5" s="460"/>
-      <c r="AM5" s="446" t="s">
+      <c r="AK5" s="447"/>
+      <c r="AL5" s="448"/>
+      <c r="AM5" s="449" t="s">
         <v>362</v>
       </c>
-      <c r="AN5" s="447"/>
-      <c r="AO5" s="448"/>
+      <c r="AN5" s="450"/>
+      <c r="AO5" s="451"/>
       <c r="AP5" s="115"/>
       <c r="AQ5" s="115"/>
       <c r="AR5" s="116"/>
@@ -25909,61 +25913,61 @@
       <c r="A8" s="115"/>
       <c r="B8" s="115"/>
       <c r="C8" s="139"/>
-      <c r="D8" s="449" t="s">
+      <c r="D8" s="452" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="450"/>
-      <c r="F8" s="451"/>
-      <c r="G8" s="449" t="s">
+      <c r="E8" s="453"/>
+      <c r="F8" s="454"/>
+      <c r="G8" s="452" t="s">
         <v>300</v>
       </c>
-      <c r="H8" s="450"/>
-      <c r="I8" s="451"/>
-      <c r="J8" s="449" t="s">
+      <c r="H8" s="453"/>
+      <c r="I8" s="454"/>
+      <c r="J8" s="452" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="450"/>
-      <c r="L8" s="451"/>
-      <c r="M8" s="449" t="s">
+      <c r="K8" s="453"/>
+      <c r="L8" s="454"/>
+      <c r="M8" s="452" t="s">
         <v>363</v>
       </c>
-      <c r="N8" s="450"/>
-      <c r="O8" s="451"/>
-      <c r="P8" s="449" t="s">
+      <c r="N8" s="453"/>
+      <c r="O8" s="454"/>
+      <c r="P8" s="452" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="450"/>
-      <c r="R8" s="451"/>
-      <c r="S8" s="449" t="s">
+      <c r="Q8" s="453"/>
+      <c r="R8" s="454"/>
+      <c r="S8" s="452" t="s">
         <v>297</v>
       </c>
-      <c r="T8" s="450"/>
-      <c r="U8" s="451"/>
-      <c r="V8" s="458" t="s">
+      <c r="T8" s="453"/>
+      <c r="U8" s="454"/>
+      <c r="V8" s="446" t="s">
         <v>192</v>
       </c>
-      <c r="W8" s="459"/>
-      <c r="X8" s="460"/>
-      <c r="Y8" s="458" t="s">
+      <c r="W8" s="447"/>
+      <c r="X8" s="448"/>
+      <c r="Y8" s="446" t="s">
         <v>284</v>
       </c>
-      <c r="Z8" s="459"/>
-      <c r="AA8" s="460"/>
-      <c r="AB8" s="458" t="s">
+      <c r="Z8" s="447"/>
+      <c r="AA8" s="448"/>
+      <c r="AB8" s="446" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" s="459"/>
-      <c r="AD8" s="460"/>
-      <c r="AE8" s="458" t="s">
+      <c r="AC8" s="447"/>
+      <c r="AD8" s="448"/>
+      <c r="AE8" s="446" t="s">
         <v>364</v>
       </c>
-      <c r="AF8" s="459"/>
-      <c r="AG8" s="460"/>
-      <c r="AH8" s="446" t="s">
+      <c r="AF8" s="447"/>
+      <c r="AG8" s="448"/>
+      <c r="AH8" s="449" t="s">
         <v>365</v>
       </c>
-      <c r="AI8" s="447"/>
-      <c r="AJ8" s="448"/>
+      <c r="AI8" s="450"/>
+      <c r="AJ8" s="451"/>
       <c r="AK8" s="115"/>
       <c r="AL8" s="115"/>
       <c r="AM8" s="115"/>
@@ -26268,56 +26272,56 @@
       <c r="B11" s="115"/>
       <c r="C11" s="115"/>
       <c r="D11" s="115"/>
-      <c r="E11" s="449" t="s">
+      <c r="E11" s="452" t="s">
         <v>295</v>
       </c>
-      <c r="F11" s="450"/>
-      <c r="G11" s="451"/>
-      <c r="H11" s="449" t="s">
+      <c r="F11" s="453"/>
+      <c r="G11" s="454"/>
+      <c r="H11" s="452" t="s">
         <v>366</v>
       </c>
-      <c r="I11" s="450"/>
-      <c r="J11" s="451"/>
-      <c r="K11" s="449" t="s">
+      <c r="I11" s="453"/>
+      <c r="J11" s="454"/>
+      <c r="K11" s="452" t="s">
         <v>298</v>
       </c>
-      <c r="L11" s="450"/>
-      <c r="M11" s="451"/>
-      <c r="N11" s="449" t="s">
+      <c r="L11" s="453"/>
+      <c r="M11" s="454"/>
+      <c r="N11" s="452" t="s">
         <v>367</v>
       </c>
-      <c r="O11" s="450"/>
-      <c r="P11" s="451"/>
-      <c r="Q11" s="449" t="s">
+      <c r="O11" s="453"/>
+      <c r="P11" s="454"/>
+      <c r="Q11" s="452" t="s">
         <v>143</v>
       </c>
-      <c r="R11" s="450"/>
-      <c r="S11" s="451"/>
-      <c r="T11" s="449" t="s">
+      <c r="R11" s="453"/>
+      <c r="S11" s="454"/>
+      <c r="T11" s="452" t="s">
         <v>368</v>
       </c>
-      <c r="U11" s="450"/>
-      <c r="V11" s="451"/>
-      <c r="W11" s="458" t="s">
+      <c r="U11" s="453"/>
+      <c r="V11" s="454"/>
+      <c r="W11" s="446" t="s">
         <v>336</v>
       </c>
-      <c r="X11" s="459"/>
-      <c r="Y11" s="460"/>
-      <c r="Z11" s="458" t="s">
+      <c r="X11" s="447"/>
+      <c r="Y11" s="448"/>
+      <c r="Z11" s="446" t="s">
         <v>369</v>
       </c>
-      <c r="AA11" s="459"/>
-      <c r="AB11" s="460"/>
-      <c r="AC11" s="458" t="s">
+      <c r="AA11" s="447"/>
+      <c r="AB11" s="448"/>
+      <c r="AC11" s="446" t="s">
         <v>370</v>
       </c>
-      <c r="AD11" s="459"/>
-      <c r="AE11" s="460"/>
-      <c r="AF11" s="446" t="s">
+      <c r="AD11" s="447"/>
+      <c r="AE11" s="448"/>
+      <c r="AF11" s="449" t="s">
         <v>371</v>
       </c>
-      <c r="AG11" s="447"/>
-      <c r="AH11" s="448"/>
+      <c r="AG11" s="450"/>
+      <c r="AH11" s="451"/>
       <c r="AI11" s="115"/>
       <c r="AJ11" s="115"/>
       <c r="AK11" s="115"/>
@@ -30622,7 +30626,7 @@
         <v>43</v>
       </c>
       <c r="BB46" s="71" t="str">
-        <f>注音編碼對照表!C50</f>
+        <f>注音編碼對照表!C51</f>
         <v>4</v>
       </c>
       <c r="BC46" s="351" t="str" cm="1">
@@ -30703,7 +30707,7 @@
         <v>44</v>
       </c>
       <c r="BB47" s="71" t="str">
-        <f>注音編碼對照表!C51</f>
+        <f>注音編碼對照表!C52</f>
         <v>3</v>
       </c>
       <c r="BC47" s="351" t="str" cm="1">
@@ -30781,7 +30785,7 @@
         <v>45</v>
       </c>
       <c r="BB48" s="71" t="str">
-        <f>注音編碼對照表!C52</f>
+        <f>注音編碼對照表!C50</f>
         <v>6</v>
       </c>
       <c r="BC48" s="351" t="str" cm="1">
@@ -31731,17 +31735,30 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="AJ5:AL5"/>
@@ -31758,30 +31775,17 @@
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/鍵盤設計規格_台語ㄅㄆㄇV3.xlsx
+++ b/docs/鍵盤設計規格_台語ㄅㄆㄇV3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\home\alanjui\workspace\rime\rime-tlpa\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4694F3C-B3FC-4D03-A492-CEB2BA06213C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115E0AD4-EFFB-4267-A0A3-1E8F3AFACA29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="762" xr2:uid="{E87E5C8B-EACA-42E9-8621-62DDB8F02212}"/>
   </bookViews>
@@ -8667,15 +8667,6 @@
     <xf numFmtId="0" fontId="148" fillId="23" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="56" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="57" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8694,18 +8685,6 @@
     <xf numFmtId="0" fontId="56" fillId="6" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="62" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="56" fillId="14" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8722,6 +8701,27 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="56" fillId="14" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="7" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="62" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="22" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="14" borderId="23" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -10401,6 +10401,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>790575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>314325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>81676</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="圖片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E206717-5A91-9B34-7EFD-ADE293C2C476}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix/>
+        </a:blip>
+        <a:srcRect l="19256" t="10112"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16764000" y="3162300"/>
+          <a:ext cx="1043701" cy="1524000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -11888,8 +11939,8 @@
   <dimension ref="B1:S87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I17" sqref="I17"/>
+      <pane ySplit="2" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="23.25" outlineLevelCol="1"/>
@@ -12337,7 +12388,7 @@
       <c r="N10"/>
     </row>
     <row r="11" spans="2:19" ht="44.25">
-      <c r="B11" s="77">
+      <c r="B11" s="25">
         <f t="shared" ref="B11:B14" si="1">ROW() - 2</f>
         <v>9</v>
       </c>
@@ -12385,7 +12436,7 @@
       <c r="S11" s="361"/>
     </row>
     <row r="12" spans="2:19" ht="44.25">
-      <c r="B12" s="77">
+      <c r="B12" s="31">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
@@ -12431,7 +12482,7 @@
       <c r="Q12" s="361"/>
     </row>
     <row r="13" spans="2:19" ht="44.25">
-      <c r="B13" s="77">
+      <c r="B13" s="31">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
@@ -12477,7 +12528,7 @@
       <c r="Q13" s="190"/>
     </row>
     <row r="14" spans="2:19" ht="44.25">
-      <c r="B14" s="77">
+      <c r="B14" s="41">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
@@ -14840,7 +14891,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="C57:H60 C62:H67 C3:I54">
+  <conditionalFormatting sqref="C3:I54 C57:H60 C62:H67">
     <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
       <formula>CHAR(32)</formula>
     </cfRule>
@@ -25223,66 +25274,66 @@
     </row>
     <row r="2" spans="1:66" s="103" customFormat="1" ht="45" customHeight="1">
       <c r="A2" s="115"/>
-      <c r="B2" s="452" t="s">
+      <c r="B2" s="449" t="s">
         <v>339</v>
       </c>
-      <c r="C2" s="453"/>
-      <c r="D2" s="454"/>
-      <c r="E2" s="452" t="s">
+      <c r="C2" s="450"/>
+      <c r="D2" s="451"/>
+      <c r="E2" s="449" t="s">
         <v>340</v>
       </c>
-      <c r="F2" s="453"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="459" t="s">
+      <c r="F2" s="450"/>
+      <c r="G2" s="451"/>
+      <c r="H2" s="452" t="s">
         <v>341</v>
       </c>
-      <c r="I2" s="460"/>
-      <c r="J2" s="461"/>
-      <c r="K2" s="459" t="s">
+      <c r="I2" s="453"/>
+      <c r="J2" s="454"/>
+      <c r="K2" s="452" t="s">
         <v>342</v>
       </c>
-      <c r="L2" s="460"/>
-      <c r="M2" s="461"/>
-      <c r="N2" s="462">
+      <c r="L2" s="453"/>
+      <c r="M2" s="454"/>
+      <c r="N2" s="455">
         <v>0.05</v>
       </c>
-      <c r="O2" s="463"/>
-      <c r="P2" s="464"/>
-      <c r="Q2" s="459" t="s">
+      <c r="O2" s="456"/>
+      <c r="P2" s="457"/>
+      <c r="Q2" s="452" t="s">
         <v>343</v>
       </c>
-      <c r="R2" s="460"/>
-      <c r="S2" s="461"/>
-      <c r="T2" s="459" t="s">
+      <c r="R2" s="453"/>
+      <c r="S2" s="454"/>
+      <c r="T2" s="452" t="s">
         <v>344</v>
       </c>
-      <c r="U2" s="460"/>
-      <c r="V2" s="461"/>
-      <c r="W2" s="446" t="s">
+      <c r="U2" s="453"/>
+      <c r="V2" s="454"/>
+      <c r="W2" s="458" t="s">
         <v>345</v>
       </c>
-      <c r="X2" s="447"/>
-      <c r="Y2" s="448"/>
-      <c r="Z2" s="446" t="s">
+      <c r="X2" s="459"/>
+      <c r="Y2" s="460"/>
+      <c r="Z2" s="458" t="s">
         <v>346</v>
       </c>
-      <c r="AA2" s="447"/>
-      <c r="AB2" s="448"/>
-      <c r="AC2" s="446" t="s">
+      <c r="AA2" s="459"/>
+      <c r="AB2" s="460"/>
+      <c r="AC2" s="458" t="s">
         <v>347</v>
       </c>
-      <c r="AD2" s="447"/>
-      <c r="AE2" s="448"/>
-      <c r="AF2" s="449" t="s">
+      <c r="AD2" s="459"/>
+      <c r="AE2" s="460"/>
+      <c r="AF2" s="446" t="s">
         <v>348</v>
       </c>
-      <c r="AG2" s="450"/>
-      <c r="AH2" s="451"/>
-      <c r="AI2" s="449" t="s">
+      <c r="AG2" s="447"/>
+      <c r="AH2" s="448"/>
+      <c r="AI2" s="446" t="s">
         <v>349</v>
       </c>
-      <c r="AJ2" s="450"/>
-      <c r="AK2" s="451"/>
+      <c r="AJ2" s="447"/>
+      <c r="AK2" s="448"/>
       <c r="AL2" s="115"/>
       <c r="AM2" s="115"/>
       <c r="AN2" s="115"/>
@@ -25414,43 +25465,43 @@
       <c r="G4" s="132" t="s">
         <v>241</v>
       </c>
-      <c r="H4" s="455" t="str">
+      <c r="H4" s="461" t="str">
         <f ca="1">AU19</f>
         <v>ˇ</v>
       </c>
-      <c r="I4" s="456"/>
+      <c r="I4" s="462"/>
       <c r="J4" s="133" t="s">
         <v>352</v>
       </c>
-      <c r="K4" s="457" t="str">
+      <c r="K4" s="463" t="str">
         <f ca="1">AT19</f>
         <v>ˋ</v>
       </c>
-      <c r="L4" s="458"/>
+      <c r="L4" s="464"/>
       <c r="M4" s="133" t="s">
         <v>353</v>
       </c>
-      <c r="N4" s="455" t="str">
+      <c r="N4" s="461" t="str">
         <f ca="1">AW19</f>
         <v>+</v>
       </c>
-      <c r="O4" s="456"/>
+      <c r="O4" s="462"/>
       <c r="P4" s="133" t="s">
         <v>354</v>
       </c>
-      <c r="Q4" s="457" t="str">
+      <c r="Q4" s="463" t="str">
         <f ca="1">AV19</f>
         <v>ˊ</v>
       </c>
-      <c r="R4" s="458"/>
+      <c r="R4" s="464"/>
       <c r="S4" s="133" t="s">
         <v>355</v>
       </c>
-      <c r="T4" s="455" t="str">
+      <c r="T4" s="461" t="str">
         <f ca="1">AX19</f>
         <v>˙</v>
       </c>
-      <c r="U4" s="456"/>
+      <c r="U4" s="462"/>
       <c r="V4" s="133" t="s">
         <v>356</v>
       </c>
@@ -25549,71 +25600,71 @@
     <row r="5" spans="1:66" s="103" customFormat="1" ht="45" customHeight="1">
       <c r="A5" s="115"/>
       <c r="B5" s="115"/>
-      <c r="C5" s="452" t="s">
+      <c r="C5" s="449" t="s">
         <v>357</v>
       </c>
-      <c r="D5" s="453"/>
-      <c r="E5" s="454"/>
-      <c r="F5" s="452" t="s">
+      <c r="D5" s="450"/>
+      <c r="E5" s="451"/>
+      <c r="F5" s="449" t="s">
         <v>358</v>
       </c>
-      <c r="G5" s="453"/>
-      <c r="H5" s="454"/>
-      <c r="I5" s="452" t="s">
+      <c r="G5" s="450"/>
+      <c r="H5" s="451"/>
+      <c r="I5" s="449" t="s">
         <v>231</v>
       </c>
-      <c r="J5" s="453"/>
-      <c r="K5" s="454"/>
-      <c r="L5" s="452" t="s">
+      <c r="J5" s="450"/>
+      <c r="K5" s="451"/>
+      <c r="L5" s="449" t="s">
         <v>359</v>
       </c>
-      <c r="M5" s="453"/>
-      <c r="N5" s="454"/>
-      <c r="O5" s="452" t="s">
+      <c r="M5" s="450"/>
+      <c r="N5" s="451"/>
+      <c r="O5" s="449" t="s">
         <v>275</v>
       </c>
-      <c r="P5" s="453"/>
-      <c r="Q5" s="454"/>
-      <c r="R5" s="452" t="s">
+      <c r="P5" s="450"/>
+      <c r="Q5" s="451"/>
+      <c r="R5" s="449" t="s">
         <v>294</v>
       </c>
-      <c r="S5" s="453"/>
-      <c r="T5" s="454"/>
-      <c r="U5" s="446" t="s">
+      <c r="S5" s="450"/>
+      <c r="T5" s="451"/>
+      <c r="U5" s="458" t="s">
         <v>197</v>
       </c>
-      <c r="V5" s="447"/>
-      <c r="W5" s="448"/>
-      <c r="X5" s="446" t="s">
+      <c r="V5" s="459"/>
+      <c r="W5" s="460"/>
+      <c r="X5" s="458" t="s">
         <v>205</v>
       </c>
-      <c r="Y5" s="447"/>
-      <c r="Z5" s="448"/>
-      <c r="AA5" s="446" t="s">
+      <c r="Y5" s="459"/>
+      <c r="Z5" s="460"/>
+      <c r="AA5" s="458" t="s">
         <v>201</v>
       </c>
-      <c r="AB5" s="447"/>
-      <c r="AC5" s="448"/>
-      <c r="AD5" s="446" t="s">
+      <c r="AB5" s="459"/>
+      <c r="AC5" s="460"/>
+      <c r="AD5" s="458" t="s">
         <v>270</v>
       </c>
-      <c r="AE5" s="447"/>
-      <c r="AF5" s="448"/>
-      <c r="AG5" s="446" t="s">
+      <c r="AE5" s="459"/>
+      <c r="AF5" s="460"/>
+      <c r="AG5" s="458" t="s">
         <v>360</v>
       </c>
-      <c r="AH5" s="447"/>
-      <c r="AI5" s="448"/>
-      <c r="AJ5" s="446" t="s">
+      <c r="AH5" s="459"/>
+      <c r="AI5" s="460"/>
+      <c r="AJ5" s="458" t="s">
         <v>361</v>
       </c>
-      <c r="AK5" s="447"/>
-      <c r="AL5" s="448"/>
-      <c r="AM5" s="449" t="s">
+      <c r="AK5" s="459"/>
+      <c r="AL5" s="460"/>
+      <c r="AM5" s="446" t="s">
         <v>362</v>
       </c>
-      <c r="AN5" s="450"/>
-      <c r="AO5" s="451"/>
+      <c r="AN5" s="447"/>
+      <c r="AO5" s="448"/>
       <c r="AP5" s="115"/>
       <c r="AQ5" s="115"/>
       <c r="AR5" s="116"/>
@@ -25913,61 +25964,61 @@
       <c r="A8" s="115"/>
       <c r="B8" s="115"/>
       <c r="C8" s="139"/>
-      <c r="D8" s="452" t="s">
+      <c r="D8" s="449" t="s">
         <v>271</v>
       </c>
-      <c r="E8" s="453"/>
-      <c r="F8" s="454"/>
-      <c r="G8" s="452" t="s">
+      <c r="E8" s="450"/>
+      <c r="F8" s="451"/>
+      <c r="G8" s="449" t="s">
         <v>300</v>
       </c>
-      <c r="H8" s="453"/>
-      <c r="I8" s="454"/>
-      <c r="J8" s="452" t="s">
+      <c r="H8" s="450"/>
+      <c r="I8" s="451"/>
+      <c r="J8" s="449" t="s">
         <v>164</v>
       </c>
-      <c r="K8" s="453"/>
-      <c r="L8" s="454"/>
-      <c r="M8" s="452" t="s">
+      <c r="K8" s="450"/>
+      <c r="L8" s="451"/>
+      <c r="M8" s="449" t="s">
         <v>363</v>
       </c>
-      <c r="N8" s="453"/>
-      <c r="O8" s="454"/>
-      <c r="P8" s="452" t="s">
+      <c r="N8" s="450"/>
+      <c r="O8" s="451"/>
+      <c r="P8" s="449" t="s">
         <v>140</v>
       </c>
-      <c r="Q8" s="453"/>
-      <c r="R8" s="454"/>
-      <c r="S8" s="452" t="s">
+      <c r="Q8" s="450"/>
+      <c r="R8" s="451"/>
+      <c r="S8" s="449" t="s">
         <v>297</v>
       </c>
-      <c r="T8" s="453"/>
-      <c r="U8" s="454"/>
-      <c r="V8" s="446" t="s">
+      <c r="T8" s="450"/>
+      <c r="U8" s="451"/>
+      <c r="V8" s="458" t="s">
         <v>192</v>
       </c>
-      <c r="W8" s="447"/>
-      <c r="X8" s="448"/>
-      <c r="Y8" s="446" t="s">
+      <c r="W8" s="459"/>
+      <c r="X8" s="460"/>
+      <c r="Y8" s="458" t="s">
         <v>284</v>
       </c>
-      <c r="Z8" s="447"/>
-      <c r="AA8" s="448"/>
-      <c r="AB8" s="446" t="s">
+      <c r="Z8" s="459"/>
+      <c r="AA8" s="460"/>
+      <c r="AB8" s="458" t="s">
         <v>186</v>
       </c>
-      <c r="AC8" s="447"/>
-      <c r="AD8" s="448"/>
-      <c r="AE8" s="446" t="s">
+      <c r="AC8" s="459"/>
+      <c r="AD8" s="460"/>
+      <c r="AE8" s="458" t="s">
         <v>364</v>
       </c>
-      <c r="AF8" s="447"/>
-      <c r="AG8" s="448"/>
-      <c r="AH8" s="449" t="s">
+      <c r="AF8" s="459"/>
+      <c r="AG8" s="460"/>
+      <c r="AH8" s="446" t="s">
         <v>365</v>
       </c>
-      <c r="AI8" s="450"/>
-      <c r="AJ8" s="451"/>
+      <c r="AI8" s="447"/>
+      <c r="AJ8" s="448"/>
       <c r="AK8" s="115"/>
       <c r="AL8" s="115"/>
       <c r="AM8" s="115"/>
@@ -26272,56 +26323,56 @@
       <c r="B11" s="115"/>
       <c r="C11" s="115"/>
       <c r="D11" s="115"/>
-      <c r="E11" s="452" t="s">
+      <c r="E11" s="449" t="s">
         <v>295</v>
       </c>
-      <c r="F11" s="453"/>
-      <c r="G11" s="454"/>
-      <c r="H11" s="452" t="s">
+      <c r="F11" s="450"/>
+      <c r="G11" s="451"/>
+      <c r="H11" s="449" t="s">
         <v>366</v>
       </c>
-      <c r="I11" s="453"/>
-      <c r="J11" s="454"/>
-      <c r="K11" s="452" t="s">
+      <c r="I11" s="450"/>
+      <c r="J11" s="451"/>
+      <c r="K11" s="449" t="s">
         <v>298</v>
       </c>
-      <c r="L11" s="453"/>
-      <c r="M11" s="454"/>
-      <c r="N11" s="452" t="s">
+      <c r="L11" s="450"/>
+      <c r="M11" s="451"/>
+      <c r="N11" s="449" t="s">
         <v>367</v>
       </c>
-      <c r="O11" s="453"/>
-      <c r="P11" s="454"/>
-      <c r="Q11" s="452" t="s">
+      <c r="O11" s="450"/>
+      <c r="P11" s="451"/>
+      <c r="Q11" s="449" t="s">
         <v>143</v>
       </c>
-      <c r="R11" s="453"/>
-      <c r="S11" s="454"/>
-      <c r="T11" s="452" t="s">
+      <c r="R11" s="450"/>
+      <c r="S11" s="451"/>
+      <c r="T11" s="449" t="s">
         <v>368</v>
       </c>
-      <c r="U11" s="453"/>
-      <c r="V11" s="454"/>
-      <c r="W11" s="446" t="s">
+      <c r="U11" s="450"/>
+      <c r="V11" s="451"/>
+      <c r="W11" s="458" t="s">
         <v>336</v>
       </c>
-      <c r="X11" s="447"/>
-      <c r="Y11" s="448"/>
-      <c r="Z11" s="446" t="s">
+      <c r="X11" s="459"/>
+      <c r="Y11" s="460"/>
+      <c r="Z11" s="458" t="s">
         <v>369</v>
       </c>
-      <c r="AA11" s="447"/>
-      <c r="AB11" s="448"/>
-      <c r="AC11" s="446" t="s">
+      <c r="AA11" s="459"/>
+      <c r="AB11" s="460"/>
+      <c r="AC11" s="458" t="s">
         <v>370</v>
       </c>
-      <c r="AD11" s="447"/>
-      <c r="AE11" s="448"/>
-      <c r="AF11" s="449" t="s">
+      <c r="AD11" s="459"/>
+      <c r="AE11" s="460"/>
+      <c r="AF11" s="446" t="s">
         <v>371</v>
       </c>
-      <c r="AG11" s="450"/>
-      <c r="AH11" s="451"/>
+      <c r="AG11" s="447"/>
+      <c r="AH11" s="448"/>
       <c r="AI11" s="115"/>
       <c r="AJ11" s="115"/>
       <c r="AK11" s="115"/>
@@ -31735,30 +31786,17 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="N2:P2"/>
-    <mergeCell ref="Q2:S2"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="Z2:AB2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="O5:Q5"/>
-    <mergeCell ref="AD5:AF5"/>
-    <mergeCell ref="AG5:AI5"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="Z11:AB11"/>
+    <mergeCell ref="AC11:AE11"/>
+    <mergeCell ref="AF11:AH11"/>
+    <mergeCell ref="AB8:AD8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="K11:M11"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="Q11:S11"/>
     <mergeCell ref="T11:V11"/>
     <mergeCell ref="W11:Y11"/>
     <mergeCell ref="AJ5:AL5"/>
@@ -31775,17 +31813,30 @@
     <mergeCell ref="U5:W5"/>
     <mergeCell ref="X5:Z5"/>
     <mergeCell ref="AA5:AC5"/>
-    <mergeCell ref="E11:G11"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="K11:M11"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="Q11:S11"/>
-    <mergeCell ref="Z11:AB11"/>
-    <mergeCell ref="AC11:AE11"/>
-    <mergeCell ref="AF11:AH11"/>
-    <mergeCell ref="AB8:AD8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AJ8"/>
+    <mergeCell ref="AD5:AF5"/>
+    <mergeCell ref="AG5:AI5"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="T4:U4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="O5:Q5"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:S2"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="Z2:AB2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -40606,8 +40657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A957C941-707B-43B5-A2ED-6EBC07AA803C}">
   <dimension ref="B1:U8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="27.75"/>
@@ -40897,8 +40948,9 @@
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>